--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsdp\Desktop\github\project02\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29CC0686-200E-447E-91F2-182E2EDCD6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2168EC-26DA-44F5-AB73-A1498DD06612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="165">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,9 +289,6 @@
   </si>
   <si>
     <t>FUR-020</t>
-  </si>
-  <si>
-    <t>FUR-021</t>
   </si>
   <si>
     <t>FUR-022</t>
@@ -467,26 +464,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.2.3 취소/반품/교환 목록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.4 리뷰 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.2.5 할인쿠폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.3.1 관리자페이지 화면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.3.4 리뷰 관리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 고객지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -607,6 +588,26 @@
   </si>
   <si>
     <t>FUR-053</t>
+  </si>
+  <si>
+    <t>2.2.3 리뷰 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2.4 할인쿠폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1.3 네이버 소셜 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.4 입고 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.5 리뷰 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1157,7 +1158,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1434,6 +1435,66 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1446,64 +1507,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1821,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BU69"/>
+  <dimension ref="B1:BU70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C33" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1848,10 +1852,10 @@
       <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="112" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" s="113"/>
+      <c r="D2" s="95" t="s">
+        <v>120</v>
+      </c>
+      <c r="E2" s="96"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -1861,115 +1865,115 @@
       <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="114">
+      <c r="D3" s="97">
         <v>45158</v>
       </c>
-      <c r="E3" s="103"/>
+      <c r="E3" s="98"/>
     </row>
     <row r="4" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="114">
+      <c r="D4" s="97">
         <v>45173</v>
       </c>
-      <c r="E4" s="103"/>
+      <c r="E4" s="98"/>
     </row>
     <row r="5" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="115" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="103"/>
+      <c r="D5" s="99" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="98"/>
     </row>
     <row r="6" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="109">
         <v>45163</v>
       </c>
-      <c r="E6" s="103"/>
+      <c r="E6" s="98"/>
     </row>
     <row r="7" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="104" t="s">
+      <c r="D7" s="110" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="105"/>
+      <c r="E7" s="111"/>
     </row>
     <row r="8" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="2:73" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="109" t="s">
+      <c r="B10" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="106" t="s">
+      <c r="C10" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="106" t="s">
+      <c r="D10" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="106" t="s">
+      <c r="E10" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="106" t="s">
+      <c r="F10" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="106" t="s">
+      <c r="G10" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="106" t="s">
+      <c r="H10" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="99" t="s">
+      <c r="I10" s="106" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="99" t="s">
+      <c r="J10" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="96" t="s">
+      <c r="K10" s="103" t="s">
         <v>48</v>
       </c>
       <c r="L10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="93" t="s">
+      <c r="M10" s="113" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="94"/>
-      <c r="Q10" s="94"/>
-      <c r="R10" s="94"/>
-      <c r="S10" s="94"/>
-      <c r="T10" s="94"/>
-      <c r="U10" s="94"/>
-      <c r="V10" s="94"/>
-      <c r="W10" s="94"/>
-      <c r="X10" s="94"/>
-      <c r="Y10" s="94"/>
-      <c r="Z10" s="94"/>
-      <c r="AA10" s="94"/>
-      <c r="AB10" s="94"/>
-      <c r="AC10" s="94"/>
-      <c r="AD10" s="94"/>
-      <c r="AE10" s="94"/>
-      <c r="AF10" s="94"/>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="94"/>
-      <c r="AJ10" s="94"/>
-      <c r="AK10" s="94"/>
-      <c r="AL10" s="94"/>
-      <c r="AM10" s="94"/>
-      <c r="AN10" s="95"/>
+      <c r="N10" s="114"/>
+      <c r="O10" s="114"/>
+      <c r="P10" s="114"/>
+      <c r="Q10" s="114"/>
+      <c r="R10" s="114"/>
+      <c r="S10" s="114"/>
+      <c r="T10" s="114"/>
+      <c r="U10" s="114"/>
+      <c r="V10" s="114"/>
+      <c r="W10" s="114"/>
+      <c r="X10" s="114"/>
+      <c r="Y10" s="114"/>
+      <c r="Z10" s="114"/>
+      <c r="AA10" s="114"/>
+      <c r="AB10" s="114"/>
+      <c r="AC10" s="114"/>
+      <c r="AD10" s="114"/>
+      <c r="AE10" s="114"/>
+      <c r="AF10" s="114"/>
+      <c r="AG10" s="114"/>
+      <c r="AH10" s="114"/>
+      <c r="AI10" s="114"/>
+      <c r="AJ10" s="114"/>
+      <c r="AK10" s="114"/>
+      <c r="AL10" s="114"/>
+      <c r="AM10" s="114"/>
+      <c r="AN10" s="115"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
@@ -2005,67 +2009,67 @@
       <c r="BU10" s="1"/>
     </row>
     <row r="11" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="110"/>
-      <c r="C11" s="107"/>
-      <c r="D11" s="107"/>
-      <c r="E11" s="107"/>
-      <c r="F11" s="107"/>
-      <c r="G11" s="107"/>
-      <c r="H11" s="107"/>
-      <c r="I11" s="100"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="97"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="107"/>
+      <c r="J11" s="107"/>
+      <c r="K11" s="104"/>
       <c r="L11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="92" t="s">
+      <c r="M11" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="92"/>
-      <c r="O11" s="92"/>
-      <c r="P11" s="92"/>
-      <c r="Q11" s="92"/>
-      <c r="R11" s="92"/>
-      <c r="S11" s="92"/>
-      <c r="T11" s="92" t="s">
+      <c r="N11" s="112"/>
+      <c r="O11" s="112"/>
+      <c r="P11" s="112"/>
+      <c r="Q11" s="112"/>
+      <c r="R11" s="112"/>
+      <c r="S11" s="112"/>
+      <c r="T11" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="92"/>
-      <c r="V11" s="92"/>
-      <c r="W11" s="92"/>
-      <c r="X11" s="92"/>
-      <c r="Y11" s="92"/>
-      <c r="Z11" s="92"/>
-      <c r="AA11" s="92" t="s">
+      <c r="U11" s="112"/>
+      <c r="V11" s="112"/>
+      <c r="W11" s="112"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112" t="s">
         <v>46</v>
       </c>
-      <c r="AB11" s="92"/>
-      <c r="AC11" s="92"/>
-      <c r="AD11" s="92"/>
-      <c r="AE11" s="92"/>
-      <c r="AF11" s="92"/>
-      <c r="AG11" s="92"/>
-      <c r="AH11" s="92" t="s">
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
+      <c r="AD11" s="112"/>
+      <c r="AE11" s="112"/>
+      <c r="AF11" s="112"/>
+      <c r="AG11" s="112"/>
+      <c r="AH11" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="AI11" s="92"/>
-      <c r="AJ11" s="92"/>
-      <c r="AK11" s="92"/>
-      <c r="AL11" s="92"/>
-      <c r="AM11" s="92"/>
-      <c r="AN11" s="92"/>
+      <c r="AI11" s="112"/>
+      <c r="AJ11" s="112"/>
+      <c r="AK11" s="112"/>
+      <c r="AL11" s="112"/>
+      <c r="AM11" s="112"/>
+      <c r="AN11" s="112"/>
     </row>
     <row r="12" spans="2:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="111"/>
-      <c r="C12" s="108"/>
-      <c r="D12" s="108"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="108"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="98"/>
+      <c r="B12" s="94"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="108"/>
+      <c r="J12" s="108"/>
+      <c r="K12" s="105"/>
       <c r="L12" s="85" t="s">
         <v>14</v>
       </c>
@@ -2159,7 +2163,7 @@
         <v>54</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -2222,11 +2226,11 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7" t="str">
-        <f t="shared" ref="F14:F69" si="0">IF(G14=1,"완료",IF(G14=0, "대기중","진행중"))</f>
+        <f t="shared" ref="F14:F70" si="0">IF(G14=1,"완료",IF(G14=0, "대기중","진행중"))</f>
         <v>완료</v>
       </c>
       <c r="G14" s="8">
@@ -2239,7 +2243,7 @@
         <v>45158</v>
       </c>
       <c r="J14" s="46">
-        <f t="shared" ref="J14:J69" si="1">I14+H14</f>
+        <f t="shared" ref="J14:J70" si="1">I14+H14</f>
         <v>45163</v>
       </c>
       <c r="K14" s="79" t="s">
@@ -2282,7 +2286,7 @@
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2340,7 +2344,7 @@
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="str">
@@ -2400,7 +2404,7 @@
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2458,7 +2462,7 @@
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="7" t="str">
@@ -2518,7 +2522,7 @@
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2577,7 +2581,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2635,7 +2639,7 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="7" t="str">
@@ -2694,7 +2698,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2753,7 +2757,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2812,7 +2816,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2866,7 +2870,7 @@
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="7" t="str">
@@ -2922,7 +2926,7 @@
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2977,7 +2981,7 @@
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3032,7 +3036,7 @@
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F28" s="19" t="str">
         <f t="shared" si="0"/>
@@ -3085,7 +3089,7 @@
         <v>66</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D29" s="74"/>
       <c r="E29" s="74"/>
@@ -3094,11 +3098,11 @@
         <v>진행중</v>
       </c>
       <c r="G29" s="76">
-        <f>AVERAGE(G30,G34,G40)</f>
+        <f>AVERAGE(G30,G35,G40)</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="H29" s="75">
-        <f>SUM(H30,H34,H40)</f>
+        <f>SUM(H30,H35,H40)</f>
         <v>4</v>
       </c>
       <c r="I29" s="77">
@@ -3147,7 +3151,7 @@
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7" t="str">
@@ -3158,7 +3162,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="7">
-        <f>SUM(H31:H33)</f>
+        <f>SUM(H31:H34)</f>
         <v>3</v>
       </c>
       <c r="I30" s="46"/>
@@ -3206,7 +3210,7 @@
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F31" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3265,7 +3269,7 @@
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F32" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3318,30 +3322,24 @@
       <c r="AN32" s="38"/>
     </row>
     <row r="33" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5" t="s">
-        <v>114</v>
+      <c r="B33" s="9"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6" t="s">
+        <v>162</v>
       </c>
       <c r="F33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>완료</v>
+        <v>대기중</v>
       </c>
       <c r="G33" s="8">
-        <v>1</v>
-      </c>
-      <c r="H33" s="7">
-        <v>1</v>
-      </c>
-      <c r="I33" s="48">
-        <v>45158</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H33" s="4"/>
+      <c r="I33" s="46"/>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>45159</v>
+        <v>0</v>
       </c>
       <c r="K33" s="79" t="s">
         <v>52</v>
@@ -3378,28 +3376,29 @@
     </row>
     <row r="34" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="F34" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G34" s="8">
-        <v>0</v>
-      </c>
-      <c r="H34" s="4">
-        <f>SUM(H35:H39)</f>
         <v>1</v>
       </c>
-      <c r="I34" s="48"/>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="48">
+        <v>45158</v>
+      </c>
       <c r="J34" s="46">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>45159</v>
       </c>
       <c r="K34" s="79" t="s">
         <v>52</v>
@@ -3436,29 +3435,28 @@
     </row>
     <row r="35" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5" t="s">
-        <v>115</v>
-      </c>
+      <c r="D35" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="5"/>
       <c r="F35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>완료</v>
+        <v>대기중</v>
       </c>
       <c r="G35" s="8">
+        <v>0</v>
+      </c>
+      <c r="H35" s="4">
+        <f>SUM(H36:H39)</f>
         <v>1</v>
       </c>
-      <c r="H35" s="4">
+      <c r="I35" s="48"/>
+      <c r="J35" s="46">
+        <f t="shared" si="1"/>
         <v>1</v>
-      </c>
-      <c r="I35" s="48">
-        <v>45158</v>
-      </c>
-      <c r="J35" s="46">
-        <f t="shared" ref="J35:J44" si="2">I35+H35</f>
-        <v>45159</v>
       </c>
       <c r="K35" s="79" t="s">
         <v>52</v>
@@ -3495,25 +3493,29 @@
     </row>
     <row r="36" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="F36" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G36" s="8">
-        <v>0</v>
-      </c>
-      <c r="H36" s="4"/>
-      <c r="I36" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
+        <v>1</v>
+      </c>
+      <c r="I36" s="48">
+        <v>45158</v>
+      </c>
       <c r="J36" s="46">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="J36:J45" si="2">I36+H36</f>
+        <v>45159</v>
       </c>
       <c r="K36" s="79" t="s">
         <v>52</v>
@@ -3550,12 +3552,12 @@
     </row>
     <row r="37" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F37" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3605,12 +3607,12 @@
     </row>
     <row r="38" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="F38" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3660,12 +3662,12 @@
     </row>
     <row r="39" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="F39" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3715,11 +3717,11 @@
     </row>
     <row r="40" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="7" t="str">
@@ -3770,12 +3772,12 @@
     </row>
     <row r="41" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F41" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3825,12 +3827,12 @@
     </row>
     <row r="42" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F42" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3880,12 +3882,12 @@
     </row>
     <row r="43" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="F43" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3933,190 +3935,184 @@
       <c r="AM43" s="4"/>
       <c r="AN43" s="38"/>
     </row>
-    <row r="44" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="F44" s="12" t="str">
+    <row r="44" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="19" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="20">
         <v>0</v>
       </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="47">
+      <c r="H44" s="21"/>
+      <c r="I44" s="116"/>
+      <c r="J44" s="46">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K44" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="L44" s="89"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="39"/>
-      <c r="AA44" s="60"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
-      <c r="AL44" s="14"/>
-      <c r="AM44" s="14"/>
-      <c r="AN44" s="39"/>
-    </row>
-    <row r="45" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31" t="str">
+      <c r="K44" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="90"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="69"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="21"/>
+      <c r="V44" s="21"/>
+      <c r="W44" s="21"/>
+      <c r="X44" s="21"/>
+      <c r="Y44" s="21"/>
+      <c r="Z44" s="70"/>
+      <c r="AA44" s="71"/>
+      <c r="AB44" s="21"/>
+      <c r="AC44" s="21"/>
+      <c r="AD44" s="21"/>
+      <c r="AE44" s="21"/>
+      <c r="AF44" s="21"/>
+      <c r="AG44" s="69"/>
+      <c r="AH44" s="17"/>
+      <c r="AI44" s="21"/>
+      <c r="AJ44" s="21"/>
+      <c r="AK44" s="21"/>
+      <c r="AL44" s="21"/>
+      <c r="AM44" s="21"/>
+      <c r="AN44" s="70"/>
+    </row>
+    <row r="45" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B45" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="F45" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>대기중</v>
+      </c>
+      <c r="G45" s="13">
+        <v>0</v>
+      </c>
+      <c r="H45" s="14"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K45" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="89"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="14"/>
+      <c r="R45" s="14"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="14"/>
+      <c r="V45" s="14"/>
+      <c r="W45" s="14"/>
+      <c r="X45" s="14"/>
+      <c r="Y45" s="14"/>
+      <c r="Z45" s="39"/>
+      <c r="AA45" s="60"/>
+      <c r="AB45" s="14"/>
+      <c r="AC45" s="14"/>
+      <c r="AD45" s="14"/>
+      <c r="AE45" s="14"/>
+      <c r="AF45" s="14"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="10"/>
+      <c r="AI45" s="14"/>
+      <c r="AJ45" s="14"/>
+      <c r="AK45" s="14"/>
+      <c r="AL45" s="14"/>
+      <c r="AM45" s="14"/>
+      <c r="AN45" s="39"/>
+    </row>
+    <row r="46" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="29" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G45" s="32">
-        <f>AVERAGE(G46,G51)</f>
+      <c r="G46" s="32">
+        <f>AVERAGE(G47,G52)</f>
         <v>1</v>
       </c>
-      <c r="H45" s="22">
+      <c r="H46" s="22">
         <v>3</v>
       </c>
-      <c r="I45" s="50">
-        <f>MIN(I46:I55)</f>
+      <c r="I46" s="50">
+        <f>MIN(I47:I56)</f>
         <v>45161</v>
       </c>
-      <c r="J45" s="51">
+      <c r="J46" s="51">
         <f t="shared" si="1"/>
         <v>45164</v>
       </c>
-      <c r="K45" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="L45" s="91"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="67"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="57"/>
-      <c r="AA45" s="68"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="15"/>
-      <c r="AG45" s="67"/>
-      <c r="AH45" s="56"/>
-      <c r="AI45" s="15"/>
-      <c r="AJ45" s="15"/>
-      <c r="AK45" s="15"/>
-      <c r="AL45" s="15"/>
-      <c r="AM45" s="15"/>
-      <c r="AN45" s="57"/>
-    </row>
-    <row r="46" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E46" s="5"/>
-      <c r="F46" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="G46" s="8">
-        <v>1</v>
-      </c>
-      <c r="H46" s="4">
-        <v>1</v>
-      </c>
-      <c r="I46" s="48">
-        <v>45161</v>
-      </c>
-      <c r="J46" s="46">
-        <f t="shared" si="1"/>
-        <v>45162</v>
-      </c>
-      <c r="K46" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L46" s="88"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="65"/>
-      <c r="T46" s="9"/>
-      <c r="U46" s="4"/>
-      <c r="V46" s="4"/>
-      <c r="W46" s="4"/>
-      <c r="X46" s="4"/>
-      <c r="Y46" s="4"/>
-      <c r="Z46" s="38"/>
-      <c r="AA46" s="61"/>
-      <c r="AB46" s="4"/>
-      <c r="AC46" s="4"/>
-      <c r="AD46" s="4"/>
-      <c r="AE46" s="4"/>
-      <c r="AF46" s="4"/>
-      <c r="AG46" s="65"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="4"/>
-      <c r="AJ46" s="4"/>
-      <c r="AK46" s="4"/>
-      <c r="AL46" s="4"/>
-      <c r="AM46" s="4"/>
-      <c r="AN46" s="38"/>
+      <c r="K46" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" s="91"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="15"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="15"/>
+      <c r="S46" s="67"/>
+      <c r="T46" s="56"/>
+      <c r="U46" s="15"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="15"/>
+      <c r="Y46" s="15"/>
+      <c r="Z46" s="57"/>
+      <c r="AA46" s="68"/>
+      <c r="AB46" s="15"/>
+      <c r="AC46" s="15"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
+      <c r="AF46" s="15"/>
+      <c r="AG46" s="67"/>
+      <c r="AH46" s="56"/>
+      <c r="AI46" s="15"/>
+      <c r="AJ46" s="15"/>
+      <c r="AK46" s="15"/>
+      <c r="AL46" s="15"/>
+      <c r="AM46" s="15"/>
+      <c r="AN46" s="57"/>
     </row>
     <row r="47" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
-        <v>134</v>
-      </c>
+      <c r="D47" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="5"/>
       <c r="F47" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4169,12 +4165,12 @@
     </row>
     <row r="48" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="9" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F48" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4228,12 +4224,12 @@
     </row>
     <row r="49" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="F49" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4287,12 +4283,12 @@
     </row>
     <row r="50" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="F50" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4346,13 +4342,13 @@
     </row>
     <row r="51" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="F51" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4364,11 +4360,11 @@
         <v>1</v>
       </c>
       <c r="I51" s="48">
-        <v>45163</v>
+        <v>45161</v>
       </c>
       <c r="J51" s="46">
         <f t="shared" si="1"/>
-        <v>45164</v>
+        <v>45162</v>
       </c>
       <c r="K51" s="79" t="s">
         <v>52</v>
@@ -4405,13 +4401,13 @@
     </row>
     <row r="52" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5" t="s">
-        <v>141</v>
-      </c>
+      <c r="D52" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" s="5"/>
       <c r="F52" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4464,12 +4460,12 @@
     </row>
     <row r="53" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="F53" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4523,12 +4519,12 @@
     </row>
     <row r="54" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="F54" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4580,191 +4576,193 @@
       <c r="AM54" s="4"/>
       <c r="AN54" s="38"/>
     </row>
-    <row r="55" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="F55" s="12" t="str">
+    <row r="55" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="8">
         <v>1</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="4">
         <v>1</v>
       </c>
-      <c r="I55" s="52">
+      <c r="I55" s="48">
         <v>45163</v>
       </c>
-      <c r="J55" s="47">
+      <c r="J55" s="46">
         <f t="shared" si="1"/>
         <v>45164</v>
       </c>
-      <c r="K55" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="L55" s="90"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="69"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="70"/>
-      <c r="AA55" s="71"/>
-      <c r="AB55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="21"/>
-      <c r="AE55" s="21"/>
-      <c r="AF55" s="21"/>
-      <c r="AG55" s="69"/>
-      <c r="AH55" s="17"/>
-      <c r="AI55" s="21"/>
-      <c r="AJ55" s="21"/>
-      <c r="AK55" s="21"/>
-      <c r="AL55" s="21"/>
-      <c r="AM55" s="21"/>
-      <c r="AN55" s="70"/>
-    </row>
-    <row r="56" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35" t="str">
+      <c r="K55" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="88"/>
+      <c r="M55" s="4"/>
+      <c r="N55" s="4"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="4"/>
+      <c r="Q55" s="4"/>
+      <c r="R55" s="4"/>
+      <c r="S55" s="65"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="38"/>
+      <c r="AA55" s="61"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+      <c r="AE55" s="4"/>
+      <c r="AF55" s="4"/>
+      <c r="AG55" s="65"/>
+      <c r="AH55" s="9"/>
+      <c r="AI55" s="4"/>
+      <c r="AJ55" s="4"/>
+      <c r="AK55" s="4"/>
+      <c r="AL55" s="4"/>
+      <c r="AM55" s="4"/>
+      <c r="AN55" s="38"/>
+    </row>
+    <row r="56" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B56" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1</v>
+      </c>
+      <c r="H56" s="14">
+        <v>1</v>
+      </c>
+      <c r="I56" s="52">
+        <v>45163</v>
+      </c>
+      <c r="J56" s="47">
+        <f t="shared" si="1"/>
+        <v>45164</v>
+      </c>
+      <c r="K56" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="90"/>
+      <c r="M56" s="21"/>
+      <c r="N56" s="21"/>
+      <c r="O56" s="21"/>
+      <c r="P56" s="21"/>
+      <c r="Q56" s="21"/>
+      <c r="R56" s="21"/>
+      <c r="S56" s="69"/>
+      <c r="T56" s="17"/>
+      <c r="U56" s="21"/>
+      <c r="V56" s="21"/>
+      <c r="W56" s="21"/>
+      <c r="X56" s="21"/>
+      <c r="Y56" s="21"/>
+      <c r="Z56" s="70"/>
+      <c r="AA56" s="71"/>
+      <c r="AB56" s="21"/>
+      <c r="AC56" s="21"/>
+      <c r="AD56" s="21"/>
+      <c r="AE56" s="21"/>
+      <c r="AF56" s="21"/>
+      <c r="AG56" s="69"/>
+      <c r="AH56" s="17"/>
+      <c r="AI56" s="21"/>
+      <c r="AJ56" s="21"/>
+      <c r="AK56" s="21"/>
+      <c r="AL56" s="21"/>
+      <c r="AM56" s="21"/>
+      <c r="AN56" s="70"/>
+    </row>
+    <row r="57" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="D57" s="34"/>
+      <c r="E57" s="34"/>
+      <c r="F57" s="35" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
       </c>
-      <c r="G56" s="36">
+      <c r="G57" s="36">
         <v>0</v>
       </c>
-      <c r="H56" s="23">
+      <c r="H57" s="23">
         <v>1</v>
       </c>
-      <c r="I56" s="53">
-        <f>MIN(I57:I69)</f>
+      <c r="I57" s="53">
+        <f>MIN(I58:I70)</f>
         <v>0</v>
       </c>
-      <c r="J56" s="54">
+      <c r="J57" s="54">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K56" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="L56" s="87"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="55"/>
-      <c r="AA56" s="64"/>
-      <c r="AB56" s="16"/>
-      <c r="AC56" s="16"/>
-      <c r="AD56" s="16"/>
-      <c r="AE56" s="16"/>
-      <c r="AF56" s="16"/>
-      <c r="AG56" s="62"/>
-      <c r="AH56" s="63"/>
-      <c r="AI56" s="16"/>
-      <c r="AJ56" s="16"/>
-      <c r="AK56" s="16"/>
-      <c r="AL56" s="16"/>
-      <c r="AM56" s="16"/>
-      <c r="AN56" s="55"/>
-    </row>
-    <row r="57" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E57" s="5"/>
-      <c r="F57" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>대기중</v>
-      </c>
-      <c r="G57" s="8">
-        <v>0</v>
-      </c>
-      <c r="H57" s="4">
-        <v>2</v>
-      </c>
-      <c r="I57" s="48"/>
-      <c r="J57" s="46">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K57" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L57" s="88"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="R57" s="4"/>
-      <c r="S57" s="65"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="38"/>
-      <c r="AA57" s="61"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-      <c r="AG57" s="65"/>
-      <c r="AH57" s="9"/>
-      <c r="AI57" s="4"/>
-      <c r="AJ57" s="4"/>
-      <c r="AK57" s="4"/>
-      <c r="AL57" s="4"/>
-      <c r="AM57" s="4"/>
-      <c r="AN57" s="38"/>
+      <c r="K57" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="87"/>
+      <c r="M57" s="16"/>
+      <c r="N57" s="16"/>
+      <c r="O57" s="16"/>
+      <c r="P57" s="16"/>
+      <c r="Q57" s="16"/>
+      <c r="R57" s="16"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="63"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
+      <c r="W57" s="16"/>
+      <c r="X57" s="16"/>
+      <c r="Y57" s="16"/>
+      <c r="Z57" s="55"/>
+      <c r="AA57" s="64"/>
+      <c r="AB57" s="16"/>
+      <c r="AC57" s="16"/>
+      <c r="AD57" s="16"/>
+      <c r="AE57" s="16"/>
+      <c r="AF57" s="16"/>
+      <c r="AG57" s="62"/>
+      <c r="AH57" s="63"/>
+      <c r="AI57" s="16"/>
+      <c r="AJ57" s="16"/>
+      <c r="AK57" s="16"/>
+      <c r="AL57" s="16"/>
+      <c r="AM57" s="16"/>
+      <c r="AN57" s="55"/>
     </row>
     <row r="58" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5" t="s">
-        <v>148</v>
-      </c>
+      <c r="D58" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" s="5"/>
       <c r="F58" s="7" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
@@ -4815,12 +4813,12 @@
     </row>
     <row r="59" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="F59" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4872,13 +4870,13 @@
     </row>
     <row r="60" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>144</v>
+      </c>
       <c r="F60" s="7" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
@@ -4929,13 +4927,13 @@
     </row>
     <row r="61" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="9" t="s">
-        <v>160</v>
+        <v>107</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="5" t="s">
-        <v>151</v>
-      </c>
+      <c r="D61" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E61" s="5"/>
       <c r="F61" s="7" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
@@ -4986,12 +4984,12 @@
     </row>
     <row r="62" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="9" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="F62" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5043,13 +5041,13 @@
     </row>
     <row r="63" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>147</v>
+      </c>
       <c r="F63" s="7" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
@@ -5100,13 +5098,13 @@
     </row>
     <row r="64" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="5" t="s">
-        <v>154</v>
-      </c>
+      <c r="D64" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E64" s="5"/>
       <c r="F64" s="7" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
@@ -5157,12 +5155,12 @@
     </row>
     <row r="65" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="F65" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5214,13 +5212,13 @@
     </row>
     <row r="66" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="9" t="s">
-        <v>161</v>
+        <v>119</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E66" s="5"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="s">
+        <v>150</v>
+      </c>
       <c r="F66" s="7" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
@@ -5271,13 +5269,13 @@
     </row>
     <row r="67" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="9" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5" t="s">
-        <v>157</v>
-      </c>
+      <c r="D67" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E67" s="5"/>
       <c r="F67" s="7" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
@@ -5328,12 +5326,12 @@
     </row>
     <row r="68" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F68" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5343,12 +5341,12 @@
         <v>0</v>
       </c>
       <c r="H68" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I68" s="48"/>
       <c r="J68" s="46">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K68" s="79" t="s">
         <v>52</v>
@@ -5383,71 +5381,127 @@
       <c r="AM68" s="4"/>
       <c r="AN68" s="38"/>
     </row>
-    <row r="69" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B69" s="10" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="11"/>
-      <c r="D69" s="11"/>
-      <c r="E69" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="F69" s="12" t="str">
+    <row r="69" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="F69" s="7" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="8">
         <v>0</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="4">
         <v>1</v>
       </c>
-      <c r="I69" s="52"/>
-      <c r="J69" s="47">
+      <c r="I69" s="48"/>
+      <c r="J69" s="46">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K69" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="L69" s="89"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="14"/>
-      <c r="R69" s="14"/>
-      <c r="S69" s="66"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="14"/>
-      <c r="V69" s="14"/>
-      <c r="W69" s="14"/>
-      <c r="X69" s="14"/>
-      <c r="Y69" s="14"/>
-      <c r="Z69" s="39"/>
-      <c r="AA69" s="60"/>
-      <c r="AB69" s="14"/>
-      <c r="AC69" s="14"/>
-      <c r="AD69" s="14"/>
-      <c r="AE69" s="14"/>
-      <c r="AF69" s="14"/>
-      <c r="AG69" s="66"/>
-      <c r="AH69" s="10"/>
-      <c r="AI69" s="14"/>
-      <c r="AJ69" s="14"/>
-      <c r="AK69" s="14"/>
-      <c r="AL69" s="14"/>
-      <c r="AM69" s="14"/>
-      <c r="AN69" s="39"/>
+      <c r="K69" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="L69" s="88"/>
+      <c r="M69" s="4"/>
+      <c r="N69" s="4"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="4"/>
+      <c r="Q69" s="4"/>
+      <c r="R69" s="4"/>
+      <c r="S69" s="65"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="38"/>
+      <c r="AA69" s="61"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+      <c r="AE69" s="4"/>
+      <c r="AF69" s="4"/>
+      <c r="AG69" s="65"/>
+      <c r="AH69" s="9"/>
+      <c r="AI69" s="4"/>
+      <c r="AJ69" s="4"/>
+      <c r="AK69" s="4"/>
+      <c r="AL69" s="4"/>
+      <c r="AM69" s="4"/>
+      <c r="AN69" s="38"/>
+    </row>
+    <row r="70" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B70" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C70" s="11"/>
+      <c r="D70" s="11"/>
+      <c r="E70" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="F70" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>대기중</v>
+      </c>
+      <c r="G70" s="13">
+        <v>0</v>
+      </c>
+      <c r="H70" s="14">
+        <v>1</v>
+      </c>
+      <c r="I70" s="52"/>
+      <c r="J70" s="47">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K70" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="L70" s="89"/>
+      <c r="M70" s="14"/>
+      <c r="N70" s="14"/>
+      <c r="O70" s="14"/>
+      <c r="P70" s="14"/>
+      <c r="Q70" s="14"/>
+      <c r="R70" s="14"/>
+      <c r="S70" s="66"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="14"/>
+      <c r="V70" s="14"/>
+      <c r="W70" s="14"/>
+      <c r="X70" s="14"/>
+      <c r="Y70" s="14"/>
+      <c r="Z70" s="39"/>
+      <c r="AA70" s="60"/>
+      <c r="AB70" s="14"/>
+      <c r="AC70" s="14"/>
+      <c r="AD70" s="14"/>
+      <c r="AE70" s="14"/>
+      <c r="AF70" s="14"/>
+      <c r="AG70" s="66"/>
+      <c r="AH70" s="10"/>
+      <c r="AI70" s="14"/>
+      <c r="AJ70" s="14"/>
+      <c r="AK70" s="14"/>
+      <c r="AL70" s="14"/>
+      <c r="AM70" s="14"/>
+      <c r="AN70" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="M10:AN10"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="I10:I12"/>
@@ -5458,11 +5512,12 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsdp\Desktop\github\project02\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2168EC-26DA-44F5-AB73-A1498DD06612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D47389F-7C21-4F07-AF62-AC7CB16927E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="166">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -464,10 +464,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.3.1 관리자페이지 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3. 고객지원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -608,6 +604,13 @@
   <si>
     <t>2.3.5 리뷰 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3.1 상품 목록 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUR-054</t>
   </si>
 </sst>
 </file>
@@ -1435,6 +1438,60 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1453,61 +1510,7 @@
     <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1828,7 +1831,7 @@
   <dimension ref="B1:BU70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K45" sqref="K45"/>
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1852,10 +1855,10 @@
       <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="113" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="96"/>
+      <c r="E2" s="114"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -1865,115 +1868,115 @@
       <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="97">
+      <c r="D3" s="115">
         <v>45158</v>
       </c>
-      <c r="E3" s="98"/>
+      <c r="E3" s="104"/>
     </row>
     <row r="4" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="97">
+      <c r="D4" s="115">
         <v>45173</v>
       </c>
-      <c r="E4" s="98"/>
+      <c r="E4" s="104"/>
     </row>
     <row r="5" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="99" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="98"/>
+      <c r="D5" s="116" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="104"/>
     </row>
     <row r="6" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="109">
+      <c r="D6" s="103">
         <v>45163</v>
       </c>
-      <c r="E6" s="98"/>
+      <c r="E6" s="104"/>
     </row>
     <row r="7" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="110" t="s">
+      <c r="D7" s="105" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="111"/>
+      <c r="E7" s="106"/>
     </row>
     <row r="8" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="2:73" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="107" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="107" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="106" t="s">
+      <c r="I10" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="106" t="s">
+      <c r="J10" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="103" t="s">
+      <c r="K10" s="97" t="s">
         <v>48</v>
       </c>
       <c r="L10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="113" t="s">
+      <c r="M10" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="114"/>
-      <c r="O10" s="114"/>
-      <c r="P10" s="114"/>
-      <c r="Q10" s="114"/>
-      <c r="R10" s="114"/>
-      <c r="S10" s="114"/>
-      <c r="T10" s="114"/>
-      <c r="U10" s="114"/>
-      <c r="V10" s="114"/>
-      <c r="W10" s="114"/>
-      <c r="X10" s="114"/>
-      <c r="Y10" s="114"/>
-      <c r="Z10" s="114"/>
-      <c r="AA10" s="114"/>
-      <c r="AB10" s="114"/>
-      <c r="AC10" s="114"/>
-      <c r="AD10" s="114"/>
-      <c r="AE10" s="114"/>
-      <c r="AF10" s="114"/>
-      <c r="AG10" s="114"/>
-      <c r="AH10" s="114"/>
-      <c r="AI10" s="114"/>
-      <c r="AJ10" s="114"/>
-      <c r="AK10" s="114"/>
-      <c r="AL10" s="114"/>
-      <c r="AM10" s="114"/>
-      <c r="AN10" s="115"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="95"/>
+      <c r="Q10" s="95"/>
+      <c r="R10" s="95"/>
+      <c r="S10" s="95"/>
+      <c r="T10" s="95"/>
+      <c r="U10" s="95"/>
+      <c r="V10" s="95"/>
+      <c r="W10" s="95"/>
+      <c r="X10" s="95"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="95"/>
+      <c r="AA10" s="95"/>
+      <c r="AB10" s="95"/>
+      <c r="AC10" s="95"/>
+      <c r="AD10" s="95"/>
+      <c r="AE10" s="95"/>
+      <c r="AF10" s="95"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="95"/>
+      <c r="AJ10" s="95"/>
+      <c r="AK10" s="95"/>
+      <c r="AL10" s="95"/>
+      <c r="AM10" s="95"/>
+      <c r="AN10" s="96"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
@@ -2009,67 +2012,67 @@
       <c r="BU10" s="1"/>
     </row>
     <row r="11" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="93"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="107"/>
-      <c r="J11" s="107"/>
-      <c r="K11" s="104"/>
+      <c r="B11" s="111"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="101"/>
+      <c r="K11" s="98"/>
       <c r="L11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="112" t="s">
+      <c r="M11" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="112"/>
-      <c r="O11" s="112"/>
-      <c r="P11" s="112"/>
-      <c r="Q11" s="112"/>
-      <c r="R11" s="112"/>
-      <c r="S11" s="112"/>
-      <c r="T11" s="112" t="s">
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="93"/>
+      <c r="S11" s="93"/>
+      <c r="T11" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="112"/>
-      <c r="V11" s="112"/>
-      <c r="W11" s="112"/>
-      <c r="X11" s="112"/>
-      <c r="Y11" s="112"/>
-      <c r="Z11" s="112"/>
-      <c r="AA11" s="112" t="s">
+      <c r="U11" s="93"/>
+      <c r="V11" s="93"/>
+      <c r="W11" s="93"/>
+      <c r="X11" s="93"/>
+      <c r="Y11" s="93"/>
+      <c r="Z11" s="93"/>
+      <c r="AA11" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="AB11" s="112"/>
-      <c r="AC11" s="112"/>
-      <c r="AD11" s="112"/>
-      <c r="AE11" s="112"/>
-      <c r="AF11" s="112"/>
-      <c r="AG11" s="112"/>
-      <c r="AH11" s="112" t="s">
+      <c r="AB11" s="93"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="93"/>
+      <c r="AE11" s="93"/>
+      <c r="AF11" s="93"/>
+      <c r="AG11" s="93"/>
+      <c r="AH11" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="AI11" s="112"/>
-      <c r="AJ11" s="112"/>
-      <c r="AK11" s="112"/>
-      <c r="AL11" s="112"/>
-      <c r="AM11" s="112"/>
-      <c r="AN11" s="112"/>
+      <c r="AI11" s="93"/>
+      <c r="AJ11" s="93"/>
+      <c r="AK11" s="93"/>
+      <c r="AL11" s="93"/>
+      <c r="AM11" s="93"/>
+      <c r="AN11" s="93"/>
     </row>
     <row r="12" spans="2:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="94"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="108"/>
-      <c r="J12" s="108"/>
-      <c r="K12" s="105"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="109"/>
+      <c r="D12" s="109"/>
+      <c r="E12" s="109"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="109"/>
+      <c r="H12" s="109"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="99"/>
       <c r="L12" s="85" t="s">
         <v>14</v>
       </c>
@@ -2698,7 +2701,7 @@
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2757,7 +2760,7 @@
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2816,7 +2819,7 @@
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3326,7 +3329,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F33" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3612,7 +3615,7 @@
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F38" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3667,7 +3670,7 @@
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F39" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3777,20 +3780,24 @@
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="F41" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G41" s="8">
-        <v>0</v>
-      </c>
-      <c r="H41" s="4"/>
-      <c r="I41" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="48">
+        <v>45165</v>
+      </c>
       <c r="J41" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45166</v>
       </c>
       <c r="K41" s="79" t="s">
         <v>52</v>
@@ -3832,20 +3839,22 @@
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F42" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>진행중</v>
       </c>
       <c r="G42" s="8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H42" s="4"/>
-      <c r="I42" s="48"/>
+      <c r="I42" s="48">
+        <v>45165</v>
+      </c>
       <c r="J42" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45165</v>
       </c>
       <c r="K42" s="79" t="s">
         <v>52</v>
@@ -3887,7 +3896,7 @@
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F43" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3936,24 +3945,30 @@
       <c r="AN43" s="38"/>
     </row>
     <row r="44" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="17"/>
+      <c r="B44" s="17" t="s">
+        <v>80</v>
+      </c>
       <c r="C44" s="18"/>
       <c r="D44" s="18"/>
       <c r="E44" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F44" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G44" s="20">
-        <v>0</v>
-      </c>
-      <c r="H44" s="21"/>
-      <c r="I44" s="116"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="21">
+        <v>1</v>
+      </c>
+      <c r="I44" s="92">
+        <v>45165</v>
+      </c>
       <c r="J44" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45166</v>
       </c>
       <c r="K44" s="80" t="s">
         <v>52</v>
@@ -3990,12 +4005,12 @@
     </row>
     <row r="45" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B45" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F45" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4045,10 +4060,10 @@
     </row>
     <row r="46" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C46" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D46" s="30"/>
       <c r="E46" s="30"/>
@@ -4106,11 +4121,11 @@
     </row>
     <row r="47" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="9" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="7" t="str">
@@ -4165,12 +4180,12 @@
     </row>
     <row r="48" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="9" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F48" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4224,12 +4239,12 @@
     </row>
     <row r="49" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F49" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4283,12 +4298,12 @@
     </row>
     <row r="50" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F50" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4342,12 +4357,12 @@
     </row>
     <row r="51" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F51" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4401,11 +4416,11 @@
     </row>
     <row r="52" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="7" t="str">
@@ -4460,12 +4475,12 @@
     </row>
     <row r="53" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F53" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4519,12 +4534,12 @@
     </row>
     <row r="54" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F54" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4578,12 +4593,12 @@
     </row>
     <row r="55" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B55" s="9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F55" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4637,12 +4652,12 @@
     </row>
     <row r="56" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B56" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" s="11"/>
       <c r="D56" s="11"/>
       <c r="E56" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F56" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4696,10 +4711,10 @@
     </row>
     <row r="57" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="33" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C57" s="34" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D57" s="34"/>
       <c r="E57" s="34"/>
@@ -4756,11 +4771,11 @@
     </row>
     <row r="58" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="7" t="str">
@@ -4813,12 +4828,12 @@
     </row>
     <row r="59" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4870,12 +4885,12 @@
     </row>
     <row r="60" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F60" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4927,11 +4942,11 @@
     </row>
     <row r="61" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="9" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E61" s="5"/>
       <c r="F61" s="7" t="str">
@@ -4984,12 +4999,12 @@
     </row>
     <row r="62" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="9" t="s">
-        <v>155</v>
+        <v>116</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F62" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5041,12 +5056,12 @@
     </row>
     <row r="63" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="9" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F63" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5098,11 +5113,11 @@
     </row>
     <row r="64" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="7" t="str">
@@ -5155,12 +5170,12 @@
     </row>
     <row r="65" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="9" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F65" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5212,12 +5227,12 @@
     </row>
     <row r="66" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="9" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F66" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5273,7 +5288,7 @@
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="7" t="str">
@@ -5331,7 +5346,7 @@
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F68" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5388,7 +5403,7 @@
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F69" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5440,12 +5455,12 @@
     </row>
     <row r="70" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B70" s="10" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="C70" s="11"/>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F70" s="12" t="str">
         <f t="shared" si="0"/>
@@ -5497,11 +5512,12 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="I10:I12"/>
@@ -5512,12 +5528,11 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="M10:AN10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsdp\Desktop\github\project02\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D47389F-7C21-4F07-AF62-AC7CB16927E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCC3004-1FED-4577-8D1A-EEBA8A8E044B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="170">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -226,10 +226,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.0.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FUR-001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -292,9 +288,6 @@
   </si>
   <si>
     <t>FUR-022</t>
-  </si>
-  <si>
-    <t>FUR-023</t>
   </si>
   <si>
     <t>FUR-024</t>
@@ -555,22 +548,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.4 리뷰 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4.1 리뷰 목록 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4.2 리뷰 작성 화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4.4.2 리뷰 작성 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FUR-045</t>
   </si>
   <si>
@@ -590,10 +567,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.2.4 할인쿠폰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.1.3 네이버 소셜 로그인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -611,6 +584,50 @@
   </si>
   <si>
     <t>FUR-054</t>
+  </si>
+  <si>
+    <t>4.4 취소/반품</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.1 주문/배송 조회 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.4.2 취소/반품 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 리뷰 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.1 리뷰 목록 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.2 리뷰 작성 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.3 리뷰 작성 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5 배송 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.1 배송 관리 화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.5.2 배송 관리 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1441,6 +1458,66 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1452,66 +1529,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1828,10 +1845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BU70"/>
+  <dimension ref="B1:BU75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1855,10 +1872,10 @@
       <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="113" t="s">
-        <v>120</v>
-      </c>
-      <c r="E2" s="114"/>
+      <c r="D2" s="96" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="97"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -1868,115 +1885,115 @@
       <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="115">
+      <c r="D3" s="98">
         <v>45158</v>
       </c>
-      <c r="E3" s="104"/>
+      <c r="E3" s="99"/>
     </row>
     <row r="4" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="115">
+      <c r="D4" s="98">
         <v>45173</v>
       </c>
-      <c r="E4" s="104"/>
+      <c r="E4" s="99"/>
     </row>
     <row r="5" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="116" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="104"/>
+      <c r="D5" s="100" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="99"/>
     </row>
     <row r="6" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="103">
+      <c r="D6" s="110">
         <v>45163</v>
       </c>
-      <c r="E6" s="104"/>
+      <c r="E6" s="99"/>
     </row>
     <row r="7" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="105" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="106"/>
+      <c r="D7" s="111" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="112"/>
     </row>
     <row r="8" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="2:73" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="110" t="s">
+      <c r="B10" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="107" t="s">
+      <c r="C10" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="107" t="s">
+      <c r="D10" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="107" t="s">
+      <c r="E10" s="101" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="107" t="s">
+      <c r="F10" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="107" t="s">
+      <c r="G10" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="107" t="s">
+      <c r="H10" s="101" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="100" t="s">
+      <c r="I10" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="100" t="s">
+      <c r="J10" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="K10" s="97" t="s">
+      <c r="K10" s="104" t="s">
         <v>48</v>
       </c>
       <c r="L10" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="94" t="s">
+      <c r="M10" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="95"/>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="95"/>
-      <c r="R10" s="95"/>
-      <c r="S10" s="95"/>
-      <c r="T10" s="95"/>
-      <c r="U10" s="95"/>
-      <c r="V10" s="95"/>
-      <c r="W10" s="95"/>
-      <c r="X10" s="95"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="95"/>
-      <c r="AA10" s="95"/>
-      <c r="AB10" s="95"/>
-      <c r="AC10" s="95"/>
-      <c r="AD10" s="95"/>
-      <c r="AE10" s="95"/>
-      <c r="AF10" s="95"/>
-      <c r="AG10" s="95"/>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="95"/>
-      <c r="AJ10" s="95"/>
-      <c r="AK10" s="95"/>
-      <c r="AL10" s="95"/>
-      <c r="AM10" s="95"/>
-      <c r="AN10" s="96"/>
+      <c r="N10" s="115"/>
+      <c r="O10" s="115"/>
+      <c r="P10" s="115"/>
+      <c r="Q10" s="115"/>
+      <c r="R10" s="115"/>
+      <c r="S10" s="115"/>
+      <c r="T10" s="115"/>
+      <c r="U10" s="115"/>
+      <c r="V10" s="115"/>
+      <c r="W10" s="115"/>
+      <c r="X10" s="115"/>
+      <c r="Y10" s="115"/>
+      <c r="Z10" s="115"/>
+      <c r="AA10" s="115"/>
+      <c r="AB10" s="115"/>
+      <c r="AC10" s="115"/>
+      <c r="AD10" s="115"/>
+      <c r="AE10" s="115"/>
+      <c r="AF10" s="115"/>
+      <c r="AG10" s="115"/>
+      <c r="AH10" s="115"/>
+      <c r="AI10" s="115"/>
+      <c r="AJ10" s="115"/>
+      <c r="AK10" s="115"/>
+      <c r="AL10" s="115"/>
+      <c r="AM10" s="115"/>
+      <c r="AN10" s="116"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
@@ -2012,67 +2029,67 @@
       <c r="BU10" s="1"/>
     </row>
     <row r="11" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="111"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="98"/>
+      <c r="B11" s="94"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
+      <c r="H11" s="102"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="105"/>
       <c r="L11" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="93" t="s">
+      <c r="M11" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
-      <c r="R11" s="93"/>
-      <c r="S11" s="93"/>
-      <c r="T11" s="93" t="s">
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
+      <c r="S11" s="113"/>
+      <c r="T11" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="93"/>
-      <c r="V11" s="93"/>
-      <c r="W11" s="93"/>
-      <c r="X11" s="93"/>
-      <c r="Y11" s="93"/>
-      <c r="Z11" s="93"/>
-      <c r="AA11" s="93" t="s">
+      <c r="U11" s="113"/>
+      <c r="V11" s="113"/>
+      <c r="W11" s="113"/>
+      <c r="X11" s="113"/>
+      <c r="Y11" s="113"/>
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="113" t="s">
         <v>46</v>
       </c>
-      <c r="AB11" s="93"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="93"/>
-      <c r="AE11" s="93"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="93"/>
-      <c r="AH11" s="93" t="s">
+      <c r="AB11" s="113"/>
+      <c r="AC11" s="113"/>
+      <c r="AD11" s="113"/>
+      <c r="AE11" s="113"/>
+      <c r="AF11" s="113"/>
+      <c r="AG11" s="113"/>
+      <c r="AH11" s="113" t="s">
         <v>47</v>
       </c>
-      <c r="AI11" s="93"/>
-      <c r="AJ11" s="93"/>
-      <c r="AK11" s="93"/>
-      <c r="AL11" s="93"/>
-      <c r="AM11" s="93"/>
-      <c r="AN11" s="93"/>
+      <c r="AI11" s="113"/>
+      <c r="AJ11" s="113"/>
+      <c r="AK11" s="113"/>
+      <c r="AL11" s="113"/>
+      <c r="AM11" s="113"/>
+      <c r="AN11" s="113"/>
     </row>
     <row r="12" spans="2:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="112"/>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="109"/>
-      <c r="H12" s="109"/>
-      <c r="I12" s="102"/>
-      <c r="J12" s="102"/>
-      <c r="K12" s="99"/>
+      <c r="B12" s="95"/>
+      <c r="C12" s="103"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="103"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="109"/>
+      <c r="J12" s="109"/>
+      <c r="K12" s="106"/>
       <c r="L12" s="85" t="s">
         <v>14</v>
       </c>
@@ -2163,10 +2180,10 @@
     </row>
     <row r="13" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B13" s="24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
@@ -2225,15 +2242,15 @@
     </row>
     <row r="14" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7" t="str">
-        <f t="shared" ref="F14:F70" si="0">IF(G14=1,"완료",IF(G14=0, "대기중","진행중"))</f>
+        <f t="shared" ref="F14:F75" si="0">IF(G14=1,"완료",IF(G14=0, "대기중","진행중"))</f>
         <v>완료</v>
       </c>
       <c r="G14" s="8">
@@ -2246,7 +2263,7 @@
         <v>45158</v>
       </c>
       <c r="J14" s="46">
-        <f t="shared" ref="J14:J70" si="1">I14+H14</f>
+        <f t="shared" ref="J14:J75" si="1">I14+H14</f>
         <v>45163</v>
       </c>
       <c r="K14" s="79" t="s">
@@ -2284,12 +2301,12 @@
     </row>
     <row r="15" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2343,11 +2360,11 @@
     </row>
     <row r="16" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="str">
@@ -2402,12 +2419,12 @@
     </row>
     <row r="17" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2461,11 +2478,11 @@
     </row>
     <row r="18" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="7" t="str">
@@ -2520,12 +2537,12 @@
     </row>
     <row r="19" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2579,12 +2596,12 @@
     </row>
     <row r="20" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2638,11 +2655,11 @@
     </row>
     <row r="21" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="7" t="str">
@@ -2696,19 +2713,19 @@
     </row>
     <row r="22" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F22" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G22" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22" s="7">
         <v>1</v>
@@ -2755,19 +2772,19 @@
     </row>
     <row r="23" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F23" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G23" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23" s="7">
         <v>1</v>
@@ -2814,12 +2831,12 @@
     </row>
     <row r="24" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2869,11 +2886,11 @@
     </row>
     <row r="25" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="7" t="str">
@@ -2924,12 +2941,12 @@
     </row>
     <row r="26" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2979,12 +2996,12 @@
     </row>
     <row r="27" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3034,12 +3051,12 @@
     </row>
     <row r="28" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="72"/>
       <c r="D28" s="72"/>
       <c r="E28" s="18" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F28" s="19" t="str">
         <f t="shared" si="0"/>
@@ -3089,10 +3106,10 @@
     </row>
     <row r="29" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B29" s="73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="74" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D29" s="74"/>
       <c r="E29" s="74"/>
@@ -3101,19 +3118,19 @@
         <v>진행중</v>
       </c>
       <c r="G29" s="76">
-        <f>AVERAGE(G30,G35,G40)</f>
-        <v>0.33333333333333331</v>
+        <f>AVERAGE(G30,G35,G39)</f>
+        <v>0.26666666666666666</v>
       </c>
       <c r="H29" s="75">
-        <f>SUM(H30,H35,H40)</f>
-        <v>4</v>
+        <f>SUM(H30,H35,H39)</f>
+        <v>1</v>
       </c>
       <c r="I29" s="77">
         <v>45148</v>
       </c>
       <c r="J29" s="77">
         <f t="shared" si="1"/>
-        <v>45152</v>
+        <v>45149</v>
       </c>
       <c r="K29" s="81" t="s">
         <v>52</v>
@@ -3150,28 +3167,27 @@
     </row>
     <row r="30" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>완료</v>
+        <v>진행중</v>
       </c>
       <c r="G30" s="8">
-        <v>1</v>
-      </c>
-      <c r="H30" s="7">
-        <f>SUM(H31:H34)</f>
-        <v>3</v>
-      </c>
-      <c r="I30" s="46"/>
+        <v>0.8</v>
+      </c>
+      <c r="H30" s="7"/>
+      <c r="I30" s="46">
+        <v>45158</v>
+      </c>
       <c r="J30" s="46">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>45158</v>
       </c>
       <c r="K30" s="79" t="s">
         <v>52</v>
@@ -3208,12 +3224,12 @@
     </row>
     <row r="31" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F31" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3267,12 +3283,12 @@
     </row>
     <row r="32" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F32" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3329,7 +3345,7 @@
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F33" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3379,12 +3395,12 @@
     </row>
     <row r="34" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F34" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3438,11 +3454,11 @@
     </row>
     <row r="35" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="7" t="str">
@@ -3453,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="H35" s="4">
-        <f>SUM(H36:H39)</f>
+        <f>SUM(H36:H38)</f>
         <v>1</v>
       </c>
       <c r="I35" s="48"/>
@@ -3496,12 +3512,12 @@
     </row>
     <row r="36" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F36" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3517,7 +3533,7 @@
         <v>45158</v>
       </c>
       <c r="J36" s="46">
-        <f t="shared" ref="J36:J45" si="2">I36+H36</f>
+        <f t="shared" ref="J36:J44" si="2">I36+H36</f>
         <v>45159</v>
       </c>
       <c r="K36" s="79" t="s">
@@ -3555,12 +3571,12 @@
     </row>
     <row r="37" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F37" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3570,10 +3586,12 @@
         <v>0</v>
       </c>
       <c r="H37" s="4"/>
-      <c r="I37" s="48"/>
+      <c r="I37" s="48">
+        <v>45171</v>
+      </c>
       <c r="J37" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45171</v>
       </c>
       <c r="K37" s="79" t="s">
         <v>52</v>
@@ -3610,12 +3628,12 @@
     </row>
     <row r="38" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="F38" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3665,13 +3683,13 @@
     </row>
     <row r="39" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5" t="s">
-        <v>160</v>
-      </c>
+      <c r="D39" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E39" s="5"/>
       <c r="F39" s="7" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
@@ -3682,7 +3700,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="48"/>
       <c r="J39" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K39" s="79" t="s">
@@ -3720,25 +3738,29 @@
     </row>
     <row r="40" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C40" s="5"/>
-      <c r="D40" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5" t="s">
+        <v>157</v>
+      </c>
       <c r="F40" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G40" s="8">
-        <v>0</v>
-      </c>
-      <c r="H40" s="4"/>
-      <c r="I40" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="48">
+        <v>45165</v>
+      </c>
       <c r="J40" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>45166</v>
       </c>
       <c r="K40" s="79" t="s">
         <v>52</v>
@@ -3775,12 +3797,12 @@
     </row>
     <row r="41" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="F41" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3834,27 +3856,29 @@
     </row>
     <row r="42" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F42" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>진행중</v>
+        <v>완료</v>
       </c>
       <c r="G42" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="H42" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H42" s="4">
+        <v>1</v>
+      </c>
       <c r="I42" s="48">
-        <v>45165</v>
+        <v>45166</v>
       </c>
       <c r="J42" s="46">
         <f t="shared" si="2"/>
-        <v>45165</v>
+        <v>45167</v>
       </c>
       <c r="K42" s="79" t="s">
         <v>52</v>
@@ -3890,244 +3914,248 @@
       <c r="AN42" s="38"/>
     </row>
     <row r="43" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="F43" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>대기중</v>
-      </c>
-      <c r="G43" s="8">
-        <v>0</v>
-      </c>
-      <c r="H43" s="4"/>
-      <c r="I43" s="48"/>
+      <c r="B43" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" s="18"/>
+      <c r="D43" s="18"/>
+      <c r="E43" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F43" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="G43" s="20">
+        <v>1</v>
+      </c>
+      <c r="H43" s="21">
+        <v>1</v>
+      </c>
+      <c r="I43" s="92">
+        <v>45165</v>
+      </c>
       <c r="J43" s="46">
         <f t="shared" si="2"/>
+        <v>45166</v>
+      </c>
+      <c r="K43" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="L43" s="90"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="69"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="21"/>
+      <c r="V43" s="21"/>
+      <c r="W43" s="21"/>
+      <c r="X43" s="21"/>
+      <c r="Y43" s="21"/>
+      <c r="Z43" s="70"/>
+      <c r="AA43" s="71"/>
+      <c r="AB43" s="21"/>
+      <c r="AC43" s="21"/>
+      <c r="AD43" s="21"/>
+      <c r="AE43" s="21"/>
+      <c r="AF43" s="21"/>
+      <c r="AG43" s="69"/>
+      <c r="AH43" s="17"/>
+      <c r="AI43" s="21"/>
+      <c r="AJ43" s="21"/>
+      <c r="AK43" s="21"/>
+      <c r="AL43" s="21"/>
+      <c r="AM43" s="21"/>
+      <c r="AN43" s="70"/>
+    </row>
+    <row r="44" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B44" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F44" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>대기중</v>
+      </c>
+      <c r="G44" s="13">
         <v>0</v>
       </c>
-      <c r="K43" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L43" s="88"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="65"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-      <c r="Y43" s="4"/>
-      <c r="Z43" s="38"/>
-      <c r="AA43" s="61"/>
-      <c r="AB43" s="4"/>
-      <c r="AC43" s="4"/>
-      <c r="AD43" s="4"/>
-      <c r="AE43" s="4"/>
-      <c r="AF43" s="4"/>
-      <c r="AG43" s="65"/>
-      <c r="AH43" s="9"/>
-      <c r="AI43" s="4"/>
-      <c r="AJ43" s="4"/>
-      <c r="AK43" s="4"/>
-      <c r="AL43" s="4"/>
-      <c r="AM43" s="4"/>
-      <c r="AN43" s="38"/>
-    </row>
-    <row r="44" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="C44" s="18"/>
-      <c r="D44" s="18"/>
-      <c r="E44" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="F44" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="G44" s="20">
-        <v>1</v>
-      </c>
-      <c r="H44" s="21">
-        <v>1</v>
-      </c>
-      <c r="I44" s="92">
-        <v>45165</v>
-      </c>
-      <c r="J44" s="46">
-        <f t="shared" si="2"/>
-        <v>45166</v>
-      </c>
-      <c r="K44" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="L44" s="90"/>
-      <c r="M44" s="21"/>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="69"/>
-      <c r="T44" s="17"/>
-      <c r="U44" s="21"/>
-      <c r="V44" s="21"/>
-      <c r="W44" s="21"/>
-      <c r="X44" s="21"/>
-      <c r="Y44" s="21"/>
-      <c r="Z44" s="70"/>
-      <c r="AA44" s="71"/>
-      <c r="AB44" s="21"/>
-      <c r="AC44" s="21"/>
-      <c r="AD44" s="21"/>
-      <c r="AE44" s="21"/>
-      <c r="AF44" s="21"/>
-      <c r="AG44" s="69"/>
-      <c r="AH44" s="17"/>
-      <c r="AI44" s="21"/>
-      <c r="AJ44" s="21"/>
-      <c r="AK44" s="21"/>
-      <c r="AL44" s="21"/>
-      <c r="AM44" s="21"/>
-      <c r="AN44" s="70"/>
-    </row>
-    <row r="45" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B45" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="F45" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>대기중</v>
-      </c>
-      <c r="G45" s="13">
-        <v>0</v>
-      </c>
-      <c r="H45" s="14"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="47">
+      <c r="H44" s="14"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="47">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K45" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="L45" s="89"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="14"/>
-      <c r="R45" s="14"/>
-      <c r="S45" s="66"/>
-      <c r="T45" s="10"/>
-      <c r="U45" s="14"/>
-      <c r="V45" s="14"/>
-      <c r="W45" s="14"/>
-      <c r="X45" s="14"/>
-      <c r="Y45" s="14"/>
-      <c r="Z45" s="39"/>
-      <c r="AA45" s="60"/>
-      <c r="AB45" s="14"/>
-      <c r="AC45" s="14"/>
-      <c r="AD45" s="14"/>
-      <c r="AE45" s="14"/>
-      <c r="AF45" s="14"/>
-      <c r="AG45" s="66"/>
-      <c r="AH45" s="10"/>
-      <c r="AI45" s="14"/>
-      <c r="AJ45" s="14"/>
-      <c r="AK45" s="14"/>
-      <c r="AL45" s="14"/>
-      <c r="AM45" s="14"/>
-      <c r="AN45" s="39"/>
-    </row>
-    <row r="46" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="29" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="31" t="str">
+      <c r="K44" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="L44" s="89"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="39"/>
+      <c r="AA44" s="60"/>
+      <c r="AB44" s="14"/>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="14"/>
+      <c r="AE44" s="14"/>
+      <c r="AF44" s="14"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="10"/>
+      <c r="AI44" s="14"/>
+      <c r="AJ44" s="14"/>
+      <c r="AK44" s="14"/>
+      <c r="AL44" s="14"/>
+      <c r="AM44" s="14"/>
+      <c r="AN44" s="39"/>
+    </row>
+    <row r="45" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G46" s="32">
-        <f>AVERAGE(G47,G52)</f>
-        <v>1</v>
-      </c>
-      <c r="H46" s="22">
+      <c r="G45" s="32">
+        <f>AVERAGE(G46,G51)</f>
+        <v>1</v>
+      </c>
+      <c r="H45" s="22">
         <v>3</v>
       </c>
-      <c r="I46" s="50">
-        <f>MIN(I47:I56)</f>
+      <c r="I45" s="50">
+        <f>MIN(I46:I55)</f>
         <v>45161</v>
       </c>
-      <c r="J46" s="51">
+      <c r="J45" s="51">
         <f t="shared" si="1"/>
         <v>45164</v>
       </c>
-      <c r="K46" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="L46" s="91"/>
-      <c r="M46" s="15"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="R46" s="15"/>
-      <c r="S46" s="67"/>
-      <c r="T46" s="56"/>
-      <c r="U46" s="15"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
-      <c r="X46" s="15"/>
-      <c r="Y46" s="15"/>
-      <c r="Z46" s="57"/>
-      <c r="AA46" s="68"/>
-      <c r="AB46" s="15"/>
-      <c r="AC46" s="15"/>
-      <c r="AD46" s="15"/>
-      <c r="AE46" s="15"/>
-      <c r="AF46" s="15"/>
-      <c r="AG46" s="67"/>
-      <c r="AH46" s="56"/>
-      <c r="AI46" s="15"/>
-      <c r="AJ46" s="15"/>
-      <c r="AK46" s="15"/>
-      <c r="AL46" s="15"/>
-      <c r="AM46" s="15"/>
-      <c r="AN46" s="57"/>
+      <c r="K45" s="83" t="s">
+        <v>52</v>
+      </c>
+      <c r="L45" s="91"/>
+      <c r="M45" s="15"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="15"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="15"/>
+      <c r="S45" s="67"/>
+      <c r="T45" s="56"/>
+      <c r="U45" s="15"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="15"/>
+      <c r="Y45" s="15"/>
+      <c r="Z45" s="57"/>
+      <c r="AA45" s="68"/>
+      <c r="AB45" s="15"/>
+      <c r="AC45" s="15"/>
+      <c r="AD45" s="15"/>
+      <c r="AE45" s="15"/>
+      <c r="AF45" s="15"/>
+      <c r="AG45" s="67"/>
+      <c r="AH45" s="56"/>
+      <c r="AI45" s="15"/>
+      <c r="AJ45" s="15"/>
+      <c r="AK45" s="15"/>
+      <c r="AL45" s="15"/>
+      <c r="AM45" s="15"/>
+      <c r="AN45" s="57"/>
+    </row>
+    <row r="46" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="G46" s="8">
+        <v>1</v>
+      </c>
+      <c r="H46" s="4">
+        <v>1</v>
+      </c>
+      <c r="I46" s="48">
+        <v>45161</v>
+      </c>
+      <c r="J46" s="46">
+        <f t="shared" si="1"/>
+        <v>45162</v>
+      </c>
+      <c r="K46" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="L46" s="88"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="38"/>
+      <c r="AA46" s="61"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="65"/>
+      <c r="AH46" s="9"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="38"/>
     </row>
     <row r="47" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="9" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C47" s="5"/>
-      <c r="D47" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="F47" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4180,12 +4208,12 @@
     </row>
     <row r="48" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F48" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4239,12 +4267,12 @@
     </row>
     <row r="49" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F49" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4298,12 +4326,12 @@
     </row>
     <row r="50" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F50" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4357,13 +4385,13 @@
     </row>
     <row r="51" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="D51" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="E51" s="5"/>
       <c r="F51" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4375,11 +4403,11 @@
         <v>1</v>
       </c>
       <c r="I51" s="48">
-        <v>45161</v>
+        <v>45163</v>
       </c>
       <c r="J51" s="46">
         <f t="shared" si="1"/>
-        <v>45162</v>
+        <v>45164</v>
       </c>
       <c r="K51" s="79" t="s">
         <v>52</v>
@@ -4416,13 +4444,13 @@
     </row>
     <row r="52" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5" t="s">
+        <v>133</v>
+      </c>
       <c r="F52" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4475,12 +4503,12 @@
     </row>
     <row r="53" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F53" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4534,12 +4562,12 @@
     </row>
     <row r="54" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F54" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4591,207 +4619,209 @@
       <c r="AM54" s="4"/>
       <c r="AN54" s="38"/>
     </row>
-    <row r="55" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="F55" s="7" t="str">
+    <row r="55" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B55" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="F55" s="12" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G55" s="8">
-        <v>1</v>
-      </c>
-      <c r="H55" s="4">
-        <v>1</v>
-      </c>
-      <c r="I55" s="48">
+      <c r="G55" s="13">
+        <v>1</v>
+      </c>
+      <c r="H55" s="14">
+        <v>1</v>
+      </c>
+      <c r="I55" s="52">
         <v>45163</v>
       </c>
-      <c r="J55" s="46">
+      <c r="J55" s="47">
         <f t="shared" si="1"/>
         <v>45164</v>
       </c>
-      <c r="K55" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L55" s="88"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="R55" s="4"/>
-      <c r="S55" s="65"/>
-      <c r="T55" s="9"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="38"/>
-      <c r="AA55" s="61"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-      <c r="AG55" s="65"/>
-      <c r="AH55" s="9"/>
-      <c r="AI55" s="4"/>
-      <c r="AJ55" s="4"/>
-      <c r="AK55" s="4"/>
-      <c r="AL55" s="4"/>
-      <c r="AM55" s="4"/>
-      <c r="AN55" s="38"/>
-    </row>
-    <row r="56" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B56" s="10" t="s">
+      <c r="K55" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="L55" s="90"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
+      <c r="O55" s="21"/>
+      <c r="P55" s="21"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="21"/>
+      <c r="S55" s="69"/>
+      <c r="T55" s="17"/>
+      <c r="U55" s="21"/>
+      <c r="V55" s="21"/>
+      <c r="W55" s="21"/>
+      <c r="X55" s="21"/>
+      <c r="Y55" s="21"/>
+      <c r="Z55" s="70"/>
+      <c r="AA55" s="71"/>
+      <c r="AB55" s="21"/>
+      <c r="AC55" s="21"/>
+      <c r="AD55" s="21"/>
+      <c r="AE55" s="21"/>
+      <c r="AF55" s="21"/>
+      <c r="AG55" s="69"/>
+      <c r="AH55" s="17"/>
+      <c r="AI55" s="21"/>
+      <c r="AJ55" s="21"/>
+      <c r="AK55" s="21"/>
+      <c r="AL55" s="21"/>
+      <c r="AM55" s="21"/>
+      <c r="AN55" s="70"/>
+    </row>
+    <row r="56" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>대기중</v>
+      </c>
+      <c r="G56" s="36">
+        <v>0</v>
+      </c>
+      <c r="H56" s="23">
+        <v>8</v>
+      </c>
+      <c r="I56" s="53">
+        <f>MIN(I57:I75)</f>
+        <v>45164</v>
+      </c>
+      <c r="J56" s="54">
+        <f t="shared" si="1"/>
+        <v>45172</v>
+      </c>
+      <c r="K56" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="L56" s="87"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="16"/>
+      <c r="Q56" s="16"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="63"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="55"/>
+      <c r="AA56" s="64"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="16"/>
+      <c r="AF56" s="16"/>
+      <c r="AG56" s="62"/>
+      <c r="AH56" s="63"/>
+      <c r="AI56" s="16"/>
+      <c r="AJ56" s="16"/>
+      <c r="AK56" s="16"/>
+      <c r="AL56" s="16"/>
+      <c r="AM56" s="16"/>
+      <c r="AN56" s="55"/>
+    </row>
+    <row r="57" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11"/>
-      <c r="E56" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F56" s="12" t="str">
+      <c r="C57" s="5"/>
+      <c r="D57" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
       </c>
-      <c r="G56" s="13">
-        <v>1</v>
-      </c>
-      <c r="H56" s="14">
-        <v>1</v>
-      </c>
-      <c r="I56" s="52">
-        <v>45163</v>
-      </c>
-      <c r="J56" s="47">
+      <c r="G57" s="8">
+        <v>1</v>
+      </c>
+      <c r="H57" s="4">
+        <v>2</v>
+      </c>
+      <c r="I57" s="48">
+        <v>45164</v>
+      </c>
+      <c r="J57" s="46">
         <f t="shared" si="1"/>
-        <v>45164</v>
-      </c>
-      <c r="K56" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="L56" s="90"/>
-      <c r="M56" s="21"/>
-      <c r="N56" s="21"/>
-      <c r="O56" s="21"/>
-      <c r="P56" s="21"/>
-      <c r="Q56" s="21"/>
-      <c r="R56" s="21"/>
-      <c r="S56" s="69"/>
-      <c r="T56" s="17"/>
-      <c r="U56" s="21"/>
-      <c r="V56" s="21"/>
-      <c r="W56" s="21"/>
-      <c r="X56" s="21"/>
-      <c r="Y56" s="21"/>
-      <c r="Z56" s="70"/>
-      <c r="AA56" s="71"/>
-      <c r="AB56" s="21"/>
-      <c r="AC56" s="21"/>
-      <c r="AD56" s="21"/>
-      <c r="AE56" s="21"/>
-      <c r="AF56" s="21"/>
-      <c r="AG56" s="69"/>
-      <c r="AH56" s="17"/>
-      <c r="AI56" s="21"/>
-      <c r="AJ56" s="21"/>
-      <c r="AK56" s="21"/>
-      <c r="AL56" s="21"/>
-      <c r="AM56" s="21"/>
-      <c r="AN56" s="70"/>
-    </row>
-    <row r="57" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C57" s="34" t="s">
-        <v>125</v>
-      </c>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>대기중</v>
-      </c>
-      <c r="G57" s="36">
-        <v>0</v>
-      </c>
-      <c r="H57" s="23">
-        <v>1</v>
-      </c>
-      <c r="I57" s="53">
-        <f>MIN(I58:I70)</f>
-        <v>0</v>
-      </c>
-      <c r="J57" s="54">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K57" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="L57" s="87"/>
-      <c r="M57" s="16"/>
-      <c r="N57" s="16"/>
-      <c r="O57" s="16"/>
-      <c r="P57" s="16"/>
-      <c r="Q57" s="16"/>
-      <c r="R57" s="16"/>
-      <c r="S57" s="62"/>
-      <c r="T57" s="63"/>
-      <c r="U57" s="16"/>
-      <c r="V57" s="16"/>
-      <c r="W57" s="16"/>
-      <c r="X57" s="16"/>
-      <c r="Y57" s="16"/>
-      <c r="Z57" s="55"/>
-      <c r="AA57" s="64"/>
-      <c r="AB57" s="16"/>
-      <c r="AC57" s="16"/>
-      <c r="AD57" s="16"/>
-      <c r="AE57" s="16"/>
-      <c r="AF57" s="16"/>
-      <c r="AG57" s="62"/>
-      <c r="AH57" s="63"/>
-      <c r="AI57" s="16"/>
-      <c r="AJ57" s="16"/>
-      <c r="AK57" s="16"/>
-      <c r="AL57" s="16"/>
-      <c r="AM57" s="16"/>
-      <c r="AN57" s="55"/>
+        <v>45166</v>
+      </c>
+      <c r="K57" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="L57" s="88"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="65"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="38"/>
+      <c r="AA57" s="61"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="65"/>
+      <c r="AH57" s="9"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4"/>
+      <c r="AM57" s="4"/>
+      <c r="AN57" s="38"/>
     </row>
     <row r="58" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C58" s="5"/>
-      <c r="D58" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5" t="s">
+        <v>140</v>
+      </c>
       <c r="F58" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G58" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" s="4">
         <v>2</v>
       </c>
-      <c r="I58" s="48"/>
+      <c r="I58" s="48">
+        <v>45164</v>
+      </c>
       <c r="J58" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45166</v>
       </c>
       <c r="K58" s="79" t="s">
         <v>52</v>
@@ -4828,27 +4858,29 @@
     </row>
     <row r="59" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F59" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G59" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" s="4">
         <v>2</v>
       </c>
-      <c r="I59" s="48"/>
+      <c r="I59" s="48">
+        <v>45164</v>
+      </c>
       <c r="J59" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45166</v>
       </c>
       <c r="K59" s="79" t="s">
         <v>52</v>
@@ -4885,27 +4917,29 @@
     </row>
     <row r="60" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="9" t="s">
-        <v>107</v>
+        <v>148</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="5" t="s">
-        <v>143</v>
-      </c>
+      <c r="D60" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="E60" s="5"/>
       <c r="F60" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G60" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" s="4">
         <v>2</v>
       </c>
-      <c r="I60" s="48"/>
+      <c r="I60" s="48">
+        <v>45165</v>
+      </c>
       <c r="J60" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45167</v>
       </c>
       <c r="K60" s="79" t="s">
         <v>52</v>
@@ -4942,27 +4976,29 @@
     </row>
     <row r="61" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="9" t="s">
-        <v>154</v>
+        <v>114</v>
       </c>
       <c r="C61" s="5"/>
-      <c r="D61" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="E61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5" t="s">
+        <v>143</v>
+      </c>
       <c r="F61" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G61" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" s="4">
         <v>2</v>
       </c>
-      <c r="I61" s="48"/>
+      <c r="I61" s="48">
+        <v>45165</v>
+      </c>
       <c r="J61" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45167</v>
       </c>
       <c r="K61" s="79" t="s">
         <v>52</v>
@@ -4999,27 +5035,29 @@
     </row>
     <row r="62" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F62" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G62" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" s="4">
         <v>2</v>
       </c>
-      <c r="I62" s="48"/>
+      <c r="I62" s="48">
+        <v>45165</v>
+      </c>
       <c r="J62" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45167</v>
       </c>
       <c r="K62" s="79" t="s">
         <v>52</v>
@@ -5056,27 +5094,29 @@
     </row>
     <row r="63" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="5" t="s">
-        <v>146</v>
-      </c>
+      <c r="D63" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E63" s="5"/>
       <c r="F63" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G63" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H63" s="4">
-        <v>2</v>
-      </c>
-      <c r="I63" s="48"/>
+        <v>5</v>
+      </c>
+      <c r="I63" s="48">
+        <v>45166</v>
+      </c>
       <c r="J63" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45171</v>
       </c>
       <c r="K63" s="79" t="s">
         <v>52</v>
@@ -5113,27 +5153,29 @@
     </row>
     <row r="64" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C64" s="5"/>
-      <c r="D64" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5" t="s">
+        <v>146</v>
+      </c>
       <c r="F64" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G64" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H64" s="4">
         <v>2</v>
       </c>
-      <c r="I64" s="48"/>
+      <c r="I64" s="48">
+        <v>45166</v>
+      </c>
       <c r="J64" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45168</v>
       </c>
       <c r="K64" s="79" t="s">
         <v>52</v>
@@ -5170,27 +5212,29 @@
     </row>
     <row r="65" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="9" t="s">
-        <v>119</v>
+        <v>149</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F65" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G65" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65" s="4">
         <v>2</v>
       </c>
-      <c r="I65" s="48"/>
+      <c r="I65" s="48">
+        <v>45168</v>
+      </c>
       <c r="J65" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45170</v>
       </c>
       <c r="K65" s="79" t="s">
         <v>52</v>
@@ -5226,28 +5270,28 @@
       <c r="AN65" s="38"/>
     </row>
     <row r="66" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="9" t="s">
-        <v>155</v>
-      </c>
+      <c r="B66" s="9"/>
       <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="5" t="s">
-        <v>149</v>
-      </c>
+      <c r="D66" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E66" s="5"/>
       <c r="F66" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G66" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H66" s="4">
-        <v>2</v>
-      </c>
-      <c r="I66" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="I66" s="48">
+        <v>45170</v>
+      </c>
       <c r="J66" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45171</v>
       </c>
       <c r="K66" s="79" t="s">
         <v>52</v>
@@ -5283,28 +5327,28 @@
       <c r="AN66" s="38"/>
     </row>
     <row r="67" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="9" t="s">
-        <v>156</v>
-      </c>
+      <c r="B67" s="9"/>
       <c r="C67" s="5"/>
-      <c r="D67" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="E67" s="5"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="F67" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G67" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67" s="4">
-        <v>2</v>
-      </c>
-      <c r="I67" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="I67" s="48">
+        <v>45170</v>
+      </c>
       <c r="J67" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45171</v>
       </c>
       <c r="K67" s="79" t="s">
         <v>52</v>
@@ -5340,28 +5384,28 @@
       <c r="AN67" s="38"/>
     </row>
     <row r="68" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="9" t="s">
-        <v>157</v>
-      </c>
+      <c r="B68" s="9"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="F68" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G68" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68" s="4">
-        <v>2</v>
-      </c>
-      <c r="I68" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="I68" s="48">
+        <v>45170</v>
+      </c>
       <c r="J68" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>45171</v>
       </c>
       <c r="K68" s="79" t="s">
         <v>52</v>
@@ -5397,14 +5441,12 @@
       <c r="AN68" s="38"/>
     </row>
     <row r="69" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="9" t="s">
-        <v>158</v>
-      </c>
+      <c r="B69" s="9"/>
       <c r="C69" s="5"/>
-      <c r="D69" s="5"/>
-      <c r="E69" s="5" t="s">
-        <v>152</v>
-      </c>
+      <c r="D69" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E69" s="5"/>
       <c r="F69" s="7" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
@@ -5415,10 +5457,12 @@
       <c r="H69" s="4">
         <v>1</v>
       </c>
-      <c r="I69" s="48"/>
+      <c r="I69" s="48">
+        <v>45171</v>
+      </c>
       <c r="J69" s="46">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>45172</v>
       </c>
       <c r="K69" s="79" t="s">
         <v>52</v>
@@ -5453,71 +5497,355 @@
       <c r="AM69" s="4"/>
       <c r="AN69" s="38"/>
     </row>
-    <row r="70" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B70" s="10" t="s">
+    <row r="70" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="9"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F70" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>대기중</v>
+      </c>
+      <c r="G70" s="8">
+        <v>0</v>
+      </c>
+      <c r="H70" s="4">
+        <v>1</v>
+      </c>
+      <c r="I70" s="48">
+        <v>45171</v>
+      </c>
+      <c r="J70" s="46">
+        <f t="shared" si="1"/>
+        <v>45172</v>
+      </c>
+      <c r="K70" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="L70" s="88"/>
+      <c r="M70" s="4"/>
+      <c r="N70" s="4"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="4"/>
+      <c r="Q70" s="4"/>
+      <c r="R70" s="4"/>
+      <c r="S70" s="65"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="38"/>
+      <c r="AA70" s="61"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+      <c r="AE70" s="4"/>
+      <c r="AF70" s="4"/>
+      <c r="AG70" s="65"/>
+      <c r="AH70" s="9"/>
+      <c r="AI70" s="4"/>
+      <c r="AJ70" s="4"/>
+      <c r="AK70" s="4"/>
+      <c r="AL70" s="4"/>
+      <c r="AM70" s="4"/>
+      <c r="AN70" s="38"/>
+    </row>
+    <row r="71" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="9"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F71" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>대기중</v>
+      </c>
+      <c r="G71" s="8">
+        <v>0</v>
+      </c>
+      <c r="H71" s="4">
+        <v>1</v>
+      </c>
+      <c r="I71" s="48">
+        <v>45171</v>
+      </c>
+      <c r="J71" s="46">
+        <f t="shared" si="1"/>
+        <v>45172</v>
+      </c>
+      <c r="K71" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="L71" s="88"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="4"/>
+      <c r="Q71" s="4"/>
+      <c r="R71" s="4"/>
+      <c r="S71" s="65"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="38"/>
+      <c r="AA71" s="61"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4"/>
+      <c r="AE71" s="4"/>
+      <c r="AF71" s="4"/>
+      <c r="AG71" s="65"/>
+      <c r="AH71" s="9"/>
+      <c r="AI71" s="4"/>
+      <c r="AJ71" s="4"/>
+      <c r="AK71" s="4"/>
+      <c r="AL71" s="4"/>
+      <c r="AM71" s="4"/>
+      <c r="AN71" s="38"/>
+    </row>
+    <row r="72" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="E72" s="5"/>
+      <c r="F72" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>대기중</v>
+      </c>
+      <c r="G72" s="8">
+        <v>0</v>
+      </c>
+      <c r="H72" s="4">
+        <v>2</v>
+      </c>
+      <c r="I72" s="48"/>
+      <c r="J72" s="46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K72" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="L72" s="88"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="65"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="38"/>
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+      <c r="AE72" s="4"/>
+      <c r="AF72" s="4"/>
+      <c r="AG72" s="65"/>
+      <c r="AH72" s="9"/>
+      <c r="AI72" s="4"/>
+      <c r="AJ72" s="4"/>
+      <c r="AK72" s="4"/>
+      <c r="AL72" s="4"/>
+      <c r="AM72" s="4"/>
+      <c r="AN72" s="38"/>
+    </row>
+    <row r="73" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F73" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>대기중</v>
+      </c>
+      <c r="G73" s="8">
+        <v>0</v>
+      </c>
+      <c r="H73" s="4">
+        <v>2</v>
+      </c>
+      <c r="I73" s="48"/>
+      <c r="J73" s="46">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="K73" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="L73" s="88"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="4"/>
+      <c r="Q73" s="4"/>
+      <c r="R73" s="4"/>
+      <c r="S73" s="65"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="38"/>
+      <c r="AA73" s="61"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+      <c r="AE73" s="4"/>
+      <c r="AF73" s="4"/>
+      <c r="AG73" s="65"/>
+      <c r="AH73" s="9"/>
+      <c r="AI73" s="4"/>
+      <c r="AJ73" s="4"/>
+      <c r="AK73" s="4"/>
+      <c r="AL73" s="4"/>
+      <c r="AM73" s="4"/>
+      <c r="AN73" s="38"/>
+    </row>
+    <row r="74" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F74" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>대기중</v>
+      </c>
+      <c r="G74" s="8">
+        <v>0</v>
+      </c>
+      <c r="H74" s="4">
+        <v>1</v>
+      </c>
+      <c r="I74" s="48"/>
+      <c r="J74" s="46">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="K74" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="L74" s="88"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="4"/>
+      <c r="Q74" s="4"/>
+      <c r="R74" s="4"/>
+      <c r="S74" s="65"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="38"/>
+      <c r="AA74" s="61"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+      <c r="AE74" s="4"/>
+      <c r="AF74" s="4"/>
+      <c r="AG74" s="65"/>
+      <c r="AH74" s="9"/>
+      <c r="AI74" s="4"/>
+      <c r="AJ74" s="4"/>
+      <c r="AK74" s="4"/>
+      <c r="AL74" s="4"/>
+      <c r="AM74" s="4"/>
+      <c r="AN74" s="38"/>
+    </row>
+    <row r="75" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B75" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="C70" s="11"/>
-      <c r="D70" s="11"/>
-      <c r="E70" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="F70" s="12" t="str">
+      <c r="F75" s="12" t="str">
         <f t="shared" si="0"/>
         <v>대기중</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G75" s="13">
         <v>0</v>
       </c>
-      <c r="H70" s="14">
-        <v>1</v>
-      </c>
-      <c r="I70" s="52"/>
-      <c r="J70" s="47">
+      <c r="H75" s="14">
+        <v>1</v>
+      </c>
+      <c r="I75" s="52"/>
+      <c r="J75" s="47">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="K70" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="L70" s="89"/>
-      <c r="M70" s="14"/>
-      <c r="N70" s="14"/>
-      <c r="O70" s="14"/>
-      <c r="P70" s="14"/>
-      <c r="Q70" s="14"/>
-      <c r="R70" s="14"/>
-      <c r="S70" s="66"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="14"/>
-      <c r="V70" s="14"/>
-      <c r="W70" s="14"/>
-      <c r="X70" s="14"/>
-      <c r="Y70" s="14"/>
-      <c r="Z70" s="39"/>
-      <c r="AA70" s="60"/>
-      <c r="AB70" s="14"/>
-      <c r="AC70" s="14"/>
-      <c r="AD70" s="14"/>
-      <c r="AE70" s="14"/>
-      <c r="AF70" s="14"/>
-      <c r="AG70" s="66"/>
-      <c r="AH70" s="10"/>
-      <c r="AI70" s="14"/>
-      <c r="AJ70" s="14"/>
-      <c r="AK70" s="14"/>
-      <c r="AL70" s="14"/>
-      <c r="AM70" s="14"/>
-      <c r="AN70" s="39"/>
+      <c r="K75" s="82" t="s">
+        <v>52</v>
+      </c>
+      <c r="L75" s="89"/>
+      <c r="M75" s="14"/>
+      <c r="N75" s="14"/>
+      <c r="O75" s="14"/>
+      <c r="P75" s="14"/>
+      <c r="Q75" s="14"/>
+      <c r="R75" s="14"/>
+      <c r="S75" s="66"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="14"/>
+      <c r="V75" s="14"/>
+      <c r="W75" s="14"/>
+      <c r="X75" s="14"/>
+      <c r="Y75" s="14"/>
+      <c r="Z75" s="39"/>
+      <c r="AA75" s="60"/>
+      <c r="AB75" s="14"/>
+      <c r="AC75" s="14"/>
+      <c r="AD75" s="14"/>
+      <c r="AE75" s="14"/>
+      <c r="AF75" s="14"/>
+      <c r="AG75" s="66"/>
+      <c r="AH75" s="10"/>
+      <c r="AI75" s="14"/>
+      <c r="AJ75" s="14"/>
+      <c r="AK75" s="14"/>
+      <c r="AL75" s="14"/>
+      <c r="AM75" s="14"/>
+      <c r="AN75" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
+    <mergeCell ref="AH11:AN11"/>
+    <mergeCell ref="M10:AN10"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="I10:I12"/>
@@ -5528,11 +5856,12 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="M10:AN10"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C10:C12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsdp\Desktop\github\project02\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BCC3004-1FED-4577-8D1A-EEBA8A8E044B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F362E5A2-087E-480E-A912-B6B4A338F74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="173">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,36 +173,11 @@
     <t>21D</t>
   </si>
   <si>
-    <t>22D</t>
-  </si>
-  <si>
-    <t>23D</t>
-  </si>
-  <si>
-    <t>24D</t>
-  </si>
-  <si>
-    <t>25D</t>
-  </si>
-  <si>
-    <t>26D</t>
-  </si>
-  <si>
-    <t>27D</t>
-  </si>
-  <si>
-    <t>28D</t>
-  </si>
-  <si>
     <t>2W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4W</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -628,6 +603,39 @@
   <si>
     <t>4.5.2 배송 관리 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FUR-021</t>
+  </si>
+  <si>
+    <t>FUR-023</t>
+  </si>
+  <si>
+    <t>FUR-055</t>
+  </si>
+  <si>
+    <t>FUR-056</t>
+  </si>
+  <si>
+    <t>FUR-057</t>
+  </si>
+  <si>
+    <t>FUR-058</t>
+  </si>
+  <si>
+    <t>FUR-059</t>
+  </si>
+  <si>
+    <t>FUR-060</t>
+  </si>
+  <si>
+    <t>FUR-061</t>
+  </si>
+  <si>
+    <t>FUR-062</t>
+  </si>
+  <si>
+    <t>FUR-063</t>
   </si>
 </sst>
 </file>
@@ -1178,7 +1186,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="152">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1353,24 +1361,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1378,9 +1374,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1434,9 +1427,6 @@
     <xf numFmtId="0" fontId="8" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1458,6 +1448,54 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1476,59 +1514,134 @@
     <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1845,10 +1958,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BU75"/>
+  <dimension ref="B1:BN75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB15" sqref="AB15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1862,138 +1975,138 @@
     <col min="9" max="10" width="8.75" style="43"/>
     <col min="11" max="11" width="8.75" style="3"/>
     <col min="12" max="12" width="3" style="1" customWidth="1"/>
-    <col min="13" max="72" width="4.75" style="3" customWidth="1"/>
-    <col min="73" max="73" width="4.75" style="1" customWidth="1"/>
-    <col min="74" max="16384" width="8.75" style="1"/>
+    <col min="13" max="65" width="4.75" style="3" customWidth="1"/>
+    <col min="66" max="66" width="4.75" style="1" customWidth="1"/>
+    <col min="67" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="2" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="96" t="s">
-        <v>118</v>
-      </c>
-      <c r="E2" s="97"/>
+      <c r="D2" s="106" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="107"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
       <c r="I2" s="44"/>
     </row>
-    <row r="3" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="98">
+      <c r="D3" s="108">
         <v>45158</v>
       </c>
-      <c r="E3" s="99"/>
-    </row>
-    <row r="4" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E3" s="97"/>
+    </row>
+    <row r="4" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="108">
         <v>45173</v>
       </c>
-      <c r="E4" s="99"/>
-    </row>
-    <row r="5" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="E4" s="97"/>
+    </row>
+    <row r="5" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="100" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="99"/>
-    </row>
-    <row r="6" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D5" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="97"/>
+    </row>
+    <row r="6" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="110">
+      <c r="D6" s="96">
         <v>45163</v>
       </c>
-      <c r="E6" s="99"/>
-    </row>
-    <row r="7" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="E6" s="97"/>
+    </row>
+    <row r="7" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="111" t="s">
-        <v>166</v>
-      </c>
-      <c r="E7" s="112"/>
-    </row>
-    <row r="8" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="D7" s="98" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="99"/>
+    </row>
+    <row r="8" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:73" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="10" spans="2:73" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="93" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="101" t="s">
+    <row r="9" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
+    <row r="10" spans="2:66" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="103" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="101" t="s">
+      <c r="D10" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="101" t="s">
+      <c r="E10" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="101" t="s">
+      <c r="F10" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="101" t="s">
+      <c r="G10" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="101" t="s">
+      <c r="H10" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="107" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="107" t="s">
-        <v>50</v>
-      </c>
-      <c r="K10" s="104" t="s">
-        <v>48</v>
-      </c>
-      <c r="L10" s="58" t="s">
+      <c r="I10" s="93" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="90" t="s">
+        <v>40</v>
+      </c>
+      <c r="L10" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="114" t="s">
+      <c r="M10" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="115"/>
-      <c r="O10" s="115"/>
-      <c r="P10" s="115"/>
-      <c r="Q10" s="115"/>
-      <c r="R10" s="115"/>
-      <c r="S10" s="115"/>
-      <c r="T10" s="115"/>
-      <c r="U10" s="115"/>
-      <c r="V10" s="115"/>
-      <c r="W10" s="115"/>
-      <c r="X10" s="115"/>
-      <c r="Y10" s="115"/>
-      <c r="Z10" s="115"/>
-      <c r="AA10" s="115"/>
-      <c r="AB10" s="115"/>
-      <c r="AC10" s="115"/>
-      <c r="AD10" s="115"/>
-      <c r="AE10" s="115"/>
-      <c r="AF10" s="115"/>
-      <c r="AG10" s="115"/>
-      <c r="AH10" s="115"/>
-      <c r="AI10" s="115"/>
-      <c r="AJ10" s="115"/>
-      <c r="AK10" s="115"/>
-      <c r="AL10" s="115"/>
-      <c r="AM10" s="115"/>
-      <c r="AN10" s="116"/>
+      <c r="N10" s="89"/>
+      <c r="O10" s="89"/>
+      <c r="P10" s="89"/>
+      <c r="Q10" s="89"/>
+      <c r="R10" s="89"/>
+      <c r="S10" s="89"/>
+      <c r="T10" s="89"/>
+      <c r="U10" s="89"/>
+      <c r="V10" s="89"/>
+      <c r="W10" s="89"/>
+      <c r="X10" s="89"/>
+      <c r="Y10" s="89"/>
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="89"/>
+      <c r="AB10" s="89"/>
+      <c r="AC10" s="89"/>
+      <c r="AD10" s="89"/>
+      <c r="AE10" s="89"/>
+      <c r="AF10" s="89"/>
+      <c r="AG10" s="147"/>
+      <c r="AH10" s="3"/>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+      <c r="AK10" s="3"/>
+      <c r="AL10" s="3"/>
+      <c r="AM10" s="3"/>
+      <c r="AN10" s="3"/>
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
@@ -2019,185 +2132,148 @@
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
       <c r="BM10" s="3"/>
-      <c r="BN10" s="3"/>
-      <c r="BO10" s="3"/>
-      <c r="BP10" s="3"/>
-      <c r="BQ10" s="3"/>
-      <c r="BR10" s="3"/>
-      <c r="BS10" s="3"/>
-      <c r="BT10" s="3"/>
-      <c r="BU10" s="1"/>
-    </row>
-    <row r="11" spans="2:73" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="94"/>
-      <c r="C11" s="102"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="105"/>
-      <c r="L11" s="59" t="s">
+      <c r="BN10" s="1"/>
+    </row>
+    <row r="11" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="104"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="101"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="101"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="91"/>
+      <c r="L11" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="113" t="s">
+      <c r="M11" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="113"/>
-      <c r="S11" s="113"/>
-      <c r="T11" s="113" t="s">
+      <c r="N11" s="87"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="87"/>
+      <c r="Y11" s="87"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="149"/>
+    </row>
+    <row r="12" spans="2:66" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B12" s="105"/>
+      <c r="C12" s="102"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="102"/>
+      <c r="G12" s="102"/>
+      <c r="H12" s="102"/>
+      <c r="I12" s="95"/>
+      <c r="J12" s="95"/>
+      <c r="K12" s="92"/>
+      <c r="L12" s="150" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="80" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" s="80" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" s="80" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" s="80" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="R12" s="80" t="s">
+        <v>22</v>
+      </c>
+      <c r="S12" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="T12" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="U12" s="80" t="s">
+        <v>25</v>
+      </c>
+      <c r="V12" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="W12" s="80" t="s">
+        <v>27</v>
+      </c>
+      <c r="X12" s="80" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y12" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z12" s="80" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA12" s="80" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB12" s="80" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC12" s="80" t="s">
+        <v>33</v>
+      </c>
+      <c r="AD12" s="80" t="s">
+        <v>34</v>
+      </c>
+      <c r="AE12" s="80" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF12" s="80" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG12" s="151" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="U11" s="113"/>
-      <c r="V11" s="113"/>
-      <c r="W11" s="113"/>
-      <c r="X11" s="113"/>
-      <c r="Y11" s="113"/>
-      <c r="Z11" s="113"/>
-      <c r="AA11" s="113" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB11" s="113"/>
-      <c r="AC11" s="113"/>
-      <c r="AD11" s="113"/>
-      <c r="AE11" s="113"/>
-      <c r="AF11" s="113"/>
-      <c r="AG11" s="113"/>
-      <c r="AH11" s="113" t="s">
-        <v>47</v>
-      </c>
-      <c r="AI11" s="113"/>
-      <c r="AJ11" s="113"/>
-      <c r="AK11" s="113"/>
-      <c r="AL11" s="113"/>
-      <c r="AM11" s="113"/>
-      <c r="AN11" s="113"/>
-    </row>
-    <row r="12" spans="2:73" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="95"/>
-      <c r="C12" s="103"/>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="103"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="106"/>
-      <c r="L12" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="M12" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="N12" s="86" t="s">
-        <v>18</v>
-      </c>
-      <c r="O12" s="86" t="s">
-        <v>19</v>
-      </c>
-      <c r="P12" s="86" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q12" s="86" t="s">
-        <v>21</v>
-      </c>
-      <c r="R12" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="S12" s="86" t="s">
-        <v>23</v>
-      </c>
-      <c r="T12" s="86" t="s">
-        <v>24</v>
-      </c>
-      <c r="U12" s="86" t="s">
-        <v>25</v>
-      </c>
-      <c r="V12" s="86" t="s">
-        <v>26</v>
-      </c>
-      <c r="W12" s="86" t="s">
-        <v>27</v>
-      </c>
-      <c r="X12" s="86" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y12" s="86" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z12" s="86" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA12" s="86" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB12" s="86" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC12" s="86" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD12" s="86" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE12" s="86" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF12" s="86" t="s">
-        <v>36</v>
-      </c>
-      <c r="AG12" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="AH12" s="86" t="s">
-        <v>38</v>
-      </c>
-      <c r="AI12" s="86" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ12" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="AK12" s="86" t="s">
-        <v>41</v>
-      </c>
-      <c r="AL12" s="86" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM12" s="86" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN12" s="86" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="24" t="s">
-        <v>53</v>
-      </c>
       <c r="C13" s="25" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D13" s="26"/>
       <c r="E13" s="26"/>
       <c r="F13" s="27" t="str">
         <f>IF(G13=1,"완료",IF(G13=0, "대기중","진행중"))</f>
-        <v>진행중</v>
+        <v>완료</v>
       </c>
       <c r="G13" s="28">
         <f>AVERAGE(G14,G16,G18,G21,G25)</f>
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H13" s="27">
         <f>SUM(H14,H16,H18, H21, H25)</f>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I13" s="45">
         <f>MIN(I14:I26)</f>
@@ -2205,48 +2281,41 @@
       </c>
       <c r="J13" s="45">
         <f>I13+H13</f>
-        <v>45166</v>
-      </c>
-      <c r="K13" s="78" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="87"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="62"/>
-      <c r="T13" s="63"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
+        <v>45168</v>
+      </c>
+      <c r="K13" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" s="81"/>
+      <c r="M13" s="112"/>
+      <c r="N13" s="112"/>
+      <c r="O13" s="112"/>
+      <c r="P13" s="112"/>
+      <c r="Q13" s="112"/>
+      <c r="R13" s="112"/>
+      <c r="S13" s="113"/>
+      <c r="T13" s="24"/>
+      <c r="U13" s="112"/>
+      <c r="V13" s="112"/>
+      <c r="W13" s="112"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="55"/>
-      <c r="AA13" s="64"/>
+      <c r="AA13" s="60"/>
       <c r="AB13" s="16"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
       <c r="AF13" s="16"/>
-      <c r="AG13" s="62"/>
-      <c r="AH13" s="63"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="16"/>
-      <c r="AK13" s="16"/>
-      <c r="AL13" s="16"/>
-      <c r="AM13" s="16"/>
-      <c r="AN13" s="55"/>
-    </row>
-    <row r="14" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG13" s="55"/>
+    </row>
+    <row r="14" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B14" s="9" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7" t="str">
@@ -2266,17 +2335,17 @@
         <f t="shared" ref="J14:J75" si="1">I14+H14</f>
         <v>45163</v>
       </c>
-      <c r="K14" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L14" s="88"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
-      <c r="Q14" s="4"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="65"/>
+      <c r="K14" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" s="82"/>
+      <c r="M14" s="110"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="110"/>
+      <c r="Q14" s="110"/>
+      <c r="R14" s="110"/>
+      <c r="S14" s="61"/>
       <c r="T14" s="9"/>
       <c r="U14" s="4"/>
       <c r="V14" s="4"/>
@@ -2284,29 +2353,22 @@
       <c r="X14" s="4"/>
       <c r="Y14" s="4"/>
       <c r="Z14" s="38"/>
-      <c r="AA14" s="61"/>
+      <c r="AA14" s="59"/>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
       <c r="AD14" s="4"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
-      <c r="AG14" s="65"/>
-      <c r="AH14" s="9"/>
-      <c r="AI14" s="4"/>
-      <c r="AJ14" s="4"/>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
-      <c r="AM14" s="4"/>
-      <c r="AN14" s="38"/>
-    </row>
-    <row r="15" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG14" s="38"/>
+    </row>
+    <row r="15" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B15" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F15" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2325,17 +2387,17 @@
         <f t="shared" si="1"/>
         <v>45163</v>
       </c>
-      <c r="K15" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L15" s="88"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="65"/>
+      <c r="K15" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" s="82"/>
+      <c r="M15" s="110"/>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="61"/>
       <c r="T15" s="9"/>
       <c r="U15" s="4"/>
       <c r="V15" s="4"/>
@@ -2343,28 +2405,21 @@
       <c r="X15" s="4"/>
       <c r="Y15" s="4"/>
       <c r="Z15" s="38"/>
-      <c r="AA15" s="61"/>
+      <c r="AA15" s="59"/>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
       <c r="AD15" s="4"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
-      <c r="AG15" s="65"/>
-      <c r="AH15" s="9"/>
-      <c r="AI15" s="4"/>
-      <c r="AJ15" s="4"/>
-      <c r="AK15" s="4"/>
-      <c r="AL15" s="4"/>
-      <c r="AM15" s="4"/>
-      <c r="AN15" s="38"/>
-    </row>
-    <row r="16" spans="2:73" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG15" s="38"/>
+    </row>
+    <row r="16" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B16" s="9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="E16" s="6"/>
       <c r="F16" s="7" t="str">
@@ -2384,17 +2439,17 @@
         <f t="shared" si="1"/>
         <v>45159</v>
       </c>
-      <c r="K16" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L16" s="88"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="K16" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="82"/>
+      <c r="M16" s="110"/>
+      <c r="N16" s="110"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="65"/>
+      <c r="S16" s="61"/>
       <c r="T16" s="9"/>
       <c r="U16" s="4"/>
       <c r="V16" s="4"/>
@@ -2402,29 +2457,22 @@
       <c r="X16" s="4"/>
       <c r="Y16" s="4"/>
       <c r="Z16" s="38"/>
-      <c r="AA16" s="61"/>
+      <c r="AA16" s="59"/>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
       <c r="AD16" s="4"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
-      <c r="AG16" s="65"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="4"/>
-      <c r="AJ16" s="4"/>
-      <c r="AK16" s="4"/>
-      <c r="AL16" s="4"/>
-      <c r="AM16" s="4"/>
-      <c r="AN16" s="38"/>
-    </row>
-    <row r="17" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG16" s="38"/>
+    </row>
+    <row r="17" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B17" s="9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F17" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2443,17 +2491,17 @@
         <f t="shared" si="1"/>
         <v>45159</v>
       </c>
-      <c r="K17" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L17" s="88"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
+      <c r="K17" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" s="82"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="65"/>
+      <c r="S17" s="61"/>
       <c r="T17" s="9"/>
       <c r="U17" s="4"/>
       <c r="V17" s="4"/>
@@ -2461,28 +2509,21 @@
       <c r="X17" s="4"/>
       <c r="Y17" s="4"/>
       <c r="Z17" s="38"/>
-      <c r="AA17" s="61"/>
+      <c r="AA17" s="59"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
       <c r="AD17" s="4"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
-      <c r="AG17" s="65"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AK17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="38"/>
-    </row>
-    <row r="18" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG17" s="38"/>
+    </row>
+    <row r="18" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B18" s="9" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="7" t="str">
@@ -2502,17 +2543,17 @@
         <f t="shared" si="1"/>
         <v>45162</v>
       </c>
-      <c r="K18" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L18" s="88"/>
+      <c r="K18" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="82"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
+      <c r="O18" s="110"/>
+      <c r="P18" s="110"/>
+      <c r="Q18" s="110"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="65"/>
+      <c r="S18" s="61"/>
       <c r="T18" s="9"/>
       <c r="U18" s="4"/>
       <c r="V18" s="4"/>
@@ -2520,29 +2561,22 @@
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
       <c r="Z18" s="38"/>
-      <c r="AA18" s="61"/>
+      <c r="AA18" s="59"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
       <c r="AD18" s="4"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
-      <c r="AG18" s="65"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="4"/>
-      <c r="AJ18" s="4"/>
-      <c r="AK18" s="4"/>
-      <c r="AL18" s="4"/>
-      <c r="AM18" s="4"/>
-      <c r="AN18" s="38"/>
-    </row>
-    <row r="19" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG18" s="38"/>
+    </row>
+    <row r="19" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B19" s="9" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F19" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2561,17 +2595,17 @@
         <f t="shared" si="1"/>
         <v>45162</v>
       </c>
-      <c r="K19" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L19" s="88"/>
+      <c r="K19" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" s="82"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
+      <c r="O19" s="110"/>
+      <c r="P19" s="110"/>
+      <c r="Q19" s="110"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="65"/>
+      <c r="S19" s="61"/>
       <c r="T19" s="9"/>
       <c r="U19" s="4"/>
       <c r="V19" s="4"/>
@@ -2579,29 +2613,22 @@
       <c r="X19" s="4"/>
       <c r="Y19" s="4"/>
       <c r="Z19" s="38"/>
-      <c r="AA19" s="61"/>
+      <c r="AA19" s="59"/>
       <c r="AB19" s="4"/>
       <c r="AC19" s="4"/>
       <c r="AD19" s="4"/>
       <c r="AE19" s="4"/>
       <c r="AF19" s="4"/>
-      <c r="AG19" s="65"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="4"/>
-      <c r="AJ19" s="4"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
-      <c r="AM19" s="4"/>
-      <c r="AN19" s="38"/>
-    </row>
-    <row r="20" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG19" s="38"/>
+    </row>
+    <row r="20" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B20" s="9" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F20" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2620,17 +2647,17 @@
         <f t="shared" si="1"/>
         <v>45162</v>
       </c>
-      <c r="K20" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L20" s="88"/>
+      <c r="K20" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" s="82"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
+      <c r="O20" s="110"/>
+      <c r="P20" s="110"/>
+      <c r="Q20" s="110"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="65"/>
+      <c r="S20" s="61"/>
       <c r="T20" s="9"/>
       <c r="U20" s="4"/>
       <c r="V20" s="4"/>
@@ -2638,57 +2665,51 @@
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
       <c r="Z20" s="38"/>
-      <c r="AA20" s="61"/>
+      <c r="AA20" s="59"/>
       <c r="AB20" s="4"/>
       <c r="AC20" s="4"/>
       <c r="AD20" s="4"/>
       <c r="AE20" s="4"/>
       <c r="AF20" s="4"/>
-      <c r="AG20" s="65"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="4"/>
-      <c r="AJ20" s="4"/>
-      <c r="AK20" s="4"/>
-      <c r="AL20" s="4"/>
-      <c r="AM20" s="4"/>
-      <c r="AN20" s="38"/>
-    </row>
-    <row r="21" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG20" s="38"/>
+    </row>
+    <row r="21" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B21" s="9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G21" s="8">
-        <v>0</v>
-      </c>
-      <c r="H21" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="H21" s="7">
+        <v>1</v>
+      </c>
       <c r="I21" s="46">
-        <f>MIN(I22:I24)</f>
-        <v>45158</v>
+        <v>45162</v>
       </c>
       <c r="J21" s="46">
         <f t="shared" si="1"/>
-        <v>45158</v>
-      </c>
-      <c r="K21" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L21" s="88"/>
+        <v>45163</v>
+      </c>
+      <c r="K21" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" s="82"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-      <c r="R21" s="4"/>
-      <c r="S21" s="65"/>
+      <c r="Q21" s="110"/>
+      <c r="R21" s="110"/>
+      <c r="S21" s="61"/>
       <c r="T21" s="9"/>
       <c r="U21" s="4"/>
       <c r="V21" s="4"/>
@@ -2696,29 +2717,22 @@
       <c r="X21" s="4"/>
       <c r="Y21" s="4"/>
       <c r="Z21" s="38"/>
-      <c r="AA21" s="61"/>
+      <c r="AA21" s="59"/>
       <c r="AB21" s="4"/>
       <c r="AC21" s="4"/>
       <c r="AD21" s="4"/>
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
-      <c r="AG21" s="65"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="4"/>
-      <c r="AJ21" s="4"/>
-      <c r="AK21" s="4"/>
-      <c r="AL21" s="4"/>
-      <c r="AM21" s="4"/>
-      <c r="AN21" s="38"/>
-    </row>
-    <row r="22" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG21" s="38"/>
+    </row>
+    <row r="22" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B22" s="9" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2731,23 +2745,23 @@
         <v>1</v>
       </c>
       <c r="I22" s="46">
-        <v>45158</v>
+        <v>45162</v>
       </c>
       <c r="J22" s="46">
         <f t="shared" si="1"/>
-        <v>45159</v>
-      </c>
-      <c r="K22" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L22" s="88"/>
+        <v>45163</v>
+      </c>
+      <c r="K22" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" s="82"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="65"/>
+      <c r="Q22" s="110"/>
+      <c r="R22" s="110"/>
+      <c r="S22" s="61"/>
       <c r="T22" s="9"/>
       <c r="U22" s="4"/>
       <c r="V22" s="4"/>
@@ -2755,29 +2769,22 @@
       <c r="X22" s="4"/>
       <c r="Y22" s="4"/>
       <c r="Z22" s="38"/>
-      <c r="AA22" s="61"/>
+      <c r="AA22" s="59"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
       <c r="AD22" s="4"/>
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
-      <c r="AG22" s="65"/>
-      <c r="AH22" s="9"/>
-      <c r="AI22" s="4"/>
-      <c r="AJ22" s="4"/>
-      <c r="AK22" s="4"/>
-      <c r="AL22" s="4"/>
-      <c r="AM22" s="4"/>
-      <c r="AN22" s="38"/>
-    </row>
-    <row r="23" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG22" s="38"/>
+    </row>
+    <row r="23" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B23" s="9" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="F23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2790,23 +2797,23 @@
         <v>1</v>
       </c>
       <c r="I23" s="46">
-        <v>45158</v>
+        <v>45162</v>
       </c>
       <c r="J23" s="46">
         <f t="shared" si="1"/>
-        <v>45159</v>
-      </c>
-      <c r="K23" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L23" s="88"/>
+        <v>45163</v>
+      </c>
+      <c r="K23" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" s="82"/>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-      <c r="R23" s="4"/>
-      <c r="S23" s="65"/>
+      <c r="Q23" s="110"/>
+      <c r="R23" s="110"/>
+      <c r="S23" s="61"/>
       <c r="T23" s="9"/>
       <c r="U23" s="4"/>
       <c r="V23" s="4"/>
@@ -2814,364 +2821,334 @@
       <c r="X23" s="4"/>
       <c r="Y23" s="4"/>
       <c r="Z23" s="38"/>
-      <c r="AA23" s="61"/>
+      <c r="AA23" s="59"/>
       <c r="AB23" s="4"/>
       <c r="AC23" s="4"/>
       <c r="AD23" s="4"/>
       <c r="AE23" s="4"/>
       <c r="AF23" s="4"/>
-      <c r="AG23" s="65"/>
-      <c r="AH23" s="9"/>
-      <c r="AI23" s="4"/>
-      <c r="AJ23" s="4"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
-      <c r="AM23" s="4"/>
-      <c r="AN23" s="38"/>
-    </row>
-    <row r="24" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG23" s="38"/>
+    </row>
+    <row r="24" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B24" s="9" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="F24" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G24" s="8">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7"/>
-      <c r="I24" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="46">
+        <v>45167</v>
+      </c>
       <c r="J24" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L24" s="88"/>
+        <v>45168</v>
+      </c>
+      <c r="K24" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" s="82"/>
       <c r="M24" s="4"/>
       <c r="N24" s="4"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="65"/>
+      <c r="S24" s="61"/>
       <c r="T24" s="9"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="4"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="38"/>
-      <c r="AA24" s="61"/>
+      <c r="AA24" s="59"/>
       <c r="AB24" s="4"/>
       <c r="AC24" s="4"/>
       <c r="AD24" s="4"/>
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
-      <c r="AG24" s="65"/>
-      <c r="AH24" s="9"/>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4"/>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
-      <c r="AM24" s="4"/>
-      <c r="AN24" s="38"/>
-    </row>
-    <row r="25" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG24" s="38"/>
+    </row>
+    <row r="25" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B25" s="9" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="C25" s="6"/>
       <c r="D25" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G25" s="8">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="46">
+        <v>45167</v>
+      </c>
       <c r="J25" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K25" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L25" s="88"/>
+        <v>45168</v>
+      </c>
+      <c r="K25" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" s="82"/>
       <c r="M25" s="4"/>
       <c r="N25" s="4"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="65"/>
+      <c r="S25" s="61"/>
       <c r="T25" s="9"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="4"/>
+      <c r="V25" s="110"/>
+      <c r="W25" s="110"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="38"/>
-      <c r="AA25" s="61"/>
+      <c r="AA25" s="59"/>
       <c r="AB25" s="4"/>
       <c r="AC25" s="4"/>
       <c r="AD25" s="4"/>
       <c r="AE25" s="4"/>
       <c r="AF25" s="4"/>
-      <c r="AG25" s="65"/>
-      <c r="AH25" s="9"/>
-      <c r="AI25" s="4"/>
-      <c r="AJ25" s="4"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4"/>
-      <c r="AM25" s="4"/>
-      <c r="AN25" s="38"/>
-    </row>
-    <row r="26" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG25" s="38"/>
+    </row>
+    <row r="26" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B26" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F26" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G26" s="8">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="46">
+        <v>45167</v>
+      </c>
       <c r="J26" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L26" s="88"/>
+        <v>45168</v>
+      </c>
+      <c r="K26" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" s="82"/>
       <c r="M26" s="4"/>
       <c r="N26" s="4"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="65"/>
+      <c r="S26" s="61"/>
       <c r="T26" s="9"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="4"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="38"/>
-      <c r="AA26" s="61"/>
+      <c r="AA26" s="59"/>
       <c r="AB26" s="4"/>
       <c r="AC26" s="4"/>
       <c r="AD26" s="4"/>
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
-      <c r="AG26" s="65"/>
-      <c r="AH26" s="9"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="38"/>
-    </row>
-    <row r="27" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG26" s="38"/>
+    </row>
+    <row r="27" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B27" s="9" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="F27" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G27" s="8">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="46">
+        <v>45167</v>
+      </c>
       <c r="J27" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L27" s="88"/>
+        <v>45168</v>
+      </c>
+      <c r="K27" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" s="82"/>
       <c r="M27" s="4"/>
       <c r="N27" s="4"/>
       <c r="O27" s="4"/>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="65"/>
+      <c r="S27" s="61"/>
       <c r="T27" s="9"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="4"/>
+      <c r="V27" s="110"/>
+      <c r="W27" s="110"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="38"/>
-      <c r="AA27" s="61"/>
+      <c r="AA27" s="59"/>
       <c r="AB27" s="4"/>
       <c r="AC27" s="4"/>
       <c r="AD27" s="4"/>
       <c r="AE27" s="4"/>
       <c r="AF27" s="4"/>
-      <c r="AG27" s="65"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="4"/>
-      <c r="AJ27" s="4"/>
-      <c r="AK27" s="4"/>
-      <c r="AL27" s="4"/>
-      <c r="AM27" s="4"/>
-      <c r="AN27" s="38"/>
-    </row>
-    <row r="28" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AG27" s="38"/>
+    </row>
+    <row r="28" spans="2:33" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B28" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C28" s="72"/>
-      <c r="D28" s="72"/>
+        <v>60</v>
+      </c>
+      <c r="C28" s="67"/>
+      <c r="D28" s="67"/>
       <c r="E28" s="18" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="F28" s="19" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G28" s="20">
-        <v>0</v>
-      </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="49"/>
+        <v>1</v>
+      </c>
+      <c r="H28" s="19">
+        <v>1</v>
+      </c>
+      <c r="I28" s="49">
+        <v>45167</v>
+      </c>
       <c r="J28" s="49">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K28" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="L28" s="90"/>
+        <v>45168</v>
+      </c>
+      <c r="K28" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" s="84"/>
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
       <c r="P28" s="21"/>
       <c r="Q28" s="21"/>
       <c r="R28" s="21"/>
-      <c r="S28" s="69"/>
+      <c r="S28" s="64"/>
       <c r="T28" s="17"/>
       <c r="U28" s="21"/>
-      <c r="V28" s="21"/>
-      <c r="W28" s="21"/>
+      <c r="V28" s="111"/>
+      <c r="W28" s="111"/>
       <c r="X28" s="21"/>
       <c r="Y28" s="21"/>
-      <c r="Z28" s="70"/>
-      <c r="AA28" s="71"/>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="66"/>
       <c r="AB28" s="21"/>
       <c r="AC28" s="21"/>
       <c r="AD28" s="21"/>
       <c r="AE28" s="21"/>
       <c r="AF28" s="21"/>
-      <c r="AG28" s="69"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="21"/>
-      <c r="AJ28" s="21"/>
-      <c r="AK28" s="21"/>
-      <c r="AL28" s="21"/>
-      <c r="AM28" s="21"/>
-      <c r="AN28" s="70"/>
-    </row>
-    <row r="29" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="D29" s="74"/>
-      <c r="E29" s="74"/>
-      <c r="F29" s="75" t="str">
+      <c r="AG28" s="65"/>
+    </row>
+    <row r="29" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>98</v>
+      </c>
+      <c r="D29" s="69"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70" t="str">
         <f t="shared" si="0"/>
         <v>진행중</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="71">
         <f>AVERAGE(G30,G35,G39)</f>
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="H29" s="75">
-        <f>SUM(H30,H35,H39)</f>
-        <v>1</v>
-      </c>
-      <c r="I29" s="77">
-        <v>45148</v>
-      </c>
-      <c r="J29" s="77">
+        <v>0.93333333333333324</v>
+      </c>
+      <c r="H29" s="70">
+        <v>14</v>
+      </c>
+      <c r="I29" s="72">
+        <v>45158</v>
+      </c>
+      <c r="J29" s="72">
         <f t="shared" si="1"/>
-        <v>45149</v>
-      </c>
-      <c r="K29" s="81" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="87"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="63"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="55"/>
-      <c r="AA29" s="64"/>
+        <v>45172</v>
+      </c>
+      <c r="K29" s="76" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" s="81"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="122"/>
+      <c r="T29" s="68"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
+      <c r="Z29" s="123"/>
+      <c r="AA29" s="60"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="16"/>
       <c r="AD29" s="16"/>
       <c r="AE29" s="16"/>
       <c r="AF29" s="16"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="63"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="16"/>
-      <c r="AM29" s="16"/>
-      <c r="AN29" s="55"/>
-    </row>
-    <row r="30" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG29" s="55"/>
+    </row>
+    <row r="30" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B30" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="7" t="str">
@@ -3181,25 +3158,27 @@
       <c r="G30" s="8">
         <v>0.8</v>
       </c>
-      <c r="H30" s="7"/>
+      <c r="H30" s="7">
+        <v>1</v>
+      </c>
       <c r="I30" s="46">
         <v>45158</v>
       </c>
       <c r="J30" s="46">
         <f t="shared" si="1"/>
-        <v>45158</v>
-      </c>
-      <c r="K30" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L30" s="88"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+        <v>45159</v>
+      </c>
+      <c r="K30" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" s="82"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="65"/>
+      <c r="S30" s="61"/>
       <c r="T30" s="9"/>
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
@@ -3207,29 +3186,22 @@
       <c r="X30" s="4"/>
       <c r="Y30" s="4"/>
       <c r="Z30" s="38"/>
-      <c r="AA30" s="61"/>
+      <c r="AA30" s="59"/>
       <c r="AB30" s="4"/>
       <c r="AC30" s="4"/>
       <c r="AD30" s="4"/>
       <c r="AE30" s="4"/>
       <c r="AF30" s="4"/>
-      <c r="AG30" s="65"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="4"/>
-      <c r="AJ30" s="4"/>
-      <c r="AK30" s="4"/>
-      <c r="AL30" s="4"/>
-      <c r="AM30" s="4"/>
-      <c r="AN30" s="38"/>
-    </row>
-    <row r="31" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG30" s="38"/>
+    </row>
+    <row r="31" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B31" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="F31" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3248,17 +3220,17 @@
         <f t="shared" si="1"/>
         <v>45159</v>
       </c>
-      <c r="K31" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L31" s="88"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="K31" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" s="82"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="65"/>
+      <c r="S31" s="61"/>
       <c r="T31" s="9"/>
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
@@ -3266,29 +3238,22 @@
       <c r="X31" s="4"/>
       <c r="Y31" s="4"/>
       <c r="Z31" s="38"/>
-      <c r="AA31" s="61"/>
+      <c r="AA31" s="59"/>
       <c r="AB31" s="4"/>
       <c r="AC31" s="4"/>
       <c r="AD31" s="4"/>
       <c r="AE31" s="4"/>
       <c r="AF31" s="4"/>
-      <c r="AG31" s="65"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="4"/>
-      <c r="AJ31" s="4"/>
-      <c r="AK31" s="4"/>
-      <c r="AL31" s="4"/>
-      <c r="AM31" s="4"/>
-      <c r="AN31" s="38"/>
-    </row>
-    <row r="32" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG31" s="38"/>
+    </row>
+    <row r="32" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B32" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="F32" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3307,17 +3272,17 @@
         <f t="shared" si="1"/>
         <v>45159</v>
       </c>
-      <c r="K32" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L32" s="88"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="K32" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" s="82"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="65"/>
+      <c r="S32" s="61"/>
       <c r="T32" s="9"/>
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
@@ -3325,27 +3290,22 @@
       <c r="X32" s="4"/>
       <c r="Y32" s="4"/>
       <c r="Z32" s="38"/>
-      <c r="AA32" s="61"/>
+      <c r="AA32" s="59"/>
       <c r="AB32" s="4"/>
       <c r="AC32" s="4"/>
       <c r="AD32" s="4"/>
       <c r="AE32" s="4"/>
       <c r="AF32" s="4"/>
-      <c r="AG32" s="65"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="4"/>
-      <c r="AJ32" s="4"/>
-      <c r="AK32" s="4"/>
-      <c r="AL32" s="4"/>
-      <c r="AM32" s="4"/>
-      <c r="AN32" s="38"/>
-    </row>
-    <row r="33" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="9"/>
+      <c r="AG32" s="38"/>
+    </row>
+    <row r="33" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="9" t="s">
+        <v>162</v>
+      </c>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F33" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3360,17 +3320,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K33" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L33" s="88"/>
+      <c r="K33" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" s="82"/>
       <c r="M33" s="4"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="65"/>
+      <c r="S33" s="61"/>
       <c r="T33" s="9"/>
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
@@ -3378,29 +3338,22 @@
       <c r="X33" s="4"/>
       <c r="Y33" s="4"/>
       <c r="Z33" s="38"/>
-      <c r="AA33" s="61"/>
+      <c r="AA33" s="59"/>
       <c r="AB33" s="4"/>
       <c r="AC33" s="4"/>
       <c r="AD33" s="4"/>
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
-      <c r="AG33" s="65"/>
-      <c r="AH33" s="9"/>
-      <c r="AI33" s="4"/>
-      <c r="AJ33" s="4"/>
-      <c r="AK33" s="4"/>
-      <c r="AL33" s="4"/>
-      <c r="AM33" s="4"/>
-      <c r="AN33" s="38"/>
-    </row>
-    <row r="34" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG33" s="38"/>
+    </row>
+    <row r="34" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="F34" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3419,17 +3372,17 @@
         <f t="shared" si="1"/>
         <v>45159</v>
       </c>
-      <c r="K34" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L34" s="88"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
+      <c r="K34" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" s="82"/>
+      <c r="M34" s="114"/>
+      <c r="N34" s="114"/>
       <c r="O34" s="4"/>
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
       <c r="R34" s="4"/>
-      <c r="S34" s="65"/>
+      <c r="S34" s="61"/>
       <c r="T34" s="9"/>
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
@@ -3437,87 +3390,76 @@
       <c r="X34" s="4"/>
       <c r="Y34" s="4"/>
       <c r="Z34" s="38"/>
-      <c r="AA34" s="61"/>
+      <c r="AA34" s="59"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
       <c r="AD34" s="4"/>
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
-      <c r="AG34" s="65"/>
-      <c r="AH34" s="9"/>
-      <c r="AI34" s="4"/>
-      <c r="AJ34" s="4"/>
-      <c r="AK34" s="4"/>
-      <c r="AL34" s="4"/>
-      <c r="AM34" s="4"/>
-      <c r="AN34" s="38"/>
-    </row>
-    <row r="35" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG34" s="38"/>
+    </row>
+    <row r="35" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="9" t="s">
-        <v>70</v>
+        <v>163</v>
       </c>
       <c r="C35" s="5"/>
       <c r="D35" s="5" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G35" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" s="4">
-        <f>SUM(H36:H38)</f>
-        <v>1</v>
-      </c>
-      <c r="I35" s="48"/>
+        <f>J35-I35</f>
+        <v>14</v>
+      </c>
+      <c r="I35" s="48">
+        <f>MIN(I36:I38)</f>
+        <v>45158</v>
+      </c>
       <c r="J35" s="46">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K35" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L35" s="88"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
-      <c r="P35" s="4"/>
-      <c r="Q35" s="4"/>
-      <c r="R35" s="4"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="9"/>
-      <c r="U35" s="4"/>
-      <c r="V35" s="4"/>
-      <c r="W35" s="4"/>
-      <c r="X35" s="4"/>
-      <c r="Y35" s="4"/>
-      <c r="Z35" s="38"/>
-      <c r="AA35" s="61"/>
+        <f>MAX(J36:J38)</f>
+        <v>45172</v>
+      </c>
+      <c r="K35" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" s="82"/>
+      <c r="M35" s="114"/>
+      <c r="N35" s="114"/>
+      <c r="O35" s="114"/>
+      <c r="P35" s="114"/>
+      <c r="Q35" s="114"/>
+      <c r="R35" s="114"/>
+      <c r="S35" s="127"/>
+      <c r="T35" s="115"/>
+      <c r="U35" s="114"/>
+      <c r="V35" s="114"/>
+      <c r="W35" s="114"/>
+      <c r="X35" s="114"/>
+      <c r="Y35" s="114"/>
+      <c r="Z35" s="116"/>
+      <c r="AA35" s="59"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
       <c r="AD35" s="4"/>
       <c r="AE35" s="4"/>
       <c r="AF35" s="4"/>
-      <c r="AG35" s="65"/>
-      <c r="AH35" s="9"/>
-      <c r="AI35" s="4"/>
-      <c r="AJ35" s="4"/>
-      <c r="AK35" s="4"/>
-      <c r="AL35" s="4"/>
-      <c r="AM35" s="4"/>
-      <c r="AN35" s="38"/>
-    </row>
-    <row r="36" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG35" s="38"/>
+    </row>
+    <row r="36" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="F36" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3536,214 +3478,197 @@
         <f t="shared" ref="J36:J44" si="2">I36+H36</f>
         <v>45159</v>
       </c>
-      <c r="K36" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L36" s="88"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
+      <c r="K36" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" s="82"/>
+      <c r="M36" s="114"/>
+      <c r="N36" s="114"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="9"/>
-      <c r="U36" s="4"/>
-      <c r="V36" s="4"/>
-      <c r="W36" s="4"/>
-      <c r="X36" s="4"/>
-      <c r="Y36" s="4"/>
-      <c r="Z36" s="38"/>
-      <c r="AA36" s="61"/>
+      <c r="S36" s="61"/>
+      <c r="T36" s="124"/>
+      <c r="U36" s="125"/>
+      <c r="V36" s="125"/>
+      <c r="W36" s="125"/>
+      <c r="X36" s="125"/>
+      <c r="Y36" s="125"/>
+      <c r="Z36" s="126"/>
+      <c r="AA36" s="59"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
       <c r="AD36" s="4"/>
       <c r="AE36" s="4"/>
       <c r="AF36" s="4"/>
-      <c r="AG36" s="65"/>
-      <c r="AH36" s="9"/>
-      <c r="AI36" s="4"/>
-      <c r="AJ36" s="4"/>
-      <c r="AK36" s="4"/>
-      <c r="AL36" s="4"/>
-      <c r="AM36" s="4"/>
-      <c r="AN36" s="38"/>
-    </row>
-    <row r="37" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG36" s="38"/>
+    </row>
+    <row r="37" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="9" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="F37" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G37" s="8">
-        <v>0</v>
-      </c>
-      <c r="H37" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="H37" s="4">
+        <v>7</v>
+      </c>
       <c r="I37" s="48">
-        <v>45171</v>
+        <v>45165</v>
       </c>
       <c r="J37" s="46">
         <f t="shared" si="1"/>
-        <v>45171</v>
-      </c>
-      <c r="K37" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L37" s="88"/>
+        <v>45172</v>
+      </c>
+      <c r="K37" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" s="82"/>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="9"/>
-      <c r="U37" s="4"/>
-      <c r="V37" s="4"/>
-      <c r="W37" s="4"/>
-      <c r="X37" s="4"/>
-      <c r="Y37" s="4"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="61"/>
+      <c r="S37" s="61"/>
+      <c r="T37" s="115"/>
+      <c r="U37" s="114"/>
+      <c r="V37" s="114"/>
+      <c r="W37" s="114"/>
+      <c r="X37" s="114"/>
+      <c r="Y37" s="114"/>
+      <c r="Z37" s="116"/>
+      <c r="AA37" s="59"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
       <c r="AD37" s="4"/>
       <c r="AE37" s="4"/>
       <c r="AF37" s="4"/>
-      <c r="AG37" s="65"/>
-      <c r="AH37" s="9"/>
-      <c r="AI37" s="4"/>
-      <c r="AJ37" s="4"/>
-      <c r="AK37" s="4"/>
-      <c r="AL37" s="4"/>
-      <c r="AM37" s="4"/>
-      <c r="AN37" s="38"/>
-    </row>
-    <row r="38" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG37" s="38"/>
+    </row>
+    <row r="38" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F38" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G38" s="8">
-        <v>0</v>
-      </c>
-      <c r="H38" s="4"/>
-      <c r="I38" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="H38" s="4">
+        <v>7</v>
+      </c>
+      <c r="I38" s="48">
+        <v>45165</v>
+      </c>
       <c r="J38" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L38" s="88"/>
+        <v>45172</v>
+      </c>
+      <c r="K38" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" s="82"/>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="9"/>
-      <c r="U38" s="4"/>
-      <c r="V38" s="4"/>
-      <c r="W38" s="4"/>
-      <c r="X38" s="4"/>
-      <c r="Y38" s="4"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="61"/>
+      <c r="S38" s="61"/>
+      <c r="T38" s="115"/>
+      <c r="U38" s="114"/>
+      <c r="V38" s="114"/>
+      <c r="W38" s="114"/>
+      <c r="X38" s="114"/>
+      <c r="Y38" s="114"/>
+      <c r="Z38" s="116"/>
+      <c r="AA38" s="59"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
       <c r="AD38" s="4"/>
       <c r="AE38" s="4"/>
       <c r="AF38" s="4"/>
-      <c r="AG38" s="65"/>
-      <c r="AH38" s="9"/>
-      <c r="AI38" s="4"/>
-      <c r="AJ38" s="4"/>
-      <c r="AK38" s="4"/>
-      <c r="AL38" s="4"/>
-      <c r="AM38" s="4"/>
-      <c r="AN38" s="38"/>
-    </row>
-    <row r="39" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG38" s="38"/>
+    </row>
+    <row r="39" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C39" s="5"/>
       <c r="D39" s="5" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G39" s="8">
-        <v>0</v>
-      </c>
-      <c r="H39" s="4"/>
-      <c r="I39" s="48"/>
+        <v>1</v>
+      </c>
+      <c r="H39" s="4">
+        <v>7</v>
+      </c>
+      <c r="I39" s="48">
+        <f>MIN(I40:I44)</f>
+        <v>45165</v>
+      </c>
       <c r="J39" s="46">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L39" s="88"/>
+        <v>45172</v>
+      </c>
+      <c r="K39" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" s="82"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
-      <c r="S39" s="65"/>
-      <c r="T39" s="9"/>
-      <c r="U39" s="4"/>
-      <c r="V39" s="4"/>
-      <c r="W39" s="4"/>
-      <c r="X39" s="4"/>
-      <c r="Y39" s="4"/>
-      <c r="Z39" s="38"/>
-      <c r="AA39" s="61"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="115"/>
+      <c r="U39" s="114"/>
+      <c r="V39" s="114"/>
+      <c r="W39" s="114"/>
+      <c r="X39" s="114"/>
+      <c r="Y39" s="114"/>
+      <c r="Z39" s="116"/>
+      <c r="AA39" s="59"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
       <c r="AD39" s="4"/>
       <c r="AE39" s="4"/>
       <c r="AF39" s="4"/>
-      <c r="AG39" s="65"/>
-      <c r="AH39" s="9"/>
-      <c r="AI39" s="4"/>
-      <c r="AJ39" s="4"/>
-      <c r="AK39" s="4"/>
-      <c r="AL39" s="4"/>
-      <c r="AM39" s="4"/>
-      <c r="AN39" s="38"/>
-    </row>
-    <row r="40" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG39" s="38"/>
+    </row>
+    <row r="40" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="F40" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3762,47 +3687,40 @@
         <f t="shared" si="2"/>
         <v>45166</v>
       </c>
-      <c r="K40" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L40" s="88"/>
+      <c r="K40" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" s="82"/>
       <c r="M40" s="4"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
-      <c r="S40" s="65"/>
-      <c r="T40" s="9"/>
-      <c r="U40" s="4"/>
+      <c r="S40" s="61"/>
+      <c r="T40" s="115"/>
+      <c r="U40" s="114"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
       <c r="Y40" s="4"/>
       <c r="Z40" s="38"/>
-      <c r="AA40" s="61"/>
+      <c r="AA40" s="59"/>
       <c r="AB40" s="4"/>
       <c r="AC40" s="4"/>
       <c r="AD40" s="4"/>
       <c r="AE40" s="4"/>
       <c r="AF40" s="4"/>
-      <c r="AG40" s="65"/>
-      <c r="AH40" s="9"/>
-      <c r="AI40" s="4"/>
-      <c r="AJ40" s="4"/>
-      <c r="AK40" s="4"/>
-      <c r="AL40" s="4"/>
-      <c r="AM40" s="4"/>
-      <c r="AN40" s="38"/>
-    </row>
-    <row r="41" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG40" s="38"/>
+    </row>
+    <row r="41" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="9" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F41" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3821,47 +3739,40 @@
         <f t="shared" si="2"/>
         <v>45166</v>
       </c>
-      <c r="K41" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L41" s="88"/>
+      <c r="K41" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" s="82"/>
       <c r="M41" s="4"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
-      <c r="S41" s="65"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="4"/>
+      <c r="S41" s="61"/>
+      <c r="T41" s="115"/>
+      <c r="U41" s="114"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
       <c r="Z41" s="38"/>
-      <c r="AA41" s="61"/>
+      <c r="AA41" s="59"/>
       <c r="AB41" s="4"/>
       <c r="AC41" s="4"/>
       <c r="AD41" s="4"/>
       <c r="AE41" s="4"/>
       <c r="AF41" s="4"/>
-      <c r="AG41" s="65"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="4"/>
-      <c r="AJ41" s="4"/>
-      <c r="AK41" s="4"/>
-      <c r="AL41" s="4"/>
-      <c r="AM41" s="4"/>
-      <c r="AN41" s="38"/>
-    </row>
-    <row r="42" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG41" s="38"/>
+    </row>
+    <row r="42" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B42" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F42" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3880,47 +3791,40 @@
         <f t="shared" si="2"/>
         <v>45167</v>
       </c>
-      <c r="K42" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L42" s="88"/>
+      <c r="K42" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="82"/>
       <c r="M42" s="4"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
       <c r="R42" s="4"/>
-      <c r="S42" s="65"/>
+      <c r="S42" s="61"/>
       <c r="T42" s="9"/>
-      <c r="U42" s="4"/>
-      <c r="V42" s="4"/>
+      <c r="U42" s="114"/>
+      <c r="V42" s="114"/>
       <c r="W42" s="4"/>
       <c r="X42" s="4"/>
       <c r="Y42" s="4"/>
       <c r="Z42" s="38"/>
-      <c r="AA42" s="61"/>
+      <c r="AA42" s="59"/>
       <c r="AB42" s="4"/>
       <c r="AC42" s="4"/>
       <c r="AD42" s="4"/>
       <c r="AE42" s="4"/>
       <c r="AF42" s="4"/>
-      <c r="AG42" s="65"/>
-      <c r="AH42" s="9"/>
-      <c r="AI42" s="4"/>
-      <c r="AJ42" s="4"/>
-      <c r="AK42" s="4"/>
-      <c r="AL42" s="4"/>
-      <c r="AM42" s="4"/>
-      <c r="AN42" s="38"/>
-    </row>
-    <row r="43" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG42" s="38"/>
+    </row>
+    <row r="43" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B43" s="17" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C43" s="18"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="F43" s="19" t="str">
         <f t="shared" si="0"/>
@@ -3932,107 +3836,97 @@
       <c r="H43" s="21">
         <v>1</v>
       </c>
-      <c r="I43" s="92">
+      <c r="I43" s="86">
         <v>45165</v>
       </c>
       <c r="J43" s="46">
         <f t="shared" si="2"/>
         <v>45166</v>
       </c>
-      <c r="K43" s="80" t="s">
-        <v>52</v>
-      </c>
-      <c r="L43" s="90"/>
+      <c r="K43" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="84"/>
       <c r="M43" s="21"/>
       <c r="N43" s="21"/>
       <c r="O43" s="21"/>
       <c r="P43" s="21"/>
       <c r="Q43" s="21"/>
       <c r="R43" s="21"/>
-      <c r="S43" s="69"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="21"/>
+      <c r="S43" s="64"/>
+      <c r="T43" s="117"/>
+      <c r="U43" s="118"/>
       <c r="V43" s="21"/>
       <c r="W43" s="21"/>
       <c r="X43" s="21"/>
       <c r="Y43" s="21"/>
-      <c r="Z43" s="70"/>
-      <c r="AA43" s="71"/>
+      <c r="Z43" s="65"/>
+      <c r="AA43" s="66"/>
       <c r="AB43" s="21"/>
       <c r="AC43" s="21"/>
       <c r="AD43" s="21"/>
       <c r="AE43" s="21"/>
       <c r="AF43" s="21"/>
-      <c r="AG43" s="69"/>
-      <c r="AH43" s="17"/>
-      <c r="AI43" s="21"/>
-      <c r="AJ43" s="21"/>
-      <c r="AK43" s="21"/>
-      <c r="AL43" s="21"/>
-      <c r="AM43" s="21"/>
-      <c r="AN43" s="70"/>
-    </row>
-    <row r="44" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AG43" s="65"/>
+    </row>
+    <row r="44" spans="2:33" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B44" s="10" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F44" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G44" s="13">
-        <v>0</v>
-      </c>
-      <c r="H44" s="14"/>
-      <c r="I44" s="52"/>
+        <v>1</v>
+      </c>
+      <c r="H44" s="14">
+        <v>1</v>
+      </c>
+      <c r="I44" s="52">
+        <v>45171</v>
+      </c>
       <c r="J44" s="47">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K44" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="L44" s="89"/>
+        <v>45172</v>
+      </c>
+      <c r="K44" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="83"/>
       <c r="M44" s="14"/>
       <c r="N44" s="14"/>
       <c r="O44" s="14"/>
       <c r="P44" s="14"/>
       <c r="Q44" s="14"/>
       <c r="R44" s="14"/>
-      <c r="S44" s="66"/>
+      <c r="S44" s="62"/>
       <c r="T44" s="10"/>
       <c r="U44" s="14"/>
       <c r="V44" s="14"/>
       <c r="W44" s="14"/>
       <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="39"/>
-      <c r="AA44" s="60"/>
+      <c r="Y44" s="119"/>
+      <c r="Z44" s="120"/>
+      <c r="AA44" s="58"/>
       <c r="AB44" s="14"/>
       <c r="AC44" s="14"/>
       <c r="AD44" s="14"/>
       <c r="AE44" s="14"/>
       <c r="AF44" s="14"/>
-      <c r="AG44" s="66"/>
-      <c r="AH44" s="10"/>
-      <c r="AI44" s="14"/>
-      <c r="AJ44" s="14"/>
-      <c r="AK44" s="14"/>
-      <c r="AL44" s="14"/>
-      <c r="AM44" s="14"/>
-      <c r="AN44" s="39"/>
-    </row>
-    <row r="45" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG44" s="39"/>
+    </row>
+    <row r="45" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B45" s="29" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
@@ -4055,17 +3949,17 @@
         <f t="shared" si="1"/>
         <v>45164</v>
       </c>
-      <c r="K45" s="83" t="s">
-        <v>52</v>
-      </c>
-      <c r="L45" s="91"/>
+      <c r="K45" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="85"/>
       <c r="M45" s="15"/>
       <c r="N45" s="15"/>
       <c r="O45" s="15"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="15"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="67"/>
+      <c r="P45" s="128"/>
+      <c r="Q45" s="128"/>
+      <c r="R45" s="128"/>
+      <c r="S45" s="133"/>
       <c r="T45" s="56"/>
       <c r="U45" s="15"/>
       <c r="V45" s="15"/>
@@ -4073,28 +3967,21 @@
       <c r="X45" s="15"/>
       <c r="Y45" s="15"/>
       <c r="Z45" s="57"/>
-      <c r="AA45" s="68"/>
+      <c r="AA45" s="63"/>
       <c r="AB45" s="15"/>
       <c r="AC45" s="15"/>
       <c r="AD45" s="15"/>
       <c r="AE45" s="15"/>
       <c r="AF45" s="15"/>
-      <c r="AG45" s="67"/>
-      <c r="AH45" s="56"/>
-      <c r="AI45" s="15"/>
-      <c r="AJ45" s="15"/>
-      <c r="AK45" s="15"/>
-      <c r="AL45" s="15"/>
-      <c r="AM45" s="15"/>
-      <c r="AN45" s="57"/>
-    </row>
-    <row r="46" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG45" s="57"/>
+    </row>
+    <row r="46" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="9" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C46" s="5"/>
       <c r="D46" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="7" t="str">
@@ -4114,17 +4001,17 @@
         <f t="shared" si="1"/>
         <v>45162</v>
       </c>
-      <c r="K46" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L46" s="88"/>
+      <c r="K46" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" s="82"/>
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
+      <c r="P46" s="129"/>
+      <c r="Q46" s="129"/>
       <c r="R46" s="4"/>
-      <c r="S46" s="65"/>
+      <c r="S46" s="61"/>
       <c r="T46" s="9"/>
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
@@ -4132,29 +4019,22 @@
       <c r="X46" s="4"/>
       <c r="Y46" s="4"/>
       <c r="Z46" s="38"/>
-      <c r="AA46" s="61"/>
+      <c r="AA46" s="59"/>
       <c r="AB46" s="4"/>
       <c r="AC46" s="4"/>
       <c r="AD46" s="4"/>
       <c r="AE46" s="4"/>
       <c r="AF46" s="4"/>
-      <c r="AG46" s="65"/>
-      <c r="AH46" s="9"/>
-      <c r="AI46" s="4"/>
-      <c r="AJ46" s="4"/>
-      <c r="AK46" s="4"/>
-      <c r="AL46" s="4"/>
-      <c r="AM46" s="4"/>
-      <c r="AN46" s="38"/>
-    </row>
-    <row r="47" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG46" s="38"/>
+    </row>
+    <row r="47" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="9" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="F47" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4173,17 +4053,17 @@
         <f t="shared" si="1"/>
         <v>45162</v>
       </c>
-      <c r="K47" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L47" s="88"/>
+      <c r="K47" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" s="82"/>
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="4"/>
-      <c r="Q47" s="4"/>
+      <c r="P47" s="129"/>
+      <c r="Q47" s="129"/>
       <c r="R47" s="4"/>
-      <c r="S47" s="65"/>
+      <c r="S47" s="61"/>
       <c r="T47" s="9"/>
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
@@ -4191,29 +4071,22 @@
       <c r="X47" s="4"/>
       <c r="Y47" s="4"/>
       <c r="Z47" s="38"/>
-      <c r="AA47" s="61"/>
+      <c r="AA47" s="59"/>
       <c r="AB47" s="4"/>
       <c r="AC47" s="4"/>
       <c r="AD47" s="4"/>
       <c r="AE47" s="4"/>
       <c r="AF47" s="4"/>
-      <c r="AG47" s="65"/>
-      <c r="AH47" s="9"/>
-      <c r="AI47" s="4"/>
-      <c r="AJ47" s="4"/>
-      <c r="AK47" s="4"/>
-      <c r="AL47" s="4"/>
-      <c r="AM47" s="4"/>
-      <c r="AN47" s="38"/>
-    </row>
-    <row r="48" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG47" s="38"/>
+    </row>
+    <row r="48" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="9" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="F48" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4232,17 +4105,17 @@
         <f t="shared" si="1"/>
         <v>45162</v>
       </c>
-      <c r="K48" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L48" s="88"/>
+      <c r="K48" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" s="82"/>
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="4"/>
-      <c r="Q48" s="4"/>
+      <c r="P48" s="129"/>
+      <c r="Q48" s="129"/>
       <c r="R48" s="4"/>
-      <c r="S48" s="65"/>
+      <c r="S48" s="61"/>
       <c r="T48" s="9"/>
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
@@ -4250,29 +4123,22 @@
       <c r="X48" s="4"/>
       <c r="Y48" s="4"/>
       <c r="Z48" s="38"/>
-      <c r="AA48" s="61"/>
+      <c r="AA48" s="59"/>
       <c r="AB48" s="4"/>
       <c r="AC48" s="4"/>
       <c r="AD48" s="4"/>
       <c r="AE48" s="4"/>
       <c r="AF48" s="4"/>
-      <c r="AG48" s="65"/>
-      <c r="AH48" s="9"/>
-      <c r="AI48" s="4"/>
-      <c r="AJ48" s="4"/>
-      <c r="AK48" s="4"/>
-      <c r="AL48" s="4"/>
-      <c r="AM48" s="4"/>
-      <c r="AN48" s="38"/>
-    </row>
-    <row r="49" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG48" s="38"/>
+    </row>
+    <row r="49" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="9" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="F49" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4291,17 +4157,17 @@
         <f t="shared" si="1"/>
         <v>45162</v>
       </c>
-      <c r="K49" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L49" s="88"/>
+      <c r="K49" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" s="82"/>
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="4"/>
-      <c r="Q49" s="4"/>
+      <c r="P49" s="129"/>
+      <c r="Q49" s="129"/>
       <c r="R49" s="4"/>
-      <c r="S49" s="65"/>
+      <c r="S49" s="61"/>
       <c r="T49" s="9"/>
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
@@ -4309,29 +4175,22 @@
       <c r="X49" s="4"/>
       <c r="Y49" s="4"/>
       <c r="Z49" s="38"/>
-      <c r="AA49" s="61"/>
+      <c r="AA49" s="59"/>
       <c r="AB49" s="4"/>
       <c r="AC49" s="4"/>
       <c r="AD49" s="4"/>
       <c r="AE49" s="4"/>
       <c r="AF49" s="4"/>
-      <c r="AG49" s="65"/>
-      <c r="AH49" s="9"/>
-      <c r="AI49" s="4"/>
-      <c r="AJ49" s="4"/>
-      <c r="AK49" s="4"/>
-      <c r="AL49" s="4"/>
-      <c r="AM49" s="4"/>
-      <c r="AN49" s="38"/>
-    </row>
-    <row r="50" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG49" s="38"/>
+    </row>
+    <row r="50" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="9" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="F50" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4350,17 +4209,17 @@
         <f t="shared" si="1"/>
         <v>45162</v>
       </c>
-      <c r="K50" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L50" s="88"/>
+      <c r="K50" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" s="82"/>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
-      <c r="P50" s="4"/>
-      <c r="Q50" s="4"/>
+      <c r="P50" s="129"/>
+      <c r="Q50" s="129"/>
       <c r="R50" s="4"/>
-      <c r="S50" s="65"/>
+      <c r="S50" s="61"/>
       <c r="T50" s="9"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
@@ -4368,28 +4227,21 @@
       <c r="X50" s="4"/>
       <c r="Y50" s="4"/>
       <c r="Z50" s="38"/>
-      <c r="AA50" s="61"/>
+      <c r="AA50" s="59"/>
       <c r="AB50" s="4"/>
       <c r="AC50" s="4"/>
       <c r="AD50" s="4"/>
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
-      <c r="AG50" s="65"/>
-      <c r="AH50" s="9"/>
-      <c r="AI50" s="4"/>
-      <c r="AJ50" s="4"/>
-      <c r="AK50" s="4"/>
-      <c r="AL50" s="4"/>
-      <c r="AM50" s="4"/>
-      <c r="AN50" s="38"/>
-    </row>
-    <row r="51" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG50" s="38"/>
+    </row>
+    <row r="51" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="7" t="str">
@@ -4409,17 +4261,17 @@
         <f t="shared" si="1"/>
         <v>45164</v>
       </c>
-      <c r="K51" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L51" s="88"/>
+      <c r="K51" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L51" s="82"/>
       <c r="M51" s="4"/>
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
-      <c r="R51" s="4"/>
-      <c r="S51" s="65"/>
+      <c r="R51" s="129"/>
+      <c r="S51" s="130"/>
       <c r="T51" s="9"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
@@ -4427,29 +4279,22 @@
       <c r="X51" s="4"/>
       <c r="Y51" s="4"/>
       <c r="Z51" s="38"/>
-      <c r="AA51" s="61"/>
+      <c r="AA51" s="59"/>
       <c r="AB51" s="4"/>
       <c r="AC51" s="4"/>
       <c r="AD51" s="4"/>
       <c r="AE51" s="4"/>
       <c r="AF51" s="4"/>
-      <c r="AG51" s="65"/>
-      <c r="AH51" s="9"/>
-      <c r="AI51" s="4"/>
-      <c r="AJ51" s="4"/>
-      <c r="AK51" s="4"/>
-      <c r="AL51" s="4"/>
-      <c r="AM51" s="4"/>
-      <c r="AN51" s="38"/>
-    </row>
-    <row r="52" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG51" s="38"/>
+    </row>
+    <row r="52" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="F52" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4468,17 +4313,17 @@
         <f t="shared" si="1"/>
         <v>45164</v>
       </c>
-      <c r="K52" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L52" s="88"/>
+      <c r="K52" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" s="82"/>
       <c r="M52" s="4"/>
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
-      <c r="R52" s="4"/>
-      <c r="S52" s="65"/>
+      <c r="R52" s="129"/>
+      <c r="S52" s="130"/>
       <c r="T52" s="9"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
@@ -4486,29 +4331,22 @@
       <c r="X52" s="4"/>
       <c r="Y52" s="4"/>
       <c r="Z52" s="38"/>
-      <c r="AA52" s="61"/>
+      <c r="AA52" s="59"/>
       <c r="AB52" s="4"/>
       <c r="AC52" s="4"/>
       <c r="AD52" s="4"/>
       <c r="AE52" s="4"/>
       <c r="AF52" s="4"/>
-      <c r="AG52" s="65"/>
-      <c r="AH52" s="9"/>
-      <c r="AI52" s="4"/>
-      <c r="AJ52" s="4"/>
-      <c r="AK52" s="4"/>
-      <c r="AL52" s="4"/>
-      <c r="AM52" s="4"/>
-      <c r="AN52" s="38"/>
-    </row>
-    <row r="53" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG52" s="38"/>
+    </row>
+    <row r="53" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="9" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="F53" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4527,17 +4365,17 @@
         <f t="shared" si="1"/>
         <v>45164</v>
       </c>
-      <c r="K53" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L53" s="88"/>
+      <c r="K53" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" s="82"/>
       <c r="M53" s="4"/>
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
-      <c r="R53" s="4"/>
-      <c r="S53" s="65"/>
+      <c r="R53" s="129"/>
+      <c r="S53" s="130"/>
       <c r="T53" s="9"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
@@ -4545,29 +4383,22 @@
       <c r="X53" s="4"/>
       <c r="Y53" s="4"/>
       <c r="Z53" s="38"/>
-      <c r="AA53" s="61"/>
+      <c r="AA53" s="59"/>
       <c r="AB53" s="4"/>
       <c r="AC53" s="4"/>
       <c r="AD53" s="4"/>
       <c r="AE53" s="4"/>
       <c r="AF53" s="4"/>
-      <c r="AG53" s="65"/>
-      <c r="AH53" s="9"/>
-      <c r="AI53" s="4"/>
-      <c r="AJ53" s="4"/>
-      <c r="AK53" s="4"/>
-      <c r="AL53" s="4"/>
-      <c r="AM53" s="4"/>
-      <c r="AN53" s="38"/>
-    </row>
-    <row r="54" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG53" s="38"/>
+    </row>
+    <row r="54" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B54" s="9" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F54" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4586,17 +4417,17 @@
         <f t="shared" si="1"/>
         <v>45164</v>
       </c>
-      <c r="K54" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L54" s="88"/>
+      <c r="K54" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" s="82"/>
       <c r="M54" s="4"/>
       <c r="N54" s="4"/>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
-      <c r="R54" s="4"/>
-      <c r="S54" s="65"/>
+      <c r="R54" s="129"/>
+      <c r="S54" s="130"/>
       <c r="T54" s="9"/>
       <c r="U54" s="4"/>
       <c r="V54" s="4"/>
@@ -4604,29 +4435,22 @@
       <c r="X54" s="4"/>
       <c r="Y54" s="4"/>
       <c r="Z54" s="38"/>
-      <c r="AA54" s="61"/>
+      <c r="AA54" s="59"/>
       <c r="AB54" s="4"/>
       <c r="AC54" s="4"/>
       <c r="AD54" s="4"/>
       <c r="AE54" s="4"/>
       <c r="AF54" s="4"/>
-      <c r="AG54" s="65"/>
-      <c r="AH54" s="9"/>
-      <c r="AI54" s="4"/>
-      <c r="AJ54" s="4"/>
-      <c r="AK54" s="4"/>
-      <c r="AL54" s="4"/>
-      <c r="AM54" s="4"/>
-      <c r="AN54" s="38"/>
-    </row>
-    <row r="55" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AG54" s="38"/>
+    </row>
+    <row r="55" spans="2:33" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B55" s="10" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="F55" s="12" t="str">
         <f t="shared" si="0"/>
@@ -4645,54 +4469,47 @@
         <f t="shared" si="1"/>
         <v>45164</v>
       </c>
-      <c r="K55" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="L55" s="90"/>
+      <c r="K55" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" s="84"/>
       <c r="M55" s="21"/>
       <c r="N55" s="21"/>
       <c r="O55" s="21"/>
       <c r="P55" s="21"/>
       <c r="Q55" s="21"/>
-      <c r="R55" s="21"/>
-      <c r="S55" s="69"/>
+      <c r="R55" s="131"/>
+      <c r="S55" s="132"/>
       <c r="T55" s="17"/>
       <c r="U55" s="21"/>
       <c r="V55" s="21"/>
       <c r="W55" s="21"/>
       <c r="X55" s="21"/>
       <c r="Y55" s="21"/>
-      <c r="Z55" s="70"/>
-      <c r="AA55" s="71"/>
+      <c r="Z55" s="65"/>
+      <c r="AA55" s="66"/>
       <c r="AB55" s="21"/>
       <c r="AC55" s="21"/>
       <c r="AD55" s="21"/>
       <c r="AE55" s="21"/>
       <c r="AF55" s="21"/>
-      <c r="AG55" s="69"/>
-      <c r="AH55" s="17"/>
-      <c r="AI55" s="21"/>
-      <c r="AJ55" s="21"/>
-      <c r="AK55" s="21"/>
-      <c r="AL55" s="21"/>
-      <c r="AM55" s="21"/>
-      <c r="AN55" s="70"/>
-    </row>
-    <row r="56" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG55" s="65"/>
+    </row>
+    <row r="56" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B56" s="33" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C56" s="34" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D56" s="34"/>
       <c r="E56" s="34"/>
       <c r="F56" s="35" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G56" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56" s="23">
         <v>8</v>
@@ -4705,46 +4522,39 @@
         <f t="shared" si="1"/>
         <v>45172</v>
       </c>
-      <c r="K56" s="84" t="s">
-        <v>52</v>
-      </c>
-      <c r="L56" s="87"/>
+      <c r="K56" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" s="81"/>
       <c r="M56" s="16"/>
       <c r="N56" s="16"/>
       <c r="O56" s="16"/>
       <c r="P56" s="16"/>
       <c r="Q56" s="16"/>
       <c r="R56" s="16"/>
-      <c r="S56" s="62"/>
-      <c r="T56" s="63"/>
-      <c r="U56" s="16"/>
-      <c r="V56" s="16"/>
-      <c r="W56" s="16"/>
-      <c r="X56" s="16"/>
-      <c r="Y56" s="16"/>
-      <c r="Z56" s="55"/>
-      <c r="AA56" s="64"/>
-      <c r="AB56" s="16"/>
+      <c r="S56" s="141"/>
+      <c r="T56" s="142"/>
+      <c r="U56" s="143"/>
+      <c r="V56" s="143"/>
+      <c r="W56" s="143"/>
+      <c r="X56" s="143"/>
+      <c r="Y56" s="143"/>
+      <c r="Z56" s="144"/>
+      <c r="AA56" s="145"/>
+      <c r="AB56" s="143"/>
       <c r="AC56" s="16"/>
       <c r="AD56" s="16"/>
       <c r="AE56" s="16"/>
       <c r="AF56" s="16"/>
-      <c r="AG56" s="62"/>
-      <c r="AH56" s="63"/>
-      <c r="AI56" s="16"/>
-      <c r="AJ56" s="16"/>
-      <c r="AK56" s="16"/>
-      <c r="AL56" s="16"/>
-      <c r="AM56" s="16"/>
-      <c r="AN56" s="55"/>
-    </row>
-    <row r="57" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG56" s="55"/>
+    </row>
+    <row r="57" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="9" t="s">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="7" t="str">
@@ -4764,47 +4574,40 @@
         <f t="shared" si="1"/>
         <v>45166</v>
       </c>
-      <c r="K57" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L57" s="88"/>
+      <c r="K57" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L57" s="82"/>
       <c r="M57" s="4"/>
       <c r="N57" s="4"/>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="65"/>
-      <c r="T57" s="9"/>
-      <c r="U57" s="4"/>
+      <c r="S57" s="134"/>
+      <c r="T57" s="135"/>
+      <c r="U57" s="136"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
       <c r="Y57" s="4"/>
       <c r="Z57" s="38"/>
-      <c r="AA57" s="61"/>
+      <c r="AA57" s="59"/>
       <c r="AB57" s="4"/>
       <c r="AC57" s="4"/>
       <c r="AD57" s="4"/>
       <c r="AE57" s="4"/>
       <c r="AF57" s="4"/>
-      <c r="AG57" s="65"/>
-      <c r="AH57" s="9"/>
-      <c r="AI57" s="4"/>
-      <c r="AJ57" s="4"/>
-      <c r="AK57" s="4"/>
-      <c r="AL57" s="4"/>
-      <c r="AM57" s="4"/>
-      <c r="AN57" s="38"/>
-    </row>
-    <row r="58" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG57" s="38"/>
+    </row>
+    <row r="58" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="F58" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4823,47 +4626,40 @@
         <f t="shared" si="1"/>
         <v>45166</v>
       </c>
-      <c r="K58" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L58" s="88"/>
+      <c r="K58" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L58" s="82"/>
       <c r="M58" s="4"/>
       <c r="N58" s="4"/>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="65"/>
-      <c r="T58" s="9"/>
-      <c r="U58" s="4"/>
+      <c r="S58" s="134"/>
+      <c r="T58" s="135"/>
+      <c r="U58" s="136"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
       <c r="Y58" s="4"/>
       <c r="Z58" s="38"/>
-      <c r="AA58" s="61"/>
+      <c r="AA58" s="59"/>
       <c r="AB58" s="4"/>
       <c r="AC58" s="4"/>
       <c r="AD58" s="4"/>
       <c r="AE58" s="4"/>
       <c r="AF58" s="4"/>
-      <c r="AG58" s="65"/>
-      <c r="AH58" s="9"/>
-      <c r="AI58" s="4"/>
-      <c r="AJ58" s="4"/>
-      <c r="AK58" s="4"/>
-      <c r="AL58" s="4"/>
-      <c r="AM58" s="4"/>
-      <c r="AN58" s="38"/>
-    </row>
-    <row r="59" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG58" s="38"/>
+    </row>
+    <row r="59" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F59" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4882,46 +4678,39 @@
         <f t="shared" si="1"/>
         <v>45166</v>
       </c>
-      <c r="K59" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L59" s="88"/>
+      <c r="K59" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L59" s="82"/>
       <c r="M59" s="4"/>
       <c r="N59" s="4"/>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="65"/>
-      <c r="T59" s="9"/>
-      <c r="U59" s="4"/>
+      <c r="S59" s="134"/>
+      <c r="T59" s="135"/>
+      <c r="U59" s="136"/>
       <c r="V59" s="4"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
       <c r="Z59" s="38"/>
-      <c r="AA59" s="61"/>
+      <c r="AA59" s="59"/>
       <c r="AB59" s="4"/>
       <c r="AC59" s="4"/>
       <c r="AD59" s="4"/>
       <c r="AE59" s="4"/>
       <c r="AF59" s="4"/>
-      <c r="AG59" s="65"/>
-      <c r="AH59" s="9"/>
-      <c r="AI59" s="4"/>
-      <c r="AJ59" s="4"/>
-      <c r="AK59" s="4"/>
-      <c r="AL59" s="4"/>
-      <c r="AM59" s="4"/>
-      <c r="AN59" s="38"/>
-    </row>
-    <row r="60" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG59" s="38"/>
+    </row>
+    <row r="60" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="9" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="C60" s="5"/>
       <c r="D60" s="5" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="7" t="str">
@@ -4941,47 +4730,40 @@
         <f t="shared" si="1"/>
         <v>45167</v>
       </c>
-      <c r="K60" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L60" s="88"/>
+      <c r="K60" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L60" s="82"/>
       <c r="M60" s="4"/>
       <c r="N60" s="4"/>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
-      <c r="S60" s="65"/>
-      <c r="T60" s="9"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
+      <c r="S60" s="61"/>
+      <c r="T60" s="135"/>
+      <c r="U60" s="136"/>
+      <c r="V60" s="136"/>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
       <c r="Z60" s="38"/>
-      <c r="AA60" s="61"/>
+      <c r="AA60" s="59"/>
       <c r="AB60" s="4"/>
       <c r="AC60" s="4"/>
       <c r="AD60" s="4"/>
       <c r="AE60" s="4"/>
       <c r="AF60" s="4"/>
-      <c r="AG60" s="65"/>
-      <c r="AH60" s="9"/>
-      <c r="AI60" s="4"/>
-      <c r="AJ60" s="4"/>
-      <c r="AK60" s="4"/>
-      <c r="AL60" s="4"/>
-      <c r="AM60" s="4"/>
-      <c r="AN60" s="38"/>
-    </row>
-    <row r="61" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG60" s="38"/>
+    </row>
+    <row r="61" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="F61" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5000,47 +4782,40 @@
         <f t="shared" si="1"/>
         <v>45167</v>
       </c>
-      <c r="K61" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L61" s="88"/>
+      <c r="K61" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L61" s="82"/>
       <c r="M61" s="4"/>
       <c r="N61" s="4"/>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
-      <c r="S61" s="65"/>
-      <c r="T61" s="9"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
+      <c r="S61" s="61"/>
+      <c r="T61" s="135"/>
+      <c r="U61" s="136"/>
+      <c r="V61" s="136"/>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
       <c r="Z61" s="38"/>
-      <c r="AA61" s="61"/>
+      <c r="AA61" s="59"/>
       <c r="AB61" s="4"/>
       <c r="AC61" s="4"/>
       <c r="AD61" s="4"/>
       <c r="AE61" s="4"/>
       <c r="AF61" s="4"/>
-      <c r="AG61" s="65"/>
-      <c r="AH61" s="9"/>
-      <c r="AI61" s="4"/>
-      <c r="AJ61" s="4"/>
-      <c r="AK61" s="4"/>
-      <c r="AL61" s="4"/>
-      <c r="AM61" s="4"/>
-      <c r="AN61" s="38"/>
-    </row>
-    <row r="62" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG61" s="38"/>
+    </row>
+    <row r="62" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="9" t="s">
-        <v>115</v>
+        <v>141</v>
       </c>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="F62" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5059,46 +4834,39 @@
         <f t="shared" si="1"/>
         <v>45167</v>
       </c>
-      <c r="K62" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L62" s="88"/>
+      <c r="K62" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L62" s="82"/>
       <c r="M62" s="4"/>
       <c r="N62" s="4"/>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
-      <c r="S62" s="65"/>
-      <c r="T62" s="9"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
+      <c r="S62" s="61"/>
+      <c r="T62" s="135"/>
+      <c r="U62" s="136"/>
+      <c r="V62" s="136"/>
       <c r="W62" s="4"/>
       <c r="X62" s="4"/>
       <c r="Y62" s="4"/>
       <c r="Z62" s="38"/>
-      <c r="AA62" s="61"/>
+      <c r="AA62" s="59"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
       <c r="AD62" s="4"/>
       <c r="AE62" s="4"/>
       <c r="AF62" s="4"/>
-      <c r="AG62" s="65"/>
-      <c r="AH62" s="9"/>
-      <c r="AI62" s="4"/>
-      <c r="AJ62" s="4"/>
-      <c r="AK62" s="4"/>
-      <c r="AL62" s="4"/>
-      <c r="AM62" s="4"/>
-      <c r="AN62" s="38"/>
-    </row>
-    <row r="63" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG62" s="38"/>
+    </row>
+    <row r="63" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="9" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="7" t="str">
@@ -5118,47 +4886,40 @@
         <f t="shared" si="1"/>
         <v>45171</v>
       </c>
-      <c r="K63" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L63" s="88"/>
+      <c r="K63" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L63" s="82"/>
       <c r="M63" s="4"/>
       <c r="N63" s="4"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
       <c r="Q63" s="4"/>
       <c r="R63" s="4"/>
-      <c r="S63" s="65"/>
+      <c r="S63" s="61"/>
       <c r="T63" s="9"/>
-      <c r="U63" s="4"/>
-      <c r="V63" s="4"/>
-      <c r="W63" s="4"/>
-      <c r="X63" s="4"/>
-      <c r="Y63" s="4"/>
-      <c r="Z63" s="38"/>
-      <c r="AA63" s="61"/>
+      <c r="U63" s="136"/>
+      <c r="V63" s="136"/>
+      <c r="W63" s="136"/>
+      <c r="X63" s="136"/>
+      <c r="Y63" s="136"/>
+      <c r="Z63" s="137"/>
+      <c r="AA63" s="59"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
       <c r="AD63" s="4"/>
       <c r="AE63" s="4"/>
       <c r="AF63" s="4"/>
-      <c r="AG63" s="65"/>
-      <c r="AH63" s="9"/>
-      <c r="AI63" s="4"/>
-      <c r="AJ63" s="4"/>
-      <c r="AK63" s="4"/>
-      <c r="AL63" s="4"/>
-      <c r="AM63" s="4"/>
-      <c r="AN63" s="38"/>
-    </row>
-    <row r="64" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG63" s="38"/>
+    </row>
+    <row r="64" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="9" t="s">
-        <v>117</v>
+        <v>143</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F64" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5177,47 +4938,40 @@
         <f t="shared" si="1"/>
         <v>45168</v>
       </c>
-      <c r="K64" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L64" s="88"/>
+      <c r="K64" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L64" s="82"/>
       <c r="M64" s="4"/>
       <c r="N64" s="4"/>
       <c r="O64" s="4"/>
       <c r="P64" s="4"/>
       <c r="Q64" s="4"/>
       <c r="R64" s="4"/>
-      <c r="S64" s="65"/>
+      <c r="S64" s="61"/>
       <c r="T64" s="9"/>
-      <c r="U64" s="4"/>
-      <c r="V64" s="4"/>
-      <c r="W64" s="4"/>
+      <c r="U64" s="136"/>
+      <c r="V64" s="136"/>
+      <c r="W64" s="136"/>
       <c r="X64" s="4"/>
       <c r="Y64" s="4"/>
       <c r="Z64" s="38"/>
-      <c r="AA64" s="61"/>
+      <c r="AA64" s="59"/>
       <c r="AB64" s="4"/>
       <c r="AC64" s="4"/>
       <c r="AD64" s="4"/>
       <c r="AE64" s="4"/>
       <c r="AF64" s="4"/>
-      <c r="AG64" s="65"/>
-      <c r="AH64" s="9"/>
-      <c r="AI64" s="4"/>
-      <c r="AJ64" s="4"/>
-      <c r="AK64" s="4"/>
-      <c r="AL64" s="4"/>
-      <c r="AM64" s="4"/>
-      <c r="AN64" s="38"/>
-    </row>
-    <row r="65" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG64" s="38"/>
+    </row>
+    <row r="65" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="9" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="F65" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5236,44 +4990,39 @@
         <f t="shared" si="1"/>
         <v>45170</v>
       </c>
-      <c r="K65" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L65" s="88"/>
+      <c r="K65" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L65" s="82"/>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
       <c r="P65" s="4"/>
       <c r="Q65" s="4"/>
       <c r="R65" s="4"/>
-      <c r="S65" s="65"/>
+      <c r="S65" s="61"/>
       <c r="T65" s="9"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
-      <c r="W65" s="4"/>
-      <c r="X65" s="4"/>
-      <c r="Y65" s="4"/>
+      <c r="W65" s="136"/>
+      <c r="X65" s="136"/>
+      <c r="Y65" s="136"/>
       <c r="Z65" s="38"/>
-      <c r="AA65" s="61"/>
+      <c r="AA65" s="59"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
       <c r="AD65" s="4"/>
       <c r="AE65" s="4"/>
       <c r="AF65" s="4"/>
-      <c r="AG65" s="65"/>
-      <c r="AH65" s="9"/>
-      <c r="AI65" s="4"/>
-      <c r="AJ65" s="4"/>
-      <c r="AK65" s="4"/>
-      <c r="AL65" s="4"/>
-      <c r="AM65" s="4"/>
-      <c r="AN65" s="38"/>
-    </row>
-    <row r="66" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="9"/>
+      <c r="AG65" s="38"/>
+    </row>
+    <row r="66" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="9" t="s">
+        <v>150</v>
+      </c>
       <c r="C66" s="5"/>
       <c r="D66" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="E66" s="5"/>
       <c r="F66" s="7" t="str">
@@ -5293,45 +5042,40 @@
         <f t="shared" si="1"/>
         <v>45171</v>
       </c>
-      <c r="K66" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L66" s="88"/>
+      <c r="K66" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L66" s="82"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
       <c r="P66" s="4"/>
       <c r="Q66" s="4"/>
       <c r="R66" s="4"/>
-      <c r="S66" s="65"/>
+      <c r="S66" s="61"/>
       <c r="T66" s="9"/>
       <c r="U66" s="4"/>
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
-      <c r="Y66" s="4"/>
-      <c r="Z66" s="38"/>
-      <c r="AA66" s="61"/>
+      <c r="Y66" s="136"/>
+      <c r="Z66" s="137"/>
+      <c r="AA66" s="59"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
       <c r="AD66" s="4"/>
       <c r="AE66" s="4"/>
       <c r="AF66" s="4"/>
-      <c r="AG66" s="65"/>
-      <c r="AH66" s="9"/>
-      <c r="AI66" s="4"/>
-      <c r="AJ66" s="4"/>
-      <c r="AK66" s="4"/>
-      <c r="AL66" s="4"/>
-      <c r="AM66" s="4"/>
-      <c r="AN66" s="38"/>
-    </row>
-    <row r="67" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="9"/>
+      <c r="AG66" s="38"/>
+    </row>
+    <row r="67" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="F67" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5350,45 +5094,40 @@
         <f t="shared" si="1"/>
         <v>45171</v>
       </c>
-      <c r="K67" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L67" s="88"/>
+      <c r="K67" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L67" s="82"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4"/>
       <c r="O67" s="4"/>
       <c r="P67" s="4"/>
       <c r="Q67" s="4"/>
       <c r="R67" s="4"/>
-      <c r="S67" s="65"/>
+      <c r="S67" s="61"/>
       <c r="T67" s="9"/>
       <c r="U67" s="4"/>
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
-      <c r="Y67" s="4"/>
-      <c r="Z67" s="38"/>
-      <c r="AA67" s="61"/>
+      <c r="Y67" s="136"/>
+      <c r="Z67" s="137"/>
+      <c r="AA67" s="59"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
       <c r="AD67" s="4"/>
       <c r="AE67" s="4"/>
       <c r="AF67" s="4"/>
-      <c r="AG67" s="65"/>
-      <c r="AH67" s="9"/>
-      <c r="AI67" s="4"/>
-      <c r="AJ67" s="4"/>
-      <c r="AK67" s="4"/>
-      <c r="AL67" s="4"/>
-      <c r="AM67" s="4"/>
-      <c r="AN67" s="38"/>
-    </row>
-    <row r="68" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="9"/>
+      <c r="AG67" s="38"/>
+    </row>
+    <row r="68" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="F68" s="7" t="str">
         <f t="shared" si="0"/>
@@ -5407,52 +5146,47 @@
         <f t="shared" si="1"/>
         <v>45171</v>
       </c>
-      <c r="K68" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L68" s="88"/>
+      <c r="K68" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L68" s="82"/>
       <c r="M68" s="4"/>
       <c r="N68" s="4"/>
       <c r="O68" s="4"/>
       <c r="P68" s="4"/>
       <c r="Q68" s="4"/>
       <c r="R68" s="4"/>
-      <c r="S68" s="65"/>
+      <c r="S68" s="61"/>
       <c r="T68" s="9"/>
       <c r="U68" s="4"/>
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
-      <c r="Y68" s="4"/>
-      <c r="Z68" s="38"/>
-      <c r="AA68" s="61"/>
+      <c r="Y68" s="136"/>
+      <c r="Z68" s="137"/>
+      <c r="AA68" s="59"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
       <c r="AE68" s="4"/>
       <c r="AF68" s="4"/>
-      <c r="AG68" s="65"/>
-      <c r="AH68" s="9"/>
-      <c r="AI68" s="4"/>
-      <c r="AJ68" s="4"/>
-      <c r="AK68" s="4"/>
-      <c r="AL68" s="4"/>
-      <c r="AM68" s="4"/>
-      <c r="AN68" s="38"/>
-    </row>
-    <row r="69" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="9"/>
+      <c r="AG68" s="38"/>
+    </row>
+    <row r="69" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G69" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H69" s="4">
         <v>1</v>
@@ -5464,52 +5198,47 @@
         <f t="shared" si="1"/>
         <v>45172</v>
       </c>
-      <c r="K69" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L69" s="88"/>
+      <c r="K69" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L69" s="82"/>
       <c r="M69" s="4"/>
       <c r="N69" s="4"/>
       <c r="O69" s="4"/>
       <c r="P69" s="4"/>
       <c r="Q69" s="4"/>
       <c r="R69" s="4"/>
-      <c r="S69" s="65"/>
+      <c r="S69" s="61"/>
       <c r="T69" s="9"/>
       <c r="U69" s="4"/>
       <c r="V69" s="4"/>
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
-      <c r="Z69" s="38"/>
-      <c r="AA69" s="61"/>
+      <c r="Z69" s="137"/>
+      <c r="AA69" s="138"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
       <c r="AE69" s="4"/>
       <c r="AF69" s="4"/>
-      <c r="AG69" s="65"/>
-      <c r="AH69" s="9"/>
-      <c r="AI69" s="4"/>
-      <c r="AJ69" s="4"/>
-      <c r="AK69" s="4"/>
-      <c r="AL69" s="4"/>
-      <c r="AM69" s="4"/>
-      <c r="AN69" s="38"/>
-    </row>
-    <row r="70" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="9"/>
+      <c r="AG69" s="38"/>
+    </row>
+    <row r="70" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F70" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G70" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H70" s="4">
         <v>1</v>
@@ -5521,52 +5250,47 @@
         <f t="shared" si="1"/>
         <v>45172</v>
       </c>
-      <c r="K70" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L70" s="88"/>
+      <c r="K70" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L70" s="82"/>
       <c r="M70" s="4"/>
       <c r="N70" s="4"/>
       <c r="O70" s="4"/>
       <c r="P70" s="4"/>
       <c r="Q70" s="4"/>
       <c r="R70" s="4"/>
-      <c r="S70" s="65"/>
+      <c r="S70" s="61"/>
       <c r="T70" s="9"/>
       <c r="U70" s="4"/>
       <c r="V70" s="4"/>
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
-      <c r="Z70" s="38"/>
-      <c r="AA70" s="61"/>
+      <c r="Z70" s="137"/>
+      <c r="AA70" s="138"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
       <c r="AE70" s="4"/>
       <c r="AF70" s="4"/>
-      <c r="AG70" s="65"/>
-      <c r="AH70" s="9"/>
-      <c r="AI70" s="4"/>
-      <c r="AJ70" s="4"/>
-      <c r="AK70" s="4"/>
-      <c r="AL70" s="4"/>
-      <c r="AM70" s="4"/>
-      <c r="AN70" s="38"/>
-    </row>
-    <row r="71" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="9"/>
+      <c r="AG70" s="38"/>
+    </row>
+    <row r="71" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="F71" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G71" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H71" s="4">
         <v>1</v>
@@ -5578,274 +5302,249 @@
         <f t="shared" si="1"/>
         <v>45172</v>
       </c>
-      <c r="K71" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L71" s="88"/>
+      <c r="K71" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L71" s="82"/>
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
       <c r="P71" s="4"/>
       <c r="Q71" s="4"/>
       <c r="R71" s="4"/>
-      <c r="S71" s="65"/>
+      <c r="S71" s="61"/>
       <c r="T71" s="9"/>
       <c r="U71" s="4"/>
       <c r="V71" s="4"/>
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
-      <c r="Z71" s="38"/>
-      <c r="AA71" s="61"/>
+      <c r="Z71" s="137"/>
+      <c r="AA71" s="138"/>
       <c r="AB71" s="4"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
       <c r="AF71" s="4"/>
-      <c r="AG71" s="65"/>
-      <c r="AH71" s="9"/>
-      <c r="AI71" s="4"/>
-      <c r="AJ71" s="4"/>
-      <c r="AK71" s="4"/>
-      <c r="AL71" s="4"/>
-      <c r="AM71" s="4"/>
-      <c r="AN71" s="38"/>
-    </row>
-    <row r="72" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG71" s="38"/>
+    </row>
+    <row r="72" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="9" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G72" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" s="4">
         <v>2</v>
       </c>
-      <c r="I72" s="48"/>
+      <c r="I72" s="48">
+        <v>45171</v>
+      </c>
       <c r="J72" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K72" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L72" s="88"/>
+        <v>45173</v>
+      </c>
+      <c r="K72" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L72" s="82"/>
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
       <c r="P72" s="4"/>
       <c r="Q72" s="4"/>
       <c r="R72" s="4"/>
-      <c r="S72" s="65"/>
+      <c r="S72" s="61"/>
       <c r="T72" s="9"/>
       <c r="U72" s="4"/>
       <c r="V72" s="4"/>
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
-      <c r="Z72" s="38"/>
-      <c r="AA72" s="61"/>
-      <c r="AB72" s="4"/>
+      <c r="Z72" s="137"/>
+      <c r="AA72" s="138"/>
+      <c r="AB72" s="136"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
       <c r="AF72" s="4"/>
-      <c r="AG72" s="65"/>
-      <c r="AH72" s="9"/>
-      <c r="AI72" s="4"/>
-      <c r="AJ72" s="4"/>
-      <c r="AK72" s="4"/>
-      <c r="AL72" s="4"/>
-      <c r="AM72" s="4"/>
-      <c r="AN72" s="38"/>
-    </row>
-    <row r="73" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG72" s="38"/>
+    </row>
+    <row r="73" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="9" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="F73" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G73" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H73" s="4">
         <v>2</v>
       </c>
-      <c r="I73" s="48"/>
+      <c r="I73" s="48">
+        <v>45171</v>
+      </c>
       <c r="J73" s="46">
         <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="K73" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L73" s="88"/>
+        <v>45173</v>
+      </c>
+      <c r="K73" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L73" s="82"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
       <c r="P73" s="4"/>
       <c r="Q73" s="4"/>
       <c r="R73" s="4"/>
-      <c r="S73" s="65"/>
+      <c r="S73" s="61"/>
       <c r="T73" s="9"/>
       <c r="U73" s="4"/>
       <c r="V73" s="4"/>
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
-      <c r="Z73" s="38"/>
-      <c r="AA73" s="61"/>
-      <c r="AB73" s="4"/>
+      <c r="Z73" s="137"/>
+      <c r="AA73" s="138"/>
+      <c r="AB73" s="136"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
       <c r="AF73" s="4"/>
-      <c r="AG73" s="65"/>
-      <c r="AH73" s="9"/>
-      <c r="AI73" s="4"/>
-      <c r="AJ73" s="4"/>
-      <c r="AK73" s="4"/>
-      <c r="AL73" s="4"/>
-      <c r="AM73" s="4"/>
-      <c r="AN73" s="38"/>
-    </row>
-    <row r="74" spans="2:40" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="AG73" s="38"/>
+    </row>
+    <row r="74" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B74" s="9" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="F74" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G74" s="8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" s="4">
         <v>1</v>
       </c>
-      <c r="I74" s="48"/>
+      <c r="I74" s="48">
+        <v>45171</v>
+      </c>
       <c r="J74" s="46">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K74" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="L74" s="88"/>
+        <v>45172</v>
+      </c>
+      <c r="K74" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L74" s="82"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
       <c r="P74" s="4"/>
       <c r="Q74" s="4"/>
       <c r="R74" s="4"/>
-      <c r="S74" s="65"/>
+      <c r="S74" s="61"/>
       <c r="T74" s="9"/>
       <c r="U74" s="4"/>
       <c r="V74" s="4"/>
       <c r="W74" s="4"/>
       <c r="X74" s="4"/>
       <c r="Y74" s="4"/>
-      <c r="Z74" s="38"/>
-      <c r="AA74" s="61"/>
+      <c r="Z74" s="137"/>
+      <c r="AA74" s="138"/>
       <c r="AB74" s="4"/>
       <c r="AC74" s="4"/>
       <c r="AD74" s="4"/>
       <c r="AE74" s="4"/>
       <c r="AF74" s="4"/>
-      <c r="AG74" s="65"/>
-      <c r="AH74" s="9"/>
-      <c r="AI74" s="4"/>
-      <c r="AJ74" s="4"/>
-      <c r="AK74" s="4"/>
-      <c r="AL74" s="4"/>
-      <c r="AM74" s="4"/>
-      <c r="AN74" s="38"/>
-    </row>
-    <row r="75" spans="2:40" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="AG74" s="38"/>
+    </row>
+    <row r="75" spans="2:33" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B75" s="10" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="F75" s="12" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G75" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" s="14">
         <v>1</v>
       </c>
-      <c r="I75" s="52"/>
+      <c r="I75" s="52">
+        <v>45171</v>
+      </c>
       <c r="J75" s="47">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="K75" s="82" t="s">
-        <v>52</v>
-      </c>
-      <c r="L75" s="89"/>
+        <v>45172</v>
+      </c>
+      <c r="K75" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="L75" s="83"/>
       <c r="M75" s="14"/>
       <c r="N75" s="14"/>
       <c r="O75" s="14"/>
       <c r="P75" s="14"/>
       <c r="Q75" s="14"/>
       <c r="R75" s="14"/>
-      <c r="S75" s="66"/>
+      <c r="S75" s="62"/>
       <c r="T75" s="10"/>
       <c r="U75" s="14"/>
       <c r="V75" s="14"/>
       <c r="W75" s="14"/>
       <c r="X75" s="14"/>
       <c r="Y75" s="14"/>
-      <c r="Z75" s="39"/>
-      <c r="AA75" s="60"/>
+      <c r="Z75" s="139"/>
+      <c r="AA75" s="140"/>
       <c r="AB75" s="14"/>
       <c r="AC75" s="14"/>
       <c r="AD75" s="14"/>
       <c r="AE75" s="14"/>
       <c r="AF75" s="14"/>
-      <c r="AG75" s="66"/>
-      <c r="AH75" s="10"/>
-      <c r="AI75" s="14"/>
-      <c r="AJ75" s="14"/>
-      <c r="AK75" s="14"/>
-      <c r="AL75" s="14"/>
-      <c r="AM75" s="14"/>
-      <c r="AN75" s="39"/>
+      <c r="AG75" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
-    <mergeCell ref="AH11:AN11"/>
-    <mergeCell ref="M10:AN10"/>
+  <mergeCells count="20">
+    <mergeCell ref="M10:AG10"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="C10:C12"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="I10:I12"/>
@@ -5856,12 +5555,9 @@
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
     <mergeCell ref="G10:G12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/documents/WBS.xlsx
+++ b/documents/WBS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tlsdp\Desktop\github\project02\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github\project02\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F362E5A2-087E-480E-A912-B6B4A338F74E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC959AC8-4100-4DA9-97ED-088B5C9F6284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="171">
   <si>
     <t>프로젝트 명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,10 +542,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.1.3 네이버 소셜 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2.3.4 입고 처리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,9 +599,6 @@
   <si>
     <t>4.5.2 배송 관리 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FUR-021</t>
   </si>
   <si>
     <t>FUR-023</t>
@@ -1186,7 +1179,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="152">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1448,200 +1441,191 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1958,10 +1942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:BN75"/>
+  <dimension ref="B1:BN74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AB15" sqref="AB15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -1985,10 +1969,10 @@
       <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="106" t="s">
+      <c r="D2" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="E2" s="107"/>
+      <c r="E2" s="131"/>
       <c r="F2" s="37"/>
       <c r="G2" s="37"/>
       <c r="H2" s="37"/>
@@ -1998,108 +1982,108 @@
       <c r="C3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="108">
+      <c r="D3" s="132">
         <v>45158</v>
       </c>
-      <c r="E3" s="97"/>
+      <c r="E3" s="133"/>
     </row>
     <row r="4" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C4" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="108">
+      <c r="D4" s="132">
         <v>45173</v>
       </c>
-      <c r="E4" s="97"/>
+      <c r="E4" s="133"/>
     </row>
     <row r="5" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C5" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="109" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="97"/>
+      <c r="D5" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="133"/>
     </row>
     <row r="6" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C6" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="96">
+      <c r="D6" s="144">
         <v>45163</v>
       </c>
-      <c r="E6" s="97"/>
+      <c r="E6" s="133"/>
     </row>
     <row r="7" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C7" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="98" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="99"/>
+      <c r="D7" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="146"/>
     </row>
     <row r="8" spans="2:66" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:66" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="10" spans="2:66" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="103" t="s">
+      <c r="B10" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="100" t="s">
+      <c r="C10" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="100" t="s">
+      <c r="D10" s="135" t="s">
         <v>8</v>
       </c>
-      <c r="E10" s="100" t="s">
+      <c r="E10" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="100" t="s">
+      <c r="F10" s="135" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="100" t="s">
+      <c r="H10" s="135" t="s">
         <v>10</v>
       </c>
-      <c r="I10" s="93" t="s">
+      <c r="I10" s="141" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="93" t="s">
+      <c r="J10" s="141" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="90" t="s">
+      <c r="K10" s="138" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="146" t="s">
+      <c r="L10" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="M10" s="88" t="s">
+      <c r="M10" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="89"/>
-      <c r="O10" s="89"/>
-      <c r="P10" s="89"/>
-      <c r="Q10" s="89"/>
-      <c r="R10" s="89"/>
-      <c r="S10" s="89"/>
-      <c r="T10" s="89"/>
-      <c r="U10" s="89"/>
-      <c r="V10" s="89"/>
-      <c r="W10" s="89"/>
-      <c r="X10" s="89"/>
-      <c r="Y10" s="89"/>
-      <c r="Z10" s="89"/>
-      <c r="AA10" s="89"/>
-      <c r="AB10" s="89"/>
-      <c r="AC10" s="89"/>
-      <c r="AD10" s="89"/>
-      <c r="AE10" s="89"/>
-      <c r="AF10" s="89"/>
-      <c r="AG10" s="147"/>
+      <c r="N10" s="125"/>
+      <c r="O10" s="125"/>
+      <c r="P10" s="125"/>
+      <c r="Q10" s="125"/>
+      <c r="R10" s="125"/>
+      <c r="S10" s="125"/>
+      <c r="T10" s="125"/>
+      <c r="U10" s="125"/>
+      <c r="V10" s="125"/>
+      <c r="W10" s="125"/>
+      <c r="X10" s="125"/>
+      <c r="Y10" s="125"/>
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="125"/>
+      <c r="AB10" s="125"/>
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="125"/>
+      <c r="AE10" s="125"/>
+      <c r="AF10" s="125"/>
+      <c r="AG10" s="126"/>
       <c r="AH10" s="3"/>
       <c r="AI10" s="3"/>
       <c r="AJ10" s="3"/>
@@ -2135,59 +2119,59 @@
       <c r="BN10" s="1"/>
     </row>
     <row r="11" spans="2:66" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="104"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="94"/>
-      <c r="K11" s="91"/>
-      <c r="L11" s="148" t="s">
+      <c r="B11" s="128"/>
+      <c r="C11" s="136"/>
+      <c r="D11" s="136"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="136"/>
+      <c r="I11" s="142"/>
+      <c r="J11" s="142"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="M11" s="87" t="s">
+      <c r="M11" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="N11" s="87"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87" t="s">
+      <c r="N11" s="147"/>
+      <c r="O11" s="147"/>
+      <c r="P11" s="147"/>
+      <c r="Q11" s="147"/>
+      <c r="R11" s="147"/>
+      <c r="S11" s="147"/>
+      <c r="T11" s="147" t="s">
         <v>38</v>
       </c>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="87"/>
-      <c r="Y11" s="87"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87" t="s">
+      <c r="U11" s="147"/>
+      <c r="V11" s="147"/>
+      <c r="W11" s="147"/>
+      <c r="X11" s="147"/>
+      <c r="Y11" s="147"/>
+      <c r="Z11" s="147"/>
+      <c r="AA11" s="147" t="s">
         <v>39</v>
       </c>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="149"/>
+      <c r="AB11" s="147"/>
+      <c r="AC11" s="147"/>
+      <c r="AD11" s="147"/>
+      <c r="AE11" s="147"/>
+      <c r="AF11" s="147"/>
+      <c r="AG11" s="148"/>
     </row>
     <row r="12" spans="2:66" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B12" s="105"/>
-      <c r="C12" s="102"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="102"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="95"/>
-      <c r="J12" s="95"/>
-      <c r="K12" s="92"/>
-      <c r="L12" s="150" t="s">
+      <c r="B12" s="129"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="143"/>
+      <c r="J12" s="143"/>
+      <c r="K12" s="140"/>
+      <c r="L12" s="122" t="s">
         <v>14</v>
       </c>
       <c r="M12" s="80" t="s">
@@ -2250,7 +2234,7 @@
       <c r="AF12" s="80" t="s">
         <v>36</v>
       </c>
-      <c r="AG12" s="151" t="s">
+      <c r="AG12" s="123" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2287,17 +2271,17 @@
         <v>44</v>
       </c>
       <c r="L13" s="81"/>
-      <c r="M13" s="112"/>
-      <c r="N13" s="112"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="112"/>
-      <c r="S13" s="113"/>
+      <c r="M13" s="89"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="89"/>
+      <c r="Q13" s="89"/>
+      <c r="R13" s="89"/>
+      <c r="S13" s="90"/>
       <c r="T13" s="24"/>
-      <c r="U13" s="112"/>
-      <c r="V13" s="112"/>
-      <c r="W13" s="112"/>
+      <c r="U13" s="89"/>
+      <c r="V13" s="89"/>
+      <c r="W13" s="89"/>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="55"/>
@@ -2319,7 +2303,7 @@
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="7" t="str">
-        <f t="shared" ref="F14:F75" si="0">IF(G14=1,"완료",IF(G14=0, "대기중","진행중"))</f>
+        <f t="shared" ref="F14:F74" si="0">IF(G14=1,"완료",IF(G14=0, "대기중","진행중"))</f>
         <v>완료</v>
       </c>
       <c r="G14" s="8">
@@ -2332,19 +2316,19 @@
         <v>45158</v>
       </c>
       <c r="J14" s="46">
-        <f t="shared" ref="J14:J75" si="1">I14+H14</f>
+        <f t="shared" ref="J14:J74" si="1">I14+H14</f>
         <v>45163</v>
       </c>
       <c r="K14" s="74" t="s">
         <v>44</v>
       </c>
       <c r="L14" s="82"/>
-      <c r="M14" s="110"/>
-      <c r="N14" s="110"/>
-      <c r="O14" s="110"/>
-      <c r="P14" s="110"/>
-      <c r="Q14" s="110"/>
-      <c r="R14" s="110"/>
+      <c r="M14" s="87"/>
+      <c r="N14" s="87"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
       <c r="S14" s="61"/>
       <c r="T14" s="9"/>
       <c r="U14" s="4"/>
@@ -2391,12 +2375,12 @@
         <v>44</v>
       </c>
       <c r="L15" s="82"/>
-      <c r="M15" s="110"/>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
+      <c r="M15" s="87"/>
+      <c r="N15" s="87"/>
+      <c r="O15" s="87"/>
+      <c r="P15" s="87"/>
+      <c r="Q15" s="87"/>
+      <c r="R15" s="87"/>
       <c r="S15" s="61"/>
       <c r="T15" s="9"/>
       <c r="U15" s="4"/>
@@ -2443,8 +2427,8 @@
         <v>44</v>
       </c>
       <c r="L16" s="82"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
+      <c r="M16" s="87"/>
+      <c r="N16" s="87"/>
       <c r="O16" s="4"/>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -2495,8 +2479,8 @@
         <v>44</v>
       </c>
       <c r="L17" s="82"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
+      <c r="M17" s="87"/>
+      <c r="N17" s="87"/>
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
@@ -2549,9 +2533,9 @@
       <c r="L18" s="82"/>
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
-      <c r="O18" s="110"/>
-      <c r="P18" s="110"/>
-      <c r="Q18" s="110"/>
+      <c r="O18" s="87"/>
+      <c r="P18" s="87"/>
+      <c r="Q18" s="87"/>
       <c r="R18" s="4"/>
       <c r="S18" s="61"/>
       <c r="T18" s="9"/>
@@ -2601,9 +2585,9 @@
       <c r="L19" s="82"/>
       <c r="M19" s="4"/>
       <c r="N19" s="4"/>
-      <c r="O19" s="110"/>
-      <c r="P19" s="110"/>
-      <c r="Q19" s="110"/>
+      <c r="O19" s="87"/>
+      <c r="P19" s="87"/>
+      <c r="Q19" s="87"/>
       <c r="R19" s="4"/>
       <c r="S19" s="61"/>
       <c r="T19" s="9"/>
@@ -2653,9 +2637,9 @@
       <c r="L20" s="82"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
-      <c r="O20" s="110"/>
-      <c r="P20" s="110"/>
-      <c r="Q20" s="110"/>
+      <c r="O20" s="87"/>
+      <c r="P20" s="87"/>
+      <c r="Q20" s="87"/>
       <c r="R20" s="4"/>
       <c r="S20" s="61"/>
       <c r="T20" s="9"/>
@@ -2707,8 +2691,8 @@
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
-      <c r="Q21" s="110"/>
-      <c r="R21" s="110"/>
+      <c r="Q21" s="87"/>
+      <c r="R21" s="87"/>
       <c r="S21" s="61"/>
       <c r="T21" s="9"/>
       <c r="U21" s="4"/>
@@ -2759,8 +2743,8 @@
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
-      <c r="Q22" s="110"/>
-      <c r="R22" s="110"/>
+      <c r="Q22" s="87"/>
+      <c r="R22" s="87"/>
       <c r="S22" s="61"/>
       <c r="T22" s="9"/>
       <c r="U22" s="4"/>
@@ -2811,8 +2795,8 @@
       <c r="N23" s="4"/>
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
-      <c r="Q23" s="110"/>
-      <c r="R23" s="110"/>
+      <c r="Q23" s="87"/>
+      <c r="R23" s="87"/>
       <c r="S23" s="61"/>
       <c r="T23" s="9"/>
       <c r="U23" s="4"/>
@@ -2868,8 +2852,8 @@
       <c r="S24" s="61"/>
       <c r="T24" s="9"/>
       <c r="U24" s="4"/>
-      <c r="V24" s="110"/>
-      <c r="W24" s="110"/>
+      <c r="V24" s="87"/>
+      <c r="W24" s="87"/>
       <c r="X24" s="4"/>
       <c r="Y24" s="4"/>
       <c r="Z24" s="38"/>
@@ -2920,8 +2904,8 @@
       <c r="S25" s="61"/>
       <c r="T25" s="9"/>
       <c r="U25" s="4"/>
-      <c r="V25" s="110"/>
-      <c r="W25" s="110"/>
+      <c r="V25" s="87"/>
+      <c r="W25" s="87"/>
       <c r="X25" s="4"/>
       <c r="Y25" s="4"/>
       <c r="Z25" s="38"/>
@@ -2972,8 +2956,8 @@
       <c r="S26" s="61"/>
       <c r="T26" s="9"/>
       <c r="U26" s="4"/>
-      <c r="V26" s="110"/>
-      <c r="W26" s="110"/>
+      <c r="V26" s="87"/>
+      <c r="W26" s="87"/>
       <c r="X26" s="4"/>
       <c r="Y26" s="4"/>
       <c r="Z26" s="38"/>
@@ -3024,8 +3008,8 @@
       <c r="S27" s="61"/>
       <c r="T27" s="9"/>
       <c r="U27" s="4"/>
-      <c r="V27" s="110"/>
-      <c r="W27" s="110"/>
+      <c r="V27" s="87"/>
+      <c r="W27" s="87"/>
       <c r="X27" s="4"/>
       <c r="Y27" s="4"/>
       <c r="Z27" s="38"/>
@@ -3076,8 +3060,8 @@
       <c r="S28" s="64"/>
       <c r="T28" s="17"/>
       <c r="U28" s="21"/>
-      <c r="V28" s="111"/>
-      <c r="W28" s="111"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="88"/>
       <c r="X28" s="21"/>
       <c r="Y28" s="21"/>
       <c r="Z28" s="65"/>
@@ -3100,11 +3084,11 @@
       <c r="E29" s="69"/>
       <c r="F29" s="70" t="str">
         <f t="shared" si="0"/>
-        <v>진행중</v>
+        <v>완료</v>
       </c>
       <c r="G29" s="71">
-        <f>AVERAGE(G30,G35,G39)</f>
-        <v>0.93333333333333324</v>
+        <f>AVERAGE(G30,G34,G38)</f>
+        <v>1</v>
       </c>
       <c r="H29" s="70">
         <v>14</v>
@@ -3120,20 +3104,20 @@
         <v>44</v>
       </c>
       <c r="L29" s="81"/>
-      <c r="M29" s="121"/>
-      <c r="N29" s="121"/>
-      <c r="O29" s="121"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="122"/>
+      <c r="M29" s="98"/>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="99"/>
       <c r="T29" s="68"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="123"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="100"/>
       <c r="AA29" s="60"/>
       <c r="AB29" s="16"/>
       <c r="AC29" s="16"/>
@@ -3153,10 +3137,10 @@
       <c r="E30" s="6"/>
       <c r="F30" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>진행중</v>
+        <v>완료</v>
       </c>
       <c r="G30" s="8">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="H30" s="7">
         <v>1</v>
@@ -3172,8 +3156,8 @@
         <v>44</v>
       </c>
       <c r="L30" s="82"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -3224,8 +3208,8 @@
         <v>44</v>
       </c>
       <c r="L31" s="82"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -3276,8 +3260,8 @@
         <v>44</v>
       </c>
       <c r="L32" s="82"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
+      <c r="M32" s="91"/>
+      <c r="N32" s="91"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -3300,32 +3284,36 @@
     </row>
     <row r="33" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B33" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>146</v>
+        <v>65</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="F33" s="7" t="str">
         <f t="shared" si="0"/>
-        <v>대기중</v>
+        <v>완료</v>
       </c>
       <c r="G33" s="8">
-        <v>0</v>
-      </c>
-      <c r="H33" s="4"/>
-      <c r="I33" s="46"/>
+        <v>1</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1</v>
+      </c>
+      <c r="I33" s="48">
+        <v>45158</v>
+      </c>
       <c r="J33" s="46">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>45159</v>
       </c>
       <c r="K33" s="74" t="s">
         <v>44</v>
       </c>
       <c r="L33" s="82"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
@@ -3348,13 +3336,13 @@
     </row>
     <row r="34" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B34" s="9" t="s">
-        <v>65</v>
+        <v>161</v>
       </c>
       <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5" t="s">
-        <v>103</v>
-      </c>
+      <c r="D34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E34" s="5"/>
       <c r="F34" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -3362,34 +3350,36 @@
       <c r="G34" s="8">
         <v>1</v>
       </c>
-      <c r="H34" s="7">
-        <v>1</v>
+      <c r="H34" s="4">
+        <f>J34-I34</f>
+        <v>14</v>
       </c>
       <c r="I34" s="48">
+        <f>MIN(I35:I37)</f>
         <v>45158</v>
       </c>
       <c r="J34" s="46">
-        <f t="shared" si="1"/>
-        <v>45159</v>
+        <f>MAX(J35:J37)</f>
+        <v>45172</v>
       </c>
       <c r="K34" s="74" t="s">
         <v>44</v>
       </c>
       <c r="L34" s="82"/>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114"/>
-      <c r="O34" s="4"/>
-      <c r="P34" s="4"/>
-      <c r="Q34" s="4"/>
-      <c r="R34" s="4"/>
-      <c r="S34" s="61"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="4"/>
-      <c r="V34" s="4"/>
-      <c r="W34" s="4"/>
-      <c r="X34" s="4"/>
-      <c r="Y34" s="4"/>
-      <c r="Z34" s="38"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="91"/>
+      <c r="S34" s="101"/>
+      <c r="T34" s="92"/>
+      <c r="U34" s="91"/>
+      <c r="V34" s="91"/>
+      <c r="W34" s="91"/>
+      <c r="X34" s="91"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="93"/>
       <c r="AA34" s="59"/>
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
@@ -3400,13 +3390,13 @@
     </row>
     <row r="35" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B35" s="9" t="s">
-        <v>163</v>
+        <v>66</v>
       </c>
       <c r="C35" s="5"/>
-      <c r="D35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="F35" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -3415,35 +3405,33 @@
         <v>1</v>
       </c>
       <c r="H35" s="4">
-        <f>J35-I35</f>
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I35" s="48">
-        <f>MIN(I36:I38)</f>
         <v>45158</v>
       </c>
       <c r="J35" s="46">
-        <f>MAX(J36:J38)</f>
-        <v>45172</v>
+        <f t="shared" ref="J35:J43" si="2">I35+H35</f>
+        <v>45159</v>
       </c>
       <c r="K35" s="74" t="s">
         <v>44</v>
       </c>
       <c r="L35" s="82"/>
-      <c r="M35" s="114"/>
-      <c r="N35" s="114"/>
-      <c r="O35" s="114"/>
-      <c r="P35" s="114"/>
-      <c r="Q35" s="114"/>
-      <c r="R35" s="114"/>
-      <c r="S35" s="127"/>
-      <c r="T35" s="115"/>
-      <c r="U35" s="114"/>
-      <c r="V35" s="114"/>
-      <c r="W35" s="114"/>
-      <c r="X35" s="114"/>
-      <c r="Y35" s="114"/>
-      <c r="Z35" s="116"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+      <c r="R35" s="4"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="38"/>
       <c r="AA35" s="59"/>
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
@@ -3454,12 +3442,12 @@
     </row>
     <row r="36" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B36" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="F36" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3469,33 +3457,33 @@
         <v>1</v>
       </c>
       <c r="H36" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I36" s="48">
-        <v>45158</v>
+        <v>45165</v>
       </c>
       <c r="J36" s="46">
-        <f t="shared" ref="J36:J44" si="2">I36+H36</f>
-        <v>45159</v>
+        <f t="shared" si="1"/>
+        <v>45172</v>
       </c>
       <c r="K36" s="74" t="s">
         <v>44</v>
       </c>
       <c r="L36" s="82"/>
-      <c r="M36" s="114"/>
-      <c r="N36" s="114"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
       <c r="S36" s="61"/>
-      <c r="T36" s="124"/>
-      <c r="U36" s="125"/>
-      <c r="V36" s="125"/>
-      <c r="W36" s="125"/>
-      <c r="X36" s="125"/>
-      <c r="Y36" s="125"/>
-      <c r="Z36" s="126"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="91"/>
+      <c r="V36" s="91"/>
+      <c r="W36" s="91"/>
+      <c r="X36" s="91"/>
+      <c r="Y36" s="91"/>
+      <c r="Z36" s="93"/>
       <c r="AA36" s="59"/>
       <c r="AB36" s="4"/>
       <c r="AC36" s="4"/>
@@ -3506,12 +3494,12 @@
     </row>
     <row r="37" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B37" s="9" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="F37" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3527,7 +3515,7 @@
         <v>45165</v>
       </c>
       <c r="J37" s="46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>45172</v>
       </c>
       <c r="K37" s="74" t="s">
@@ -3541,13 +3529,13 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="4"/>
       <c r="S37" s="61"/>
-      <c r="T37" s="115"/>
-      <c r="U37" s="114"/>
-      <c r="V37" s="114"/>
-      <c r="W37" s="114"/>
-      <c r="X37" s="114"/>
-      <c r="Y37" s="114"/>
-      <c r="Z37" s="116"/>
+      <c r="T37" s="92"/>
+      <c r="U37" s="91"/>
+      <c r="V37" s="91"/>
+      <c r="W37" s="91"/>
+      <c r="X37" s="91"/>
+      <c r="Y37" s="91"/>
+      <c r="Z37" s="93"/>
       <c r="AA37" s="59"/>
       <c r="AB37" s="4"/>
       <c r="AC37" s="4"/>
@@ -3558,13 +3546,13 @@
     </row>
     <row r="38" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B38" s="9" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5" t="s">
-        <v>145</v>
-      </c>
+      <c r="D38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E38" s="5"/>
       <c r="F38" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -3576,6 +3564,7 @@
         <v>7</v>
       </c>
       <c r="I38" s="48">
+        <f>MIN(I39:I43)</f>
         <v>45165</v>
       </c>
       <c r="J38" s="46">
@@ -3593,13 +3582,13 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="4"/>
       <c r="S38" s="61"/>
-      <c r="T38" s="115"/>
-      <c r="U38" s="114"/>
-      <c r="V38" s="114"/>
-      <c r="W38" s="114"/>
-      <c r="X38" s="114"/>
-      <c r="Y38" s="114"/>
-      <c r="Z38" s="116"/>
+      <c r="T38" s="92"/>
+      <c r="U38" s="91"/>
+      <c r="V38" s="91"/>
+      <c r="W38" s="91"/>
+      <c r="X38" s="91"/>
+      <c r="Y38" s="91"/>
+      <c r="Z38" s="93"/>
       <c r="AA38" s="59"/>
       <c r="AB38" s="4"/>
       <c r="AC38" s="4"/>
@@ -3610,13 +3599,13 @@
     </row>
     <row r="39" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B39" s="9" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C39" s="5"/>
-      <c r="D39" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
+        <v>148</v>
+      </c>
       <c r="F39" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -3625,15 +3614,14 @@
         <v>1</v>
       </c>
       <c r="H39" s="4">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I39" s="48">
-        <f>MIN(I40:I44)</f>
         <v>45165</v>
       </c>
       <c r="J39" s="46">
         <f t="shared" si="2"/>
-        <v>45172</v>
+        <v>45166</v>
       </c>
       <c r="K39" s="74" t="s">
         <v>44</v>
@@ -3646,13 +3634,13 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
       <c r="S39" s="61"/>
-      <c r="T39" s="115"/>
-      <c r="U39" s="114"/>
-      <c r="V39" s="114"/>
-      <c r="W39" s="114"/>
-      <c r="X39" s="114"/>
-      <c r="Y39" s="114"/>
-      <c r="Z39" s="116"/>
+      <c r="T39" s="92"/>
+      <c r="U39" s="91"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="38"/>
       <c r="AA39" s="59"/>
       <c r="AB39" s="4"/>
       <c r="AC39" s="4"/>
@@ -3663,12 +3651,12 @@
     </row>
     <row r="40" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B40" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="F40" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3698,8 +3686,8 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="4"/>
       <c r="S40" s="61"/>
-      <c r="T40" s="115"/>
-      <c r="U40" s="114"/>
+      <c r="T40" s="92"/>
+      <c r="U40" s="91"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
       <c r="X40" s="4"/>
@@ -3715,12 +3703,12 @@
     </row>
     <row r="41" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B41" s="9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F41" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3733,11 +3721,11 @@
         <v>1</v>
       </c>
       <c r="I41" s="48">
-        <v>45165</v>
+        <v>45166</v>
       </c>
       <c r="J41" s="46">
         <f t="shared" si="2"/>
-        <v>45166</v>
+        <v>45167</v>
       </c>
       <c r="K41" s="74" t="s">
         <v>44</v>
@@ -3750,9 +3738,9 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="4"/>
       <c r="S41" s="61"/>
-      <c r="T41" s="115"/>
-      <c r="U41" s="114"/>
-      <c r="V41" s="4"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="91"/>
+      <c r="V41" s="91"/>
       <c r="W41" s="4"/>
       <c r="X41" s="4"/>
       <c r="Y41" s="4"/>
@@ -3766,224 +3754,224 @@
       <c r="AG41" s="38"/>
     </row>
     <row r="42" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="F42" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="G42" s="8">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4">
-        <v>1</v>
-      </c>
-      <c r="I42" s="48">
-        <v>45166</v>
+      <c r="B42" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="18"/>
+      <c r="D42" s="18"/>
+      <c r="E42" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="G42" s="20">
+        <v>1</v>
+      </c>
+      <c r="H42" s="21">
+        <v>1</v>
+      </c>
+      <c r="I42" s="86">
+        <v>45165</v>
       </c>
       <c r="J42" s="46">
         <f t="shared" si="2"/>
-        <v>45167</v>
-      </c>
-      <c r="K42" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="L42" s="82"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-      <c r="O42" s="4"/>
-      <c r="P42" s="4"/>
-      <c r="Q42" s="4"/>
-      <c r="R42" s="4"/>
-      <c r="S42" s="61"/>
-      <c r="T42" s="9"/>
-      <c r="U42" s="114"/>
-      <c r="V42" s="114"/>
-      <c r="W42" s="4"/>
-      <c r="X42" s="4"/>
-      <c r="Y42" s="4"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="59"/>
-      <c r="AB42" s="4"/>
-      <c r="AC42" s="4"/>
-      <c r="AD42" s="4"/>
-      <c r="AE42" s="4"/>
-      <c r="AF42" s="4"/>
-      <c r="AG42" s="38"/>
-    </row>
-    <row r="43" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="C43" s="18"/>
-      <c r="D43" s="18"/>
-      <c r="E43" s="18" t="s">
+        <v>45166</v>
+      </c>
+      <c r="K42" s="75" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" s="84"/>
+      <c r="M42" s="21"/>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="94"/>
+      <c r="U42" s="95"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="21"/>
+      <c r="Z42" s="65"/>
+      <c r="AA42" s="66"/>
+      <c r="AB42" s="21"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="21"/>
+      <c r="AE42" s="21"/>
+      <c r="AF42" s="21"/>
+      <c r="AG42" s="65"/>
+    </row>
+    <row r="43" spans="2:33" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B43" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="F43" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="G43" s="20">
-        <v>1</v>
-      </c>
-      <c r="H43" s="21">
-        <v>1</v>
-      </c>
-      <c r="I43" s="86">
-        <v>45165</v>
-      </c>
-      <c r="J43" s="46">
-        <f t="shared" si="2"/>
-        <v>45166</v>
-      </c>
-      <c r="K43" s="75" t="s">
-        <v>44</v>
-      </c>
-      <c r="L43" s="84"/>
-      <c r="M43" s="21"/>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="64"/>
-      <c r="T43" s="117"/>
-      <c r="U43" s="118"/>
-      <c r="V43" s="21"/>
-      <c r="W43" s="21"/>
-      <c r="X43" s="21"/>
-      <c r="Y43" s="21"/>
-      <c r="Z43" s="65"/>
-      <c r="AA43" s="66"/>
-      <c r="AB43" s="21"/>
-      <c r="AC43" s="21"/>
-      <c r="AD43" s="21"/>
-      <c r="AE43" s="21"/>
-      <c r="AF43" s="21"/>
-      <c r="AG43" s="65"/>
-    </row>
-    <row r="44" spans="2:33" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B44" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="11"/>
-      <c r="E44" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="F44" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="G44" s="13">
-        <v>1</v>
-      </c>
-      <c r="H44" s="14">
-        <v>1</v>
-      </c>
-      <c r="I44" s="52">
+      <c r="F43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="G43" s="13">
+        <v>1</v>
+      </c>
+      <c r="H43" s="14">
+        <v>1</v>
+      </c>
+      <c r="I43" s="52">
         <v>45171</v>
       </c>
-      <c r="J44" s="47">
+      <c r="J43" s="47">
         <f t="shared" si="2"/>
         <v>45172</v>
       </c>
-      <c r="K44" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="L44" s="83"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="10"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="119"/>
-      <c r="Z44" s="120"/>
-      <c r="AA44" s="58"/>
-      <c r="AB44" s="14"/>
-      <c r="AC44" s="14"/>
-      <c r="AD44" s="14"/>
-      <c r="AE44" s="14"/>
-      <c r="AF44" s="14"/>
-      <c r="AG44" s="39"/>
-    </row>
-    <row r="45" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="29" t="s">
+      <c r="K43" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" s="83"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="14"/>
+      <c r="V43" s="14"/>
+      <c r="W43" s="14"/>
+      <c r="X43" s="14"/>
+      <c r="Y43" s="96"/>
+      <c r="Z43" s="97"/>
+      <c r="AA43" s="58"/>
+      <c r="AB43" s="14"/>
+      <c r="AC43" s="14"/>
+      <c r="AD43" s="14"/>
+      <c r="AE43" s="14"/>
+      <c r="AF43" s="14"/>
+      <c r="AG43" s="39"/>
+    </row>
+    <row r="44" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C44" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="D45" s="30"/>
-      <c r="E45" s="30"/>
-      <c r="F45" s="31" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="G45" s="32">
-        <f>AVERAGE(G46,G51)</f>
-        <v>1</v>
-      </c>
-      <c r="H45" s="22">
+      <c r="D44" s="30"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="G44" s="32">
+        <f>AVERAGE(G45,G50)</f>
+        <v>1</v>
+      </c>
+      <c r="H44" s="22">
         <v>3</v>
       </c>
-      <c r="I45" s="50">
-        <f>MIN(I46:I55)</f>
+      <c r="I44" s="50">
+        <f>MIN(I45:I54)</f>
         <v>45161</v>
       </c>
-      <c r="J45" s="51">
+      <c r="J44" s="51">
         <f t="shared" si="1"/>
         <v>45164</v>
       </c>
-      <c r="K45" s="78" t="s">
-        <v>44</v>
-      </c>
-      <c r="L45" s="85"/>
-      <c r="M45" s="15"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="15"/>
-      <c r="P45" s="128"/>
-      <c r="Q45" s="128"/>
-      <c r="R45" s="128"/>
-      <c r="S45" s="133"/>
-      <c r="T45" s="56"/>
-      <c r="U45" s="15"/>
-      <c r="V45" s="15"/>
-      <c r="W45" s="15"/>
-      <c r="X45" s="15"/>
-      <c r="Y45" s="15"/>
-      <c r="Z45" s="57"/>
-      <c r="AA45" s="63"/>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="15"/>
-      <c r="AE45" s="15"/>
-      <c r="AF45" s="15"/>
-      <c r="AG45" s="57"/>
+      <c r="K44" s="78" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" s="85"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="102"/>
+      <c r="Q44" s="102"/>
+      <c r="R44" s="102"/>
+      <c r="S44" s="107"/>
+      <c r="T44" s="56"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="63"/>
+      <c r="AB44" s="15"/>
+      <c r="AC44" s="15"/>
+      <c r="AD44" s="15"/>
+      <c r="AE44" s="15"/>
+      <c r="AF44" s="15"/>
+      <c r="AG44" s="57"/>
+    </row>
+    <row r="45" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E45" s="5"/>
+      <c r="F45" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="G45" s="8">
+        <v>1</v>
+      </c>
+      <c r="H45" s="4">
+        <v>1</v>
+      </c>
+      <c r="I45" s="48">
+        <v>45161</v>
+      </c>
+      <c r="J45" s="46">
+        <f t="shared" si="1"/>
+        <v>45162</v>
+      </c>
+      <c r="K45" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" s="82"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="103"/>
+      <c r="Q45" s="103"/>
+      <c r="R45" s="4"/>
+      <c r="S45" s="61"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="38"/>
+      <c r="AA45" s="59"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+      <c r="AF45" s="4"/>
+      <c r="AG45" s="38"/>
     </row>
     <row r="46" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B46" s="9" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" s="5"/>
-      <c r="D46" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5" t="s">
+        <v>118</v>
+      </c>
       <c r="F46" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4008,8 +3996,8 @@
       <c r="M46" s="4"/>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="129"/>
-      <c r="Q46" s="129"/>
+      <c r="P46" s="103"/>
+      <c r="Q46" s="103"/>
       <c r="R46" s="4"/>
       <c r="S46" s="61"/>
       <c r="T46" s="9"/>
@@ -4029,12 +4017,12 @@
     </row>
     <row r="47" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B47" s="9" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F47" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4060,8 +4048,8 @@
       <c r="M47" s="4"/>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="129"/>
-      <c r="Q47" s="129"/>
+      <c r="P47" s="103"/>
+      <c r="Q47" s="103"/>
       <c r="R47" s="4"/>
       <c r="S47" s="61"/>
       <c r="T47" s="9"/>
@@ -4081,12 +4069,12 @@
     </row>
     <row r="48" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B48" s="9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F48" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4112,8 +4100,8 @@
       <c r="M48" s="4"/>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="129"/>
-      <c r="Q48" s="129"/>
+      <c r="P48" s="103"/>
+      <c r="Q48" s="103"/>
       <c r="R48" s="4"/>
       <c r="S48" s="61"/>
       <c r="T48" s="9"/>
@@ -4133,12 +4121,12 @@
     </row>
     <row r="49" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B49" s="9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F49" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4164,8 +4152,8 @@
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="129"/>
-      <c r="Q49" s="129"/>
+      <c r="P49" s="103"/>
+      <c r="Q49" s="103"/>
       <c r="R49" s="4"/>
       <c r="S49" s="61"/>
       <c r="T49" s="9"/>
@@ -4185,13 +4173,13 @@
     </row>
     <row r="50" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B50" s="9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5" t="s">
-        <v>121</v>
-      </c>
+      <c r="D50" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E50" s="5"/>
       <c r="F50" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4203,11 +4191,11 @@
         <v>1</v>
       </c>
       <c r="I50" s="48">
-        <v>45161</v>
+        <v>45163</v>
       </c>
       <c r="J50" s="46">
         <f t="shared" si="1"/>
-        <v>45162</v>
+        <v>45164</v>
       </c>
       <c r="K50" s="74" t="s">
         <v>44</v>
@@ -4216,10 +4204,10 @@
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
       <c r="O50" s="4"/>
-      <c r="P50" s="129"/>
-      <c r="Q50" s="129"/>
-      <c r="R50" s="4"/>
-      <c r="S50" s="61"/>
+      <c r="P50" s="4"/>
+      <c r="Q50" s="4"/>
+      <c r="R50" s="103"/>
+      <c r="S50" s="104"/>
       <c r="T50" s="9"/>
       <c r="U50" s="4"/>
       <c r="V50" s="4"/>
@@ -4237,13 +4225,13 @@
     </row>
     <row r="51" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B51" s="9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C51" s="5"/>
-      <c r="D51" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>125</v>
+      </c>
       <c r="F51" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4270,8 +4258,8 @@
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
-      <c r="R51" s="129"/>
-      <c r="S51" s="130"/>
+      <c r="R51" s="103"/>
+      <c r="S51" s="104"/>
       <c r="T51" s="9"/>
       <c r="U51" s="4"/>
       <c r="V51" s="4"/>
@@ -4289,12 +4277,12 @@
     </row>
     <row r="52" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B52" s="9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F52" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4322,8 +4310,8 @@
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
-      <c r="R52" s="129"/>
-      <c r="S52" s="130"/>
+      <c r="R52" s="103"/>
+      <c r="S52" s="104"/>
       <c r="T52" s="9"/>
       <c r="U52" s="4"/>
       <c r="V52" s="4"/>
@@ -4341,12 +4329,12 @@
     </row>
     <row r="53" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B53" s="9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F53" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4374,8 +4362,8 @@
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
-      <c r="R53" s="129"/>
-      <c r="S53" s="130"/>
+      <c r="R53" s="103"/>
+      <c r="S53" s="104"/>
       <c r="T53" s="9"/>
       <c r="U53" s="4"/>
       <c r="V53" s="4"/>
@@ -4391,172 +4379,172 @@
       <c r="AF53" s="4"/>
       <c r="AG53" s="38"/>
     </row>
-    <row r="54" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="F54" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="G54" s="8">
-        <v>1</v>
-      </c>
-      <c r="H54" s="4">
-        <v>1</v>
-      </c>
-      <c r="I54" s="48">
+    <row r="54" spans="2:33" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B54" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F54" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="G54" s="13">
+        <v>1</v>
+      </c>
+      <c r="H54" s="14">
+        <v>1</v>
+      </c>
+      <c r="I54" s="52">
         <v>45163</v>
       </c>
-      <c r="J54" s="46">
+      <c r="J54" s="47">
         <f t="shared" si="1"/>
         <v>45164</v>
       </c>
-      <c r="K54" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="L54" s="82"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="R54" s="129"/>
-      <c r="S54" s="130"/>
-      <c r="T54" s="9"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="38"/>
-      <c r="AA54" s="59"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-      <c r="AG54" s="38"/>
-    </row>
-    <row r="55" spans="2:33" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B55" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="G55" s="13">
-        <v>1</v>
-      </c>
-      <c r="H55" s="14">
-        <v>1</v>
-      </c>
-      <c r="I55" s="52">
-        <v>45163</v>
-      </c>
-      <c r="J55" s="47">
-        <f t="shared" si="1"/>
+      <c r="K54" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" s="84"/>
+      <c r="M54" s="21"/>
+      <c r="N54" s="21"/>
+      <c r="O54" s="21"/>
+      <c r="P54" s="21"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="105"/>
+      <c r="S54" s="106"/>
+      <c r="T54" s="17"/>
+      <c r="U54" s="21"/>
+      <c r="V54" s="21"/>
+      <c r="W54" s="21"/>
+      <c r="X54" s="21"/>
+      <c r="Y54" s="21"/>
+      <c r="Z54" s="65"/>
+      <c r="AA54" s="66"/>
+      <c r="AB54" s="21"/>
+      <c r="AC54" s="21"/>
+      <c r="AD54" s="21"/>
+      <c r="AE54" s="21"/>
+      <c r="AF54" s="21"/>
+      <c r="AG54" s="65"/>
+    </row>
+    <row r="55" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="35" t="str">
+        <f t="shared" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="G55" s="36">
+        <v>1</v>
+      </c>
+      <c r="H55" s="23">
+        <v>8</v>
+      </c>
+      <c r="I55" s="53">
+        <f>MIN(I56:I74)</f>
         <v>45164</v>
       </c>
-      <c r="K55" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="L55" s="84"/>
-      <c r="M55" s="21"/>
-      <c r="N55" s="21"/>
-      <c r="O55" s="21"/>
-      <c r="P55" s="21"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="131"/>
-      <c r="S55" s="132"/>
-      <c r="T55" s="17"/>
-      <c r="U55" s="21"/>
-      <c r="V55" s="21"/>
-      <c r="W55" s="21"/>
-      <c r="X55" s="21"/>
-      <c r="Y55" s="21"/>
-      <c r="Z55" s="65"/>
-      <c r="AA55" s="66"/>
-      <c r="AB55" s="21"/>
-      <c r="AC55" s="21"/>
-      <c r="AD55" s="21"/>
-      <c r="AE55" s="21"/>
-      <c r="AF55" s="21"/>
-      <c r="AG55" s="65"/>
-    </row>
-    <row r="56" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C56" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="35" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="G56" s="36">
-        <v>1</v>
-      </c>
-      <c r="H56" s="23">
-        <v>8</v>
-      </c>
-      <c r="I56" s="53">
-        <f>MIN(I57:I75)</f>
-        <v>45164</v>
-      </c>
-      <c r="J56" s="54">
+      <c r="J55" s="54">
         <f t="shared" si="1"/>
         <v>45172</v>
       </c>
-      <c r="K56" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="L56" s="81"/>
-      <c r="M56" s="16"/>
-      <c r="N56" s="16"/>
-      <c r="O56" s="16"/>
-      <c r="P56" s="16"/>
-      <c r="Q56" s="16"/>
-      <c r="R56" s="16"/>
-      <c r="S56" s="141"/>
-      <c r="T56" s="142"/>
-      <c r="U56" s="143"/>
-      <c r="V56" s="143"/>
-      <c r="W56" s="143"/>
-      <c r="X56" s="143"/>
-      <c r="Y56" s="143"/>
-      <c r="Z56" s="144"/>
-      <c r="AA56" s="145"/>
-      <c r="AB56" s="143"/>
-      <c r="AC56" s="16"/>
-      <c r="AD56" s="16"/>
-      <c r="AE56" s="16"/>
-      <c r="AF56" s="16"/>
-      <c r="AG56" s="55"/>
+      <c r="K55" s="79" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" s="81"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="16"/>
+      <c r="Q55" s="16"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="115"/>
+      <c r="T55" s="116"/>
+      <c r="U55" s="117"/>
+      <c r="V55" s="117"/>
+      <c r="W55" s="117"/>
+      <c r="X55" s="117"/>
+      <c r="Y55" s="117"/>
+      <c r="Z55" s="118"/>
+      <c r="AA55" s="119"/>
+      <c r="AB55" s="117"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="55"/>
+    </row>
+    <row r="56" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="E56" s="5"/>
+      <c r="F56" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="G56" s="8">
+        <v>1</v>
+      </c>
+      <c r="H56" s="4">
+        <v>2</v>
+      </c>
+      <c r="I56" s="48">
+        <v>45164</v>
+      </c>
+      <c r="J56" s="46">
+        <f t="shared" si="1"/>
+        <v>45166</v>
+      </c>
+      <c r="K56" s="74" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" s="82"/>
+      <c r="M56" s="4"/>
+      <c r="N56" s="4"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="4"/>
+      <c r="Q56" s="4"/>
+      <c r="R56" s="4"/>
+      <c r="S56" s="108"/>
+      <c r="T56" s="109"/>
+      <c r="U56" s="110"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="38"/>
+      <c r="AA56" s="59"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+      <c r="AE56" s="4"/>
+      <c r="AF56" s="4"/>
+      <c r="AG56" s="38"/>
     </row>
     <row r="57" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B57" s="9" t="s">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="E57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5" t="s">
+        <v>132</v>
+      </c>
       <c r="F57" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4584,9 +4572,9 @@
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
       <c r="R57" s="4"/>
-      <c r="S57" s="134"/>
-      <c r="T57" s="135"/>
-      <c r="U57" s="136"/>
+      <c r="S57" s="108"/>
+      <c r="T57" s="109"/>
+      <c r="U57" s="110"/>
       <c r="V57" s="4"/>
       <c r="W57" s="4"/>
       <c r="X57" s="4"/>
@@ -4602,12 +4590,12 @@
     </row>
     <row r="58" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B58" s="9" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F58" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4636,9 +4624,9 @@
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
       <c r="R58" s="4"/>
-      <c r="S58" s="134"/>
-      <c r="T58" s="135"/>
-      <c r="U58" s="136"/>
+      <c r="S58" s="108"/>
+      <c r="T58" s="109"/>
+      <c r="U58" s="110"/>
       <c r="V58" s="4"/>
       <c r="W58" s="4"/>
       <c r="X58" s="4"/>
@@ -4654,13 +4642,13 @@
     </row>
     <row r="59" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B59" s="9" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5" t="s">
-        <v>133</v>
-      </c>
+      <c r="D59" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E59" s="5"/>
       <c r="F59" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4672,11 +4660,11 @@
         <v>2</v>
       </c>
       <c r="I59" s="48">
-        <v>45164</v>
+        <v>45165</v>
       </c>
       <c r="J59" s="46">
         <f t="shared" si="1"/>
-        <v>45166</v>
+        <v>45167</v>
       </c>
       <c r="K59" s="74" t="s">
         <v>44</v>
@@ -4688,10 +4676,10 @@
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
       <c r="R59" s="4"/>
-      <c r="S59" s="134"/>
-      <c r="T59" s="135"/>
-      <c r="U59" s="136"/>
-      <c r="V59" s="4"/>
+      <c r="S59" s="61"/>
+      <c r="T59" s="109"/>
+      <c r="U59" s="110"/>
+      <c r="V59" s="110"/>
       <c r="W59" s="4"/>
       <c r="X59" s="4"/>
       <c r="Y59" s="4"/>
@@ -4706,13 +4694,13 @@
     </row>
     <row r="60" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B60" s="9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C60" s="5"/>
-      <c r="D60" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="F60" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4741,9 +4729,9 @@
       <c r="Q60" s="4"/>
       <c r="R60" s="4"/>
       <c r="S60" s="61"/>
-      <c r="T60" s="135"/>
-      <c r="U60" s="136"/>
-      <c r="V60" s="136"/>
+      <c r="T60" s="109"/>
+      <c r="U60" s="110"/>
+      <c r="V60" s="110"/>
       <c r="W60" s="4"/>
       <c r="X60" s="4"/>
       <c r="Y60" s="4"/>
@@ -4758,12 +4746,12 @@
     </row>
     <row r="61" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B61" s="9" t="s">
-        <v>109</v>
+        <v>141</v>
       </c>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F61" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4793,9 +4781,9 @@
       <c r="Q61" s="4"/>
       <c r="R61" s="4"/>
       <c r="S61" s="61"/>
-      <c r="T61" s="135"/>
-      <c r="U61" s="136"/>
-      <c r="V61" s="136"/>
+      <c r="T61" s="109"/>
+      <c r="U61" s="110"/>
+      <c r="V61" s="110"/>
       <c r="W61" s="4"/>
       <c r="X61" s="4"/>
       <c r="Y61" s="4"/>
@@ -4810,13 +4798,13 @@
     </row>
     <row r="62" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B62" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5" t="s">
-        <v>136</v>
-      </c>
+      <c r="D62" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E62" s="5"/>
       <c r="F62" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4825,14 +4813,14 @@
         <v>1</v>
       </c>
       <c r="H62" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I62" s="48">
-        <v>45165</v>
+        <v>45166</v>
       </c>
       <c r="J62" s="46">
         <f t="shared" si="1"/>
-        <v>45167</v>
+        <v>45171</v>
       </c>
       <c r="K62" s="74" t="s">
         <v>44</v>
@@ -4845,13 +4833,13 @@
       <c r="Q62" s="4"/>
       <c r="R62" s="4"/>
       <c r="S62" s="61"/>
-      <c r="T62" s="135"/>
-      <c r="U62" s="136"/>
-      <c r="V62" s="136"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="38"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="110"/>
+      <c r="V62" s="110"/>
+      <c r="W62" s="110"/>
+      <c r="X62" s="110"/>
+      <c r="Y62" s="110"/>
+      <c r="Z62" s="111"/>
       <c r="AA62" s="59"/>
       <c r="AB62" s="4"/>
       <c r="AC62" s="4"/>
@@ -4862,13 +4850,13 @@
     </row>
     <row r="63" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B63" s="9" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5" t="s">
+        <v>138</v>
+      </c>
       <c r="F63" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4877,14 +4865,14 @@
         <v>1</v>
       </c>
       <c r="H63" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I63" s="48">
         <v>45166</v>
       </c>
       <c r="J63" s="46">
         <f t="shared" si="1"/>
-        <v>45171</v>
+        <v>45168</v>
       </c>
       <c r="K63" s="74" t="s">
         <v>44</v>
@@ -4898,12 +4886,12 @@
       <c r="R63" s="4"/>
       <c r="S63" s="61"/>
       <c r="T63" s="9"/>
-      <c r="U63" s="136"/>
-      <c r="V63" s="136"/>
-      <c r="W63" s="136"/>
-      <c r="X63" s="136"/>
-      <c r="Y63" s="136"/>
-      <c r="Z63" s="137"/>
+      <c r="U63" s="110"/>
+      <c r="V63" s="110"/>
+      <c r="W63" s="110"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="38"/>
       <c r="AA63" s="59"/>
       <c r="AB63" s="4"/>
       <c r="AC63" s="4"/>
@@ -4914,12 +4902,12 @@
     </row>
     <row r="64" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B64" s="9" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F64" s="7" t="str">
         <f t="shared" si="0"/>
@@ -4932,11 +4920,11 @@
         <v>2</v>
       </c>
       <c r="I64" s="48">
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="J64" s="46">
         <f t="shared" si="1"/>
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="K64" s="74" t="s">
         <v>44</v>
@@ -4950,11 +4938,11 @@
       <c r="R64" s="4"/>
       <c r="S64" s="61"/>
       <c r="T64" s="9"/>
-      <c r="U64" s="136"/>
-      <c r="V64" s="136"/>
-      <c r="W64" s="136"/>
-      <c r="X64" s="4"/>
-      <c r="Y64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="110"/>
+      <c r="X64" s="110"/>
+      <c r="Y64" s="110"/>
       <c r="Z64" s="38"/>
       <c r="AA64" s="59"/>
       <c r="AB64" s="4"/>
@@ -4966,13 +4954,13 @@
     </row>
     <row r="65" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B65" s="9" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
-      <c r="E65" s="5" t="s">
-        <v>139</v>
-      </c>
+      <c r="D65" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E65" s="5"/>
       <c r="F65" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -4981,14 +4969,14 @@
         <v>1</v>
       </c>
       <c r="H65" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" s="48">
-        <v>45168</v>
+        <v>45170</v>
       </c>
       <c r="J65" s="46">
         <f t="shared" si="1"/>
-        <v>45170</v>
+        <v>45171</v>
       </c>
       <c r="K65" s="74" t="s">
         <v>44</v>
@@ -5004,10 +4992,10 @@
       <c r="T65" s="9"/>
       <c r="U65" s="4"/>
       <c r="V65" s="4"/>
-      <c r="W65" s="136"/>
-      <c r="X65" s="136"/>
-      <c r="Y65" s="136"/>
-      <c r="Z65" s="38"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="110"/>
+      <c r="Z65" s="111"/>
       <c r="AA65" s="59"/>
       <c r="AB65" s="4"/>
       <c r="AC65" s="4"/>
@@ -5018,13 +5006,13 @@
     </row>
     <row r="66" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B66" s="9" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="C66" s="5"/>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="5"/>
+      <c r="E66" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="E66" s="5"/>
       <c r="F66" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -5058,8 +5046,8 @@
       <c r="V66" s="4"/>
       <c r="W66" s="4"/>
       <c r="X66" s="4"/>
-      <c r="Y66" s="136"/>
-      <c r="Z66" s="137"/>
+      <c r="Y66" s="110"/>
+      <c r="Z66" s="111"/>
       <c r="AA66" s="59"/>
       <c r="AB66" s="4"/>
       <c r="AC66" s="4"/>
@@ -5070,7 +5058,7 @@
     </row>
     <row r="67" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B67" s="9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
@@ -5110,8 +5098,8 @@
       <c r="V67" s="4"/>
       <c r="W67" s="4"/>
       <c r="X67" s="4"/>
-      <c r="Y67" s="136"/>
-      <c r="Z67" s="137"/>
+      <c r="Y67" s="110"/>
+      <c r="Z67" s="111"/>
       <c r="AA67" s="59"/>
       <c r="AB67" s="4"/>
       <c r="AC67" s="4"/>
@@ -5122,13 +5110,13 @@
     </row>
     <row r="68" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B68" s="9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="5" t="s">
-        <v>153</v>
-      </c>
+      <c r="D68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E68" s="5"/>
       <c r="F68" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -5140,11 +5128,11 @@
         <v>1</v>
       </c>
       <c r="I68" s="48">
-        <v>45170</v>
+        <v>45171</v>
       </c>
       <c r="J68" s="46">
         <f t="shared" si="1"/>
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="K68" s="74" t="s">
         <v>44</v>
@@ -5162,9 +5150,9 @@
       <c r="V68" s="4"/>
       <c r="W68" s="4"/>
       <c r="X68" s="4"/>
-      <c r="Y68" s="136"/>
-      <c r="Z68" s="137"/>
-      <c r="AA68" s="59"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="111"/>
+      <c r="AA68" s="112"/>
       <c r="AB68" s="4"/>
       <c r="AC68" s="4"/>
       <c r="AD68" s="4"/>
@@ -5174,13 +5162,13 @@
     </row>
     <row r="69" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B69" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C69" s="5"/>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="5"/>
+      <c r="E69" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="E69" s="5"/>
       <c r="F69" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -5215,8 +5203,8 @@
       <c r="W69" s="4"/>
       <c r="X69" s="4"/>
       <c r="Y69" s="4"/>
-      <c r="Z69" s="137"/>
-      <c r="AA69" s="138"/>
+      <c r="Z69" s="111"/>
+      <c r="AA69" s="112"/>
       <c r="AB69" s="4"/>
       <c r="AC69" s="4"/>
       <c r="AD69" s="4"/>
@@ -5226,7 +5214,7 @@
     </row>
     <row r="70" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B70" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -5267,8 +5255,8 @@
       <c r="W70" s="4"/>
       <c r="X70" s="4"/>
       <c r="Y70" s="4"/>
-      <c r="Z70" s="137"/>
-      <c r="AA70" s="138"/>
+      <c r="Z70" s="111"/>
+      <c r="AA70" s="112"/>
       <c r="AB70" s="4"/>
       <c r="AC70" s="4"/>
       <c r="AD70" s="4"/>
@@ -5278,13 +5266,13 @@
     </row>
     <row r="71" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B71" s="9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C71" s="5"/>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5" t="s">
-        <v>161</v>
-      </c>
+      <c r="D71" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E71" s="5"/>
       <c r="F71" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -5293,14 +5281,14 @@
         <v>1</v>
       </c>
       <c r="H71" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I71" s="48">
         <v>45171</v>
       </c>
       <c r="J71" s="46">
         <f t="shared" si="1"/>
-        <v>45172</v>
+        <v>45173</v>
       </c>
       <c r="K71" s="74" t="s">
         <v>44</v>
@@ -5319,9 +5307,9 @@
       <c r="W71" s="4"/>
       <c r="X71" s="4"/>
       <c r="Y71" s="4"/>
-      <c r="Z71" s="137"/>
-      <c r="AA71" s="138"/>
-      <c r="AB71" s="4"/>
+      <c r="Z71" s="111"/>
+      <c r="AA71" s="112"/>
+      <c r="AB71" s="110"/>
       <c r="AC71" s="4"/>
       <c r="AD71" s="4"/>
       <c r="AE71" s="4"/>
@@ -5330,13 +5318,13 @@
     </row>
     <row r="72" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B72" s="9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C72" s="5"/>
-      <c r="D72" s="5" t="s">
+      <c r="D72" s="5"/>
+      <c r="E72" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="E72" s="5"/>
       <c r="F72" s="7" t="str">
         <f t="shared" si="0"/>
         <v>완료</v>
@@ -5371,9 +5359,9 @@
       <c r="W72" s="4"/>
       <c r="X72" s="4"/>
       <c r="Y72" s="4"/>
-      <c r="Z72" s="137"/>
-      <c r="AA72" s="138"/>
-      <c r="AB72" s="136"/>
+      <c r="Z72" s="111"/>
+      <c r="AA72" s="112"/>
+      <c r="AB72" s="110"/>
       <c r="AC72" s="4"/>
       <c r="AD72" s="4"/>
       <c r="AE72" s="4"/>
@@ -5382,7 +5370,7 @@
     </row>
     <row r="73" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B73" s="9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -5397,14 +5385,14 @@
         <v>1</v>
       </c>
       <c r="H73" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" s="48">
         <v>45171</v>
       </c>
       <c r="J73" s="46">
         <f t="shared" si="1"/>
-        <v>45173</v>
+        <v>45172</v>
       </c>
       <c r="K73" s="74" t="s">
         <v>44</v>
@@ -5423,121 +5411,73 @@
       <c r="W73" s="4"/>
       <c r="X73" s="4"/>
       <c r="Y73" s="4"/>
-      <c r="Z73" s="137"/>
-      <c r="AA73" s="138"/>
-      <c r="AB73" s="136"/>
+      <c r="Z73" s="111"/>
+      <c r="AA73" s="112"/>
+      <c r="AB73" s="4"/>
       <c r="AC73" s="4"/>
       <c r="AD73" s="4"/>
       <c r="AE73" s="4"/>
       <c r="AF73" s="4"/>
       <c r="AG73" s="38"/>
     </row>
-    <row r="74" spans="2:33" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="5" t="s">
+    <row r="74" spans="2:33" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B74" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C74" s="11"/>
+      <c r="D74" s="11"/>
+      <c r="E74" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="F74" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="G74" s="8">
-        <v>1</v>
-      </c>
-      <c r="H74" s="4">
-        <v>1</v>
-      </c>
-      <c r="I74" s="48">
+      <c r="F74" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>완료</v>
+      </c>
+      <c r="G74" s="13">
+        <v>1</v>
+      </c>
+      <c r="H74" s="14">
+        <v>1</v>
+      </c>
+      <c r="I74" s="52">
         <v>45171</v>
       </c>
-      <c r="J74" s="46">
+      <c r="J74" s="47">
         <f t="shared" si="1"/>
         <v>45172</v>
       </c>
-      <c r="K74" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="L74" s="82"/>
-      <c r="M74" s="4"/>
-      <c r="N74" s="4"/>
-      <c r="O74" s="4"/>
-      <c r="P74" s="4"/>
-      <c r="Q74" s="4"/>
-      <c r="R74" s="4"/>
-      <c r="S74" s="61"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="4"/>
-      <c r="V74" s="4"/>
-      <c r="W74" s="4"/>
-      <c r="X74" s="4"/>
-      <c r="Y74" s="4"/>
-      <c r="Z74" s="137"/>
-      <c r="AA74" s="138"/>
-      <c r="AB74" s="4"/>
-      <c r="AC74" s="4"/>
-      <c r="AD74" s="4"/>
-      <c r="AE74" s="4"/>
-      <c r="AF74" s="4"/>
-      <c r="AG74" s="38"/>
-    </row>
-    <row r="75" spans="2:33" ht="19.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="B75" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="C75" s="11"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="F75" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>완료</v>
-      </c>
-      <c r="G75" s="13">
-        <v>1</v>
-      </c>
-      <c r="H75" s="14">
-        <v>1</v>
-      </c>
-      <c r="I75" s="52">
-        <v>45171</v>
-      </c>
-      <c r="J75" s="47">
-        <f t="shared" si="1"/>
-        <v>45172</v>
-      </c>
-      <c r="K75" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="L75" s="83"/>
-      <c r="M75" s="14"/>
-      <c r="N75" s="14"/>
-      <c r="O75" s="14"/>
-      <c r="P75" s="14"/>
-      <c r="Q75" s="14"/>
-      <c r="R75" s="14"/>
-      <c r="S75" s="62"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="14"/>
-      <c r="V75" s="14"/>
-      <c r="W75" s="14"/>
-      <c r="X75" s="14"/>
-      <c r="Y75" s="14"/>
-      <c r="Z75" s="139"/>
-      <c r="AA75" s="140"/>
-      <c r="AB75" s="14"/>
-      <c r="AC75" s="14"/>
-      <c r="AD75" s="14"/>
-      <c r="AE75" s="14"/>
-      <c r="AF75" s="14"/>
-      <c r="AG75" s="39"/>
+      <c r="K74" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="L74" s="83"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="14"/>
+      <c r="R74" s="14"/>
+      <c r="S74" s="62"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="14"/>
+      <c r="V74" s="14"/>
+      <c r="W74" s="14"/>
+      <c r="X74" s="14"/>
+      <c r="Y74" s="14"/>
+      <c r="Z74" s="113"/>
+      <c r="AA74" s="114"/>
+      <c r="AB74" s="14"/>
+      <c r="AC74" s="14"/>
+      <c r="AD74" s="14"/>
+      <c r="AE74" s="14"/>
+      <c r="AF74" s="14"/>
+      <c r="AG74" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:Z11"/>
+    <mergeCell ref="AA11:AG11"/>
     <mergeCell ref="M10:AG10"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="D2:E2"/>
@@ -5554,10 +5494,6 @@
     <mergeCell ref="D10:D12"/>
     <mergeCell ref="E10:E12"/>
     <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="M11:S11"/>
-    <mergeCell ref="T11:Z11"/>
-    <mergeCell ref="AA11:AG11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
